--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
   <si>
     <t>Module_Name</t>
   </si>
@@ -295,9 +295,6 @@
     <t>ConvDatetc024_CreateNewCompanyUnderEvalThenChangeToPortfolioCompany</t>
   </si>
   <si>
-    <t>ConvDatetc025_CreateInsCompany</t>
-  </si>
-  <si>
     <t>ToggleTc004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnPageRecord</t>
   </si>
   <si>
@@ -305,6 +302,33 @@
   </si>
   <si>
     <t>ToggleTc009_VerifyOutSideAndInsideSdgInContainerAndEnableToggleSwitchingAndVerifySDG</t>
+  </si>
+  <si>
+    <t>FSTc016_CreatedataForCustomObject</t>
+  </si>
+  <si>
+    <t>FSTc017_createFieldsForCustomObject</t>
+  </si>
+  <si>
+    <t>ConvDatetc025_RenameStatusValues</t>
+  </si>
+  <si>
+    <t>ConvDatetc026_CreateInsCompany</t>
+  </si>
+  <si>
+    <t>ConvDatetc027_PostConditionRevertRenameStatusValues</t>
+  </si>
+  <si>
+    <t>ToggleTc010_VerifyTheButtonToggleButtonWithUserNewSession</t>
+  </si>
+  <si>
+    <t>Module3Tc002_UploadCsvToCreateTheNavigationData</t>
+  </si>
+  <si>
+    <t>Module3Tc003_VerifyTheDefaultMenuLabelAndUpdateTheLabel</t>
+  </si>
+  <si>
+    <t>Module3Tc001_createCRMUser</t>
   </si>
 </sst>
 </file>
@@ -539,7 +563,34 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="418">
+  <dxfs count="325">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -613,6 +664,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -649,6 +781,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -676,6 +844,150 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -730,6 +1042,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2215,6 +2554,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2512,6 +2923,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2539,6 +3022,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2710,6 +3247,114 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2782,6 +3427,294 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2809,6 +3742,61 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2845,6 +3833,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2881,6 +3923,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2935,87 +4013,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3084,1996 +4081,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5424,7 +4431,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,22 +4476,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="339" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="338" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="337" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="336" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5501,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,7 +4977,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -5984,12 +4991,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
@@ -6002,11 +5007,9 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
@@ -6017,9 +5020,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>33</v>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -6034,9 +5037,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -6053,7 +5056,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -6070,7 +5073,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -6087,7 +5090,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -6104,7 +5107,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -6121,7 +5124,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -6138,7 +5141,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -6154,11 +5157,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -6170,10 +5175,12 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -6185,10 +5192,12 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -6199,11 +5208,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
+      <c r="A45" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
@@ -6215,10 +5224,12 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
@@ -6230,10 +5241,12 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
@@ -6244,8 +5257,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>60</v>
+      <c r="A48" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -6260,7 +5273,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
@@ -6275,7 +5288,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -6290,7 +5303,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -6305,7 +5318,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -6320,7 +5333,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -6335,7 +5348,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -6350,7 +5363,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -6364,23 +5377,23 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>84</v>
+      <c r="A56" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>82</v>
+      <c r="A57" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -6393,921 +5406,1151 @@
         <v>9</v>
       </c>
     </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="335" priority="313" operator="equal">
+  <conditionalFormatting sqref="E6 E45">
+    <cfRule type="cellIs" dxfId="290" priority="355" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="356" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="357" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D44:D45">
+    <cfRule type="containsText" dxfId="287" priority="394" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="395" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="396" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="308" priority="352" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="284" priority="397" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="353" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="283" priority="398" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="354" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="282" priority="399" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="305" priority="355" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="356" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="357" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="302" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="281" priority="388" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="280" priority="389" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="279" priority="390" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="299" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="277" priority="392" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="276" priority="393" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="296" priority="340" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="275" priority="382" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="341" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="274" priority="383" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="342" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="273" priority="384" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="293" priority="343" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="272" priority="385" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="344" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="271" priority="386" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="345" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="270" priority="387" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="290" priority="334" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="269" priority="376" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="335" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="268" priority="377" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="336" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="267" priority="378" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="287" priority="337" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="266" priority="379" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="338" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="265" priority="380" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="339" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="264" priority="381" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="284" priority="328" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="329" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="330" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="281" priority="331" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="373" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="332" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="374" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="333" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="375" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="278" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="367" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="368" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="369" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="275" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="364" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="365" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="366" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="272" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="361" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="362" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="363" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="269" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="358" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="359" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="360" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="242" priority="208" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="245" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="209" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="244" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="210" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="243" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="239" priority="211" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="242" priority="253" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="212" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="241" priority="254" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="213" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="247" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="248" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="233" priority="277" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="278" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="279" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="230" priority="280" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="281" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="282" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E31">
-    <cfRule type="cellIs" dxfId="227" priority="196" operator="equal">
+  <conditionalFormatting sqref="D48:D50">
+    <cfRule type="containsText" dxfId="236" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D50">
+    <cfRule type="containsText" dxfId="233" priority="322" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="323" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="324" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E33">
+    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+  <conditionalFormatting sqref="E48:E50">
+    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="281" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="282" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="221" priority="151" operator="equal">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="224" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="194" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="195" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="203" priority="199" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule type="containsText" dxfId="221" priority="241" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="200" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="220" priority="242" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="219" priority="243" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule type="containsText" dxfId="218" priority="244" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="203" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="217" priority="245" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="204" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="216" priority="246" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="188" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="215" priority="223" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="224" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="225" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="179" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="176" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="173" priority="169" operator="equal">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="206" priority="214" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="215" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="203" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="200" priority="211" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="212" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="213" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="170" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="197" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="194" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="191" priority="202" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="203" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="204" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="188" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="189" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="173" priority="178" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="176" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="177" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="168" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="140" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="141" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="116" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="98" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="95" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="86" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="71" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="68" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="164" priority="160" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="161" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="162" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="161" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="158" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="152" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="149" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="137" priority="133" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="134" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="125" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="98" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="89" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -7318,26 +6561,37 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -7345,11 +6599,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C57">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
+    <sheet name="Users" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="108">
   <si>
     <t>Module_Name</t>
   </si>
@@ -277,9 +277,6 @@
     <t>FSTc015_createFieldsForPackageObject</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>FSTc014_CreatedataForPackageObject</t>
   </si>
   <si>
@@ -329,12 +326,44 @@
   </si>
   <si>
     <t>Module3Tc001_createCRMUser</t>
+  </si>
+  <si>
+    <t>FSTc018_verifyFieldSetImagePath</t>
+  </si>
+  <si>
+    <t>FSTc019_addProfileImageFieldOnLayOut</t>
+  </si>
+  <si>
+    <t>Module3</t>
+  </si>
+  <si>
+    <t>Module3Tc004_OpentheNavigationMenuAndVerifyTheMenuItems</t>
+  </si>
+  <si>
+    <t>Fail: timeout: Timed out receiving message from renderer: 10.000
+  (Session info: chrome=88.0.4324.104)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'DESKTOP-K4MTBVJ', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_141'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 88.0.4324.104, chrome: {chromedriverVersion: 87.0.4280.20 (c99e81631faa0..., userDataDir: C:\Users\sibaram\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:63888}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 1b41886e1662c3724adefb794bc06a38</t>
+  </si>
+  <si>
+    <t>Module3Tc005_VerifyTheURLNavigationFromNavigationMenu</t>
+  </si>
+  <si>
+    <t>Fail: 7</t>
+  </si>
+  <si>
+    <t>Fail: The following asserts failed:
+	Url Not Verified for : Navatar Setup Actual : https://pe4604.lightning.force.com/lightning/page/home	 Expected : /lightning/n/navmnaI__Navatar_Setup (Module3.java:434)	Screenshot Name: Module3Tc005_VerifyTheURLNavigationFromNavigationMenu2021_02_05_06_50_23.png	 did not expect to find [true] but found [false]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,63 +536,207 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="342">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -592,6 +765,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -718,6 +918,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -916,6 +1188,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1015,6 +1368,150 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1069,6 +1566,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3772,320 +4296,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -4170,10 +4393,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4208,7 +4431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4243,7 +4466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4337,21 +4560,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4368,7 +4591,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4420,29 +4643,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4450,15 +4673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -4466,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -4474,56 +4697,74 @@
         <v>7</v>
       </c>
     </row>
+    <row ht="15.75" r="5" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
+    <cfRule dxfId="341" operator="equal" priority="8" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
+    <cfRule dxfId="340" operator="equal" priority="9" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="292" priority="1" operator="equal">
+    <cfRule dxfId="339" operator="equal" priority="3" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="291" priority="2" operator="equal">
+    <cfRule dxfId="338" operator="equal" priority="4" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule dxfId="337" operator="equal" priority="1" type="cellIs">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule dxfId="336" operator="equal" priority="2" type="cellIs">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I5" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4540,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
@@ -4555,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -4570,7 +4811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -4585,7 +4826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -4600,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -4615,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4630,7 +4871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -4645,7 +4886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -4660,7 +4901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -4675,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -4690,7 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -4705,7 +4946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -4720,7 +4961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -4735,7 +4976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -4750,7 +4991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -4765,7 +5006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -4780,7 +5021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -4795,7 +5036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>70</v>
       </c>
@@ -4810,7 +5051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -4825,7 +5066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
@@ -4840,7 +5081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -4855,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -4870,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>75</v>
       </c>
@@ -4885,7 +5126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -4900,7 +5141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -4915,9 +5156,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
@@ -4930,9 +5171,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
@@ -4945,9 +5186,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
@@ -4960,9 +5201,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
@@ -4975,9 +5216,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -4990,9 +5231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
@@ -5005,9 +5246,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
@@ -5020,7 +5261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>31</v>
       </c>
@@ -5037,7 +5278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -5054,7 +5295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
@@ -5071,7 +5312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
@@ -5088,9 +5329,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -5105,7 +5346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -5122,7 +5363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -5139,7 +5380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -5156,9 +5397,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -5173,9 +5414,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -5190,9 +5431,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -5207,11 +5448,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -5222,12 +5465,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5239,12 +5482,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5256,12 +5499,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="14" t="s">
+    <row customHeight="1" ht="15" r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
@@ -5271,24 +5516,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="14" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>47</v>
+    <row customHeight="1" ht="15" r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -5301,9 +5548,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -5316,9 +5563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -5331,9 +5578,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -5346,9 +5593,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -5361,9 +5608,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -5376,9 +5623,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
@@ -5391,9 +5638,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="57" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -5406,9 +5653,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
@@ -5421,9 +5668,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="14" t="s">
@@ -5436,9 +5683,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="14" t="s">
@@ -5451,9 +5698,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="14" t="s">
@@ -5466,9 +5713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>84</v>
+    <row customHeight="1" ht="15" r="62" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="14" t="s">
@@ -5481,9 +5728,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>82</v>
+    <row customHeight="1" ht="15" r="63" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="14" t="s">
@@ -5496,9 +5743,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>92</v>
+    <row customHeight="1" ht="15" r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="14" t="s">
@@ -5511,1121 +5758,1313 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6 E45">
-    <cfRule type="cellIs" dxfId="290" priority="355" operator="equal">
+    <cfRule dxfId="335" operator="equal" priority="397" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="356" operator="equal">
+    <cfRule dxfId="334" operator="equal" priority="398" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="357" operator="equal">
+    <cfRule dxfId="333" operator="equal" priority="399" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D44:D45">
-    <cfRule type="containsText" dxfId="287" priority="394" operator="containsText" text="Skip:">
+    <cfRule dxfId="332" operator="containsText" priority="436" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="395" operator="containsText" text="Fail">
+    <cfRule dxfId="331" operator="containsText" priority="437" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="396" operator="containsText" text="Pass">
+    <cfRule dxfId="330" operator="containsText" priority="438" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="284" priority="397" operator="containsText" text="Skip:">
+    <cfRule dxfId="329" operator="containsText" priority="439" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="398" operator="containsText" text="Fail">
+    <cfRule dxfId="328" operator="containsText" priority="440" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="399" operator="containsText" text="Pass">
+    <cfRule dxfId="327" operator="containsText" priority="441" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="281" priority="388" operator="containsText" text="Skip:">
+    <cfRule dxfId="326" operator="containsText" priority="430" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="389" operator="containsText" text="Fail">
+    <cfRule dxfId="325" operator="containsText" priority="431" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="390" operator="containsText" text="Pass">
+    <cfRule dxfId="324" operator="containsText" priority="432" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="Skip:">
+    <cfRule dxfId="323" operator="containsText" priority="433" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="392" operator="containsText" text="Fail">
+    <cfRule dxfId="322" operator="containsText" priority="434" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="393" operator="containsText" text="Pass">
+    <cfRule dxfId="321" operator="containsText" priority="435" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="275" priority="382" operator="containsText" text="Skip:">
+    <cfRule dxfId="320" operator="containsText" priority="424" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="383" operator="containsText" text="Fail">
+    <cfRule dxfId="319" operator="containsText" priority="425" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="384" operator="containsText" text="Pass">
+    <cfRule dxfId="318" operator="containsText" priority="426" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="272" priority="385" operator="containsText" text="Skip:">
+    <cfRule dxfId="317" operator="containsText" priority="427" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="386" operator="containsText" text="Fail">
+    <cfRule dxfId="316" operator="containsText" priority="428" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="387" operator="containsText" text="Pass">
+    <cfRule dxfId="315" operator="containsText" priority="429" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="269" priority="376" operator="containsText" text="Skip:">
+    <cfRule dxfId="314" operator="containsText" priority="418" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="377" operator="containsText" text="Fail">
+    <cfRule dxfId="313" operator="containsText" priority="419" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="378" operator="containsText" text="Pass">
+    <cfRule dxfId="312" operator="containsText" priority="420" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="266" priority="379" operator="containsText" text="Skip:">
+    <cfRule dxfId="311" operator="containsText" priority="421" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="380" operator="containsText" text="Fail">
+    <cfRule dxfId="310" operator="containsText" priority="422" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="381" operator="containsText" text="Pass">
+    <cfRule dxfId="309" operator="containsText" priority="423" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="263" priority="370" operator="containsText" text="Skip:">
+    <cfRule dxfId="308" operator="containsText" priority="412" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="371" operator="containsText" text="Fail">
+    <cfRule dxfId="307" operator="containsText" priority="413" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="372" operator="containsText" text="Pass">
+    <cfRule dxfId="306" operator="containsText" priority="414" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="260" priority="373" operator="containsText" text="Skip:">
+    <cfRule dxfId="305" operator="containsText" priority="415" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="374" operator="containsText" text="Fail">
+    <cfRule dxfId="304" operator="containsText" priority="416" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="375" operator="containsText" text="Pass">
+    <cfRule dxfId="303" operator="containsText" priority="417" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="257" priority="367" operator="equal">
+    <cfRule dxfId="302" operator="equal" priority="409" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="368" operator="equal">
+    <cfRule dxfId="301" operator="equal" priority="410" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="369" operator="equal">
+    <cfRule dxfId="300" operator="equal" priority="411" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="254" priority="364" operator="equal">
+    <cfRule dxfId="299" operator="equal" priority="406" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="365" operator="equal">
+    <cfRule dxfId="298" operator="equal" priority="407" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="366" operator="equal">
+    <cfRule dxfId="297" operator="equal" priority="408" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="251" priority="361" operator="equal">
+    <cfRule dxfId="296" operator="equal" priority="403" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="362" operator="equal">
+    <cfRule dxfId="295" operator="equal" priority="404" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="363" operator="equal">
+    <cfRule dxfId="294" operator="equal" priority="405" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="248" priority="358" operator="equal">
+    <cfRule dxfId="293" operator="equal" priority="400" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="359" operator="equal">
+    <cfRule dxfId="292" operator="equal" priority="401" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="360" operator="equal">
+    <cfRule dxfId="291" operator="equal" priority="402" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="245" priority="250" operator="containsText" text="Skip:">
+    <cfRule dxfId="290" operator="containsText" priority="292" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="251" operator="containsText" text="Fail">
+    <cfRule dxfId="289" operator="containsText" priority="293" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="252" operator="containsText" text="Pass">
+    <cfRule dxfId="288" operator="containsText" priority="294" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="242" priority="253" operator="containsText" text="Skip:">
+    <cfRule dxfId="287" operator="containsText" priority="295" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="254" operator="containsText" text="Fail">
+    <cfRule dxfId="286" operator="containsText" priority="296" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="Pass">
+    <cfRule dxfId="285" operator="containsText" priority="297" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="239" priority="247" operator="equal">
+    <cfRule dxfId="284" operator="equal" priority="289" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="248" operator="equal">
+    <cfRule dxfId="283" operator="equal" priority="290" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
+    <cfRule dxfId="282" operator="equal" priority="291" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="236" priority="319" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D50:D52">
+    <cfRule dxfId="281" operator="containsText" priority="361" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="280" operator="containsText" priority="362" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="279" operator="containsText" priority="363" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D52">
+    <cfRule dxfId="278" operator="containsText" priority="364" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="277" operator="containsText" priority="365" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="276" operator="containsText" priority="366" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E33">
+    <cfRule dxfId="275" operator="equal" priority="280" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="274" operator="equal" priority="281" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="273" operator="equal" priority="282" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E52">
+    <cfRule dxfId="272" operator="equal" priority="322" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="271" operator="equal" priority="323" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="270" operator="equal" priority="324" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule dxfId="269" operator="equal" priority="235" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="268" operator="equal" priority="236" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="267" operator="equal" priority="237" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule dxfId="266" operator="containsText" priority="283" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="265" operator="containsText" priority="284" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="264" operator="containsText" priority="285" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule dxfId="263" operator="containsText" priority="286" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="262" operator="containsText" priority="287" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="261" operator="containsText" priority="288" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule dxfId="260" operator="containsText" priority="265" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="259" operator="containsText" priority="266" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="258" operator="containsText" priority="267" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule dxfId="257" operator="containsText" priority="268" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="256" operator="containsText" priority="269" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="255" operator="containsText" priority="270" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule dxfId="254" operator="equal" priority="262" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="253" operator="equal" priority="263" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="252" operator="equal" priority="264" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule dxfId="251" operator="containsText" priority="256" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="250" operator="containsText" priority="257" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="249" operator="containsText" priority="258" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule dxfId="248" operator="containsText" priority="259" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="247" operator="containsText" priority="260" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="246" operator="containsText" priority="261" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule dxfId="245" operator="equal" priority="253" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="244" operator="equal" priority="254" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="243" operator="equal" priority="255" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule dxfId="242" operator="containsText" priority="247" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="241" operator="containsText" priority="248" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="240" operator="containsText" priority="249" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule dxfId="239" operator="containsText" priority="250" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="238" operator="containsText" priority="251" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="237" operator="containsText" priority="252" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule dxfId="236" operator="equal" priority="244" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="235" operator="equal" priority="245" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="234" operator="equal" priority="246" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule dxfId="233" operator="containsText" priority="238" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="232" operator="containsText" priority="239" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="231" operator="containsText" priority="240" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule dxfId="230" operator="containsText" priority="241" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="229" operator="containsText" priority="242" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="228" operator="containsText" priority="243" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule dxfId="227" operator="containsText" priority="229" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="226" operator="containsText" priority="230" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="225" operator="containsText" priority="231" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule dxfId="224" operator="containsText" priority="232" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="223" operator="containsText" priority="233" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="222" operator="containsText" priority="234" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule dxfId="221" operator="equal" priority="226" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="220" operator="equal" priority="227" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="219" operator="equal" priority="228" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule dxfId="218" operator="containsText" priority="220" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="217" operator="containsText" priority="221" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="216" operator="containsText" priority="222" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule dxfId="215" operator="containsText" priority="223" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="214" operator="containsText" priority="224" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="213" operator="containsText" priority="225" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule dxfId="212" operator="equal" priority="217" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="211" operator="equal" priority="218" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="210" operator="equal" priority="219" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule dxfId="209" operator="containsText" priority="211" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="208" operator="containsText" priority="212" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="207" operator="containsText" priority="213" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule dxfId="206" operator="containsText" priority="214" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="205" operator="containsText" priority="215" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="204" operator="containsText" priority="216" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule dxfId="203" operator="equal" priority="208" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="202" operator="equal" priority="209" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="201" operator="equal" priority="210" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule dxfId="200" operator="containsText" priority="202" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="199" operator="containsText" priority="203" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="198" operator="containsText" priority="204" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule dxfId="197" operator="containsText" priority="205" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="196" operator="containsText" priority="206" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="195" operator="containsText" priority="207" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule dxfId="194" operator="equal" priority="199" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="193" operator="equal" priority="200" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="192" operator="equal" priority="201" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule dxfId="191" operator="containsText" priority="193" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="190" operator="containsText" priority="194" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="189" operator="containsText" priority="195" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule dxfId="188" operator="containsText" priority="196" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="187" operator="containsText" priority="197" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="186" operator="containsText" priority="198" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule dxfId="185" operator="equal" priority="190" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="184" operator="equal" priority="191" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="183" operator="equal" priority="192" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule dxfId="182" operator="containsText" priority="184" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="181" operator="containsText" priority="185" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="180" operator="containsText" priority="186" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule dxfId="179" operator="containsText" priority="187" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="178" operator="containsText" priority="188" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="177" operator="containsText" priority="189" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule dxfId="176" operator="equal" priority="181" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="175" operator="equal" priority="182" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="174" operator="equal" priority="183" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule dxfId="173" operator="containsText" priority="175" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="172" operator="containsText" priority="176" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="171" operator="containsText" priority="177" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule dxfId="170" operator="containsText" priority="178" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="169" operator="containsText" priority="179" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="168" operator="containsText" priority="180" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule dxfId="167" operator="equal" priority="172" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="166" operator="equal" priority="173" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="165" operator="equal" priority="174" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule dxfId="164" operator="containsText" priority="166" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="163" operator="containsText" priority="167" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="162" operator="containsText" priority="168" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule dxfId="161" operator="containsText" priority="169" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="160" operator="containsText" priority="170" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="159" operator="containsText" priority="171" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule dxfId="158" operator="equal" priority="163" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="157" operator="equal" priority="164" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="156" operator="equal" priority="165" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule dxfId="155" operator="equal" priority="154" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="154" operator="equal" priority="155" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="153" operator="equal" priority="156" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule dxfId="152" operator="containsText" priority="157" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="151" operator="containsText" priority="158" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="150" operator="containsText" priority="159" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule dxfId="149" operator="containsText" priority="160" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="148" operator="containsText" priority="161" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="147" operator="containsText" priority="162" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule dxfId="146" operator="equal" priority="145" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="145" operator="equal" priority="146" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="144" operator="equal" priority="147" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule dxfId="143" operator="containsText" priority="148" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="142" operator="containsText" priority="149" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="141" operator="containsText" priority="150" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule dxfId="140" operator="containsText" priority="151" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="139" operator="containsText" priority="152" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="138" operator="containsText" priority="153" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule dxfId="137" operator="equal" priority="142" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="136" operator="equal" priority="143" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="135" operator="equal" priority="144" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule dxfId="134" operator="containsText" priority="136" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="133" operator="containsText" priority="137" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="132" operator="containsText" priority="138" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule dxfId="131" operator="containsText" priority="139" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="130" operator="containsText" priority="140" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="129" operator="containsText" priority="141" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule dxfId="128" operator="equal" priority="133" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="127" operator="equal" priority="134" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="126" operator="equal" priority="135" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule dxfId="125" operator="containsText" priority="127" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="124" operator="containsText" priority="128" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="123" operator="containsText" priority="129" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule dxfId="122" operator="containsText" priority="130" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="121" operator="containsText" priority="131" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="120" operator="containsText" priority="132" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule dxfId="119" operator="equal" priority="124" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="118" operator="equal" priority="125" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="117" operator="equal" priority="126" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule dxfId="116" operator="containsText" priority="118" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="115" operator="containsText" priority="119" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="114" operator="containsText" priority="120" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule dxfId="113" operator="containsText" priority="121" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="112" operator="containsText" priority="122" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="111" operator="containsText" priority="123" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule dxfId="110" operator="equal" priority="115" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="109" operator="equal" priority="116" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="108" operator="equal" priority="117" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule dxfId="107" operator="containsText" priority="109" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="106" operator="containsText" priority="110" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="105" operator="containsText" priority="111" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule dxfId="104" operator="containsText" priority="112" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="103" operator="containsText" priority="113" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="102" operator="containsText" priority="114" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule dxfId="101" operator="equal" priority="106" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="100" operator="equal" priority="107" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="99" operator="equal" priority="108" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule dxfId="98" operator="containsText" priority="100" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="97" operator="containsText" priority="101" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="96" operator="containsText" priority="102" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule dxfId="95" operator="containsText" priority="103" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="94" operator="containsText" priority="104" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="93" operator="containsText" priority="105" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule dxfId="92" operator="equal" priority="97" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="91" operator="equal" priority="98" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="90" operator="equal" priority="99" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule dxfId="89" operator="equal" priority="94" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="88" operator="equal" priority="95" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="87" operator="equal" priority="96" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule dxfId="86" operator="equal" priority="85" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="85" operator="equal" priority="86" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="84" operator="equal" priority="87" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule dxfId="83" operator="containsText" priority="88" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="82" operator="containsText" priority="89" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="81" operator="containsText" priority="90" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule dxfId="80" operator="containsText" priority="91" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="79" operator="containsText" priority="92" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="78" operator="containsText" priority="93" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule dxfId="77" operator="containsText" priority="79" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="76" operator="containsText" priority="80" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="75" operator="containsText" priority="81" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule dxfId="74" operator="containsText" priority="82" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="73" operator="containsText" priority="83" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="72" operator="containsText" priority="84" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule dxfId="71" operator="equal" priority="76" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="70" operator="equal" priority="77" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="69" operator="equal" priority="78" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule dxfId="68" operator="containsText" priority="70" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="67" operator="containsText" priority="71" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="66" operator="containsText" priority="72" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule dxfId="65" operator="containsText" priority="73" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="64" operator="containsText" priority="74" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="63" operator="containsText" priority="75" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule dxfId="62" operator="equal" priority="67" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="61" operator="equal" priority="68" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="60" operator="equal" priority="69" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule dxfId="59" operator="equal" priority="58" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="58" operator="equal" priority="59" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="57" operator="equal" priority="60" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule dxfId="56" operator="equal" priority="43" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="55" operator="equal" priority="44" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="54" operator="equal" priority="45" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule dxfId="53" operator="containsText" priority="49" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="52" operator="containsText" priority="50" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="51" operator="containsText" priority="51" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule dxfId="50" operator="containsText" priority="52" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="49" operator="containsText" priority="53" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="48" operator="containsText" priority="54" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule dxfId="47" operator="equal" priority="46" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="46" operator="equal" priority="47" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="45" operator="equal" priority="48" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule dxfId="44" operator="containsText" priority="37" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="43" operator="containsText" priority="38" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="42" operator="containsText" priority="39" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule dxfId="41" operator="containsText" priority="40" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="40" operator="containsText" priority="41" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="39" operator="containsText" priority="42" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule dxfId="38" operator="equal" priority="34" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="37" operator="equal" priority="35" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="36" operator="equal" priority="36" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule dxfId="35" operator="containsText" priority="28" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="34" operator="containsText" priority="29" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="33" operator="containsText" priority="30" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule dxfId="32" operator="containsText" priority="31" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="31" operator="containsText" priority="32" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="30" operator="containsText" priority="33" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule dxfId="29" operator="equal" priority="25" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="28" operator="equal" priority="26" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="27" operator="equal" priority="27" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule dxfId="26" operator="equal" priority="16" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="25" operator="equal" priority="17" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="24" operator="equal" priority="18" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="23" operator="containsText" priority="10" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="320" operator="containsText" text="Fail">
+    <cfRule dxfId="22" operator="containsText" priority="11" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="321" operator="containsText" text="Pass">
+    <cfRule dxfId="21" operator="containsText" priority="12" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="233" priority="322" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="20" operator="containsText" priority="13" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="323" operator="containsText" text="Fail">
+    <cfRule dxfId="19" operator="containsText" priority="14" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="324" operator="containsText" text="Pass">
+    <cfRule dxfId="18" operator="containsText" priority="15" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E33">
-    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
+  <conditionalFormatting sqref="E49">
+    <cfRule dxfId="17" operator="equal" priority="7" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="239" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="8" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="240" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="9" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="281" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="282" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="224" priority="193" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="194" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="195" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="221" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="218" priority="244" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="245" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="246" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="215" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="206" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="203" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="200" priority="211" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="212" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="213" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="197" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="194" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="191" priority="202" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="203" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="204" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="188" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="189" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="173" priority="178" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="176" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="177" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="168" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="140" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="141" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="116" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="98" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="95" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="86" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="71" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="68" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"Low"</formula>
+  <conditionalFormatting sqref="D49">
+    <cfRule dxfId="11" operator="containsText" priority="1" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="10" operator="containsText" priority="2" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="9" operator="containsText" priority="3" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule dxfId="5" operator="containsText" priority="4" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="4" operator="containsText" priority="5" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="3" operator="containsText" priority="6" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C69" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E69" type="list">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6708,9 +7147,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
+    <hyperlink display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" r:id="rId1" ref="E3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="177">
   <si>
     <t>Module_Name</t>
   </si>
@@ -433,16 +433,6 @@
     <t>FSTc021_deletesomeFieldsFromFieldSet</t>
   </si>
   <si>
-    <t>Fail: stale element reference: element is not attached to the page document
-  (Session info: chrome=88.0.4324.150)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/stale_element_reference.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
-System info: host: 'DESKTOP-1BCMNOH', ip: '192.168.56.1', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_251'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 88.0.4324.150, chrome: {chromedriverVersion: 87.0.4280.20 (c99e81631faa0..., userDataDir: C:\Users\ANKITJ~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51036}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 67116cf2fd382901d3b0cae67ffa7b9d</t>
-  </si>
-  <si>
     <t>FSTc022_verifyMinimumImageSizeAfterAddTwoFieldSet</t>
   </si>
   <si>
@@ -471,6 +461,102 @@
   </si>
   <si>
     <t>Module3Tc019_CreateSubMenuForIIndlevelAndVerifyItOnTheNavigationMenu</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc038_ChangeStageToDeclinedDead_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc038_ChangeStageToDeclinedDead_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc039_ChangeStageToClosed_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc039_ChangeStageToClosed_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc040_CreatePiplelineWithDifferentSourceFirm_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc040_CreatePiplelineWithDifferentSourceFirm_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc041_DeletePipeline_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc041_DeletePipeline_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc042_RestorePipeline_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc042_RestorePipeline_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc043_UpdateStageNames</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc044_CreatePiplelineWithNewStageValues_Action</t>
+  </si>
+  <si>
+    <t>Module4</t>
+  </si>
+  <si>
+    <t>M4tc001_CreateContactSDG</t>
+  </si>
+  <si>
+    <t>M4tc003_CreateDealTeamSDG</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>M4tc004_CreateAttendeeSDG</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc044_CreatePiplelineWithNewStageValues_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc045_CreateNewPipleline_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc045_CreateNewPipleline_Impact</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>Module3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
+  </si>
+  <si>
+    <t>Module3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
+  </si>
+  <si>
+    <t>Module3Tc023_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
+  </si>
+  <si>
+    <t>Module3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>Module3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>24,25,26</t>
+  </si>
+  <si>
+    <t>Module3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
+  </si>
+  <si>
+    <t>Module3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
   </si>
 </sst>
 </file>
@@ -705,7 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="582">
+  <dxfs count="701">
     <dxf>
       <font>
         <b/>
@@ -779,6 +865,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -842,6 +955,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -878,6 +1018,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1031,6 +1207,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1184,6 +1396,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1238,6 +1486,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1265,6 +1549,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1292,6 +1612,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1328,6 +1675,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1418,6 +1792,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1517,6 +1972,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1553,6 +2035,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1679,6 +2197,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1778,6 +2377,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1877,6 +2530,141 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1913,6 +2701,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1940,6 +2764,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2075,6 +2926,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2237,6 +3115,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2300,6 +3250,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2363,6 +3349,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2390,6 +3412,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2417,6 +3511,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2444,6 +3610,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2471,6 +3709,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2498,6 +3808,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2597,6 +3934,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2624,6 +4033,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2759,6 +4222,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2822,6 +4321,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3047,6 +4582,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3173,6 +4780,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3272,6 +4906,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3299,6 +5005,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3794,6 +5572,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -4019,6 +5869,150 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -4046,6 +6040,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4244,6 +6292,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4316,6 +6445,294 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -4343,6 +6760,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4379,6 +6852,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4442,6 +6942,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4577,6 +7104,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4676,6 +7230,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4775,6 +7356,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4811,6 +7419,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4847,6 +7509,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4910,6 +7599,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4946,6 +7662,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5009,6 +7752,114 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5108,6 +7959,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5180,6 +8058,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5216,6 +8121,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5275,1641 +8207,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7257,10 +8554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7308,42 +8605,60 @@
         <v>102</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="497" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="496" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="495" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="494" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="493" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="492" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="559" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="558" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7355,10 +8670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8153,12 +9468,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
+      <c r="A53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
@@ -8171,11 +9484,9 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
@@ -8186,13 +9497,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
@@ -8203,13 +9512,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B56" s="8"/>
       <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
@@ -8220,13 +9527,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="8">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
@@ -8237,13 +9542,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="8">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
@@ -8254,13 +9557,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
@@ -8271,13 +9572,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
@@ -8288,13 +9587,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
@@ -8305,13 +9602,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
@@ -8322,13 +9617,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
@@ -8339,13 +9632,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
         <v>7</v>
       </c>
@@ -8356,13 +9647,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="8">
-        <v>2</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
@@ -8373,13 +9662,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="8">
-        <v>3</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B66" s="8"/>
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
@@ -8390,13 +9677,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="8">
-        <v>4</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="3" t="s">
         <v>7</v>
       </c>
@@ -8407,13 +9692,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="8">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B68" s="8"/>
       <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
@@ -8424,13 +9707,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="8">
-        <v>6</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B69" s="8"/>
       <c r="C69" s="3" t="s">
         <v>7</v>
       </c>
@@ -8441,29 +9722,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="8">
-        <v>7</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B70" s="8"/>
       <c r="C70" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>126</v>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B71" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -8477,10 +9756,10 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B72" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>7</v>
@@ -8492,12 +9771,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="B73" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -8511,10 +9790,10 @@
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="B74" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -8528,10 +9807,10 @@
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B75" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -8545,10 +9824,10 @@
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>132</v>
+        <v>43</v>
+      </c>
+      <c r="B76" s="8">
+        <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -8562,10 +9841,10 @@
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B77" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -8579,10 +9858,10 @@
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B78" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -8596,10 +9875,10 @@
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B79" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -8608,15 +9887,15 @@
         <v>8</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B80" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -8625,15 +9904,15 @@
         <v>8</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B81" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -8642,15 +9921,17 @@
         <v>8</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
@@ -8662,10 +9943,12 @@
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
@@ -8677,10 +9960,12 @@
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="8">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
@@ -8692,10 +9977,12 @@
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="8">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
@@ -8707,10 +9994,12 @@
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="8">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
@@ -8722,10 +10011,12 @@
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="8">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
@@ -8737,10 +10028,12 @@
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="8">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
@@ -8752,10 +10045,12 @@
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="8">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
@@ -8765,12 +10060,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="8">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
@@ -8780,12 +10077,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="8">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
@@ -8797,10 +10096,12 @@
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="8">
+        <v>10</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
@@ -8812,10 +10113,12 @@
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="8">
+        <v>11</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
@@ -8827,10 +10130,12 @@
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
@@ -8842,10 +10147,12 @@
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="8">
+        <v>15</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
@@ -8856,11 +10163,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="14" t="s">
+      <c r="A96" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="8">
+        <v>16</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
@@ -8871,1690 +10180,2323 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="8">
+        <v>17</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="8">
+        <v>18</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="8">
+        <v>21</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="8">
+        <v>22</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="8">
+        <v>23</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="8">
+        <v>24</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="8">
+        <v>27</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="8">
+        <v>28</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="8">
+        <v>29</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="8">
+        <v>30</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="8">
+        <v>31</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="8"/>
+      <c r="C116" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="9" t="s">
+      <c r="B125" s="8"/>
+      <c r="C125" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="B126" s="8"/>
+      <c r="C126" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="9" t="s">
+      <c r="B127" s="8"/>
+      <c r="C127" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="9" t="s">
+      <c r="B128" s="8"/>
+      <c r="C128" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="9" t="s">
+      <c r="B129" s="8"/>
+      <c r="C129" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="9" t="s">
+      <c r="B130" s="8"/>
+      <c r="C130" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="B131" s="8"/>
+      <c r="C131" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="B132" s="8"/>
+      <c r="C132" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>136</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="9" t="s">
+      <c r="B133" s="8"/>
+      <c r="C133" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="9" t="s">
+      <c r="B134" s="8"/>
+      <c r="C134" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>138</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="9" t="s">
+      <c r="B135" s="8"/>
+      <c r="C135" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="491" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="733" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="734" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="735" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D63">
-    <cfRule type="containsText" dxfId="488" priority="637" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D2 D81">
+    <cfRule type="containsText" dxfId="554" priority="772" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="638" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="553" priority="773" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="639" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="552" priority="774" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="485" priority="640" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="551" priority="775" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="641" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="550" priority="776" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="642" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="549" priority="777" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="482" priority="631" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="548" priority="766" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="632" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="547" priority="767" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="633" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="546" priority="768" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="479" priority="634" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="545" priority="769" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="635" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="544" priority="770" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="636" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="543" priority="771" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="476" priority="625" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="542" priority="760" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="626" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="541" priority="761" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="627" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="540" priority="762" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="473" priority="628" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="539" priority="763" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="629" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="538" priority="764" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="630" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="537" priority="765" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="470" priority="619" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="536" priority="754" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="620" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="535" priority="755" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="621" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="534" priority="756" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="467" priority="622" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="533" priority="757" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="623" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="532" priority="758" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="624" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="531" priority="759" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="464" priority="613" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="530" priority="748" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="614" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="529" priority="749" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="615" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="528" priority="750" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="461" priority="616" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="527" priority="751" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="617" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="526" priority="752" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="618" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="525" priority="753" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="458" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="745" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="746" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="747" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="455" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="742" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="743" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="744" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="452" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="739" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="740" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="741" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="449" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="736" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="737" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="738" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="446" priority="493" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="512" priority="628" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="494" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="511" priority="629" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="495" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="510" priority="630" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="443" priority="496" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="509" priority="631" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="497" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="508" priority="632" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="498" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="507" priority="633" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="440" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="625" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="626" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="627" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D84">
-    <cfRule type="containsText" dxfId="437" priority="562" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D110:D112">
+    <cfRule type="containsText" dxfId="503" priority="697" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="502" priority="698" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="699" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110:D112">
+    <cfRule type="containsText" dxfId="500" priority="700" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="499" priority="701" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="498" priority="702" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E70">
+    <cfRule type="cellIs" dxfId="497" priority="616" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="617" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="618" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110:E112">
+    <cfRule type="cellIs" dxfId="494" priority="658" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="659" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="660" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="491" priority="571" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="572" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="573" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D71">
+    <cfRule type="containsText" dxfId="488" priority="619" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="487" priority="620" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="486" priority="621" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D71">
+    <cfRule type="containsText" dxfId="485" priority="622" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="484" priority="623" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="483" priority="624" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="containsText" dxfId="482" priority="601" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="481" priority="602" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="480" priority="603" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="containsText" dxfId="479" priority="604" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="605" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="606" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="476" priority="598" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="599" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="600" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="containsText" dxfId="473" priority="592" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="593" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="471" priority="594" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="containsText" dxfId="470" priority="595" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="469" priority="596" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="597" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="467" priority="589" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="590" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="591" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="containsText" dxfId="464" priority="583" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="463" priority="584" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="462" priority="585" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="containsText" dxfId="461" priority="586" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="460" priority="587" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="459" priority="588" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="458" priority="580" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="581" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="582" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="455" priority="574" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="454" priority="575" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="576" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="452" priority="577" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="451" priority="578" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="450" priority="579" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="containsText" dxfId="449" priority="565" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="448" priority="566" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="447" priority="567" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="containsText" dxfId="446" priority="568" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="445" priority="569" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="570" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="443" priority="562" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="563" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="564" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="containsText" dxfId="440" priority="556" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="439" priority="557" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="438" priority="558" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="containsText" dxfId="437" priority="559" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="436" priority="560" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="435" priority="561" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="434" priority="553" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="554" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="555" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="containsText" dxfId="431" priority="547" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="430" priority="548" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="429" priority="549" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="containsText" dxfId="428" priority="550" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="427" priority="551" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="426" priority="552" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="425" priority="544" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="545" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="546" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="containsText" dxfId="422" priority="538" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="539" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="540" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="containsText" dxfId="419" priority="541" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="418" priority="542" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="543" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="416" priority="535" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="536" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="537" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="containsText" dxfId="413" priority="529" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="412" priority="530" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="411" priority="531" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="containsText" dxfId="410" priority="532" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="533" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="534" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="407" priority="526" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="527" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="528" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="containsText" dxfId="404" priority="520" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="403" priority="521" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="522" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="containsText" dxfId="401" priority="523" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="400" priority="524" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="399" priority="525" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="398" priority="517" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="518" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="519" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D124">
+    <cfRule type="containsText" dxfId="395" priority="511" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="512" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="513" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D124">
+    <cfRule type="containsText" dxfId="392" priority="514" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="391" priority="515" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="390" priority="516" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:E124">
+    <cfRule type="cellIs" dxfId="389" priority="508" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="509" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="510" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="containsText" dxfId="386" priority="502" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="503" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="504" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="containsText" dxfId="383" priority="505" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="382" priority="506" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="507" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="380" priority="499" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="500" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="501" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="377" priority="490" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="491" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="492" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="containsText" dxfId="374" priority="493" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="494" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="495" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="containsText" dxfId="371" priority="496" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="497" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="498" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="368" priority="481" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="482" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="483" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="containsText" dxfId="365" priority="484" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="364" priority="485" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="363" priority="486" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="containsText" dxfId="362" priority="487" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="488" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="489" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="359" priority="478" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="479" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="480" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="containsText" dxfId="356" priority="472" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="473" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="474" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="containsText" dxfId="353" priority="475" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="476" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="351" priority="477" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="350" priority="469" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="470" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="471" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="containsText" dxfId="347" priority="463" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="464" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="465" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="containsText" dxfId="344" priority="466" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="467" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="468" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="341" priority="460" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="461" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="462" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="containsText" dxfId="338" priority="454" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="455" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="456" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="containsText" dxfId="335" priority="457" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="458" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="459" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="332" priority="451" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="452" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="453" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="containsText" dxfId="329" priority="445" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="446" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="447" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="containsText" dxfId="326" priority="448" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="449" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="324" priority="450" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="323" priority="442" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="443" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="444" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D80">
+    <cfRule type="containsText" dxfId="320" priority="436" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="437" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="438" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D80">
+    <cfRule type="containsText" dxfId="317" priority="439" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="440" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="441" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="314" priority="433" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="434" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="435" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="311" priority="430" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="431" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="432" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="308" priority="421" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="422" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="423" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="containsText" dxfId="305" priority="415" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="416" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="417" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="containsText" dxfId="302" priority="418" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="419" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="420" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="299" priority="412" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="413" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="414" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="containsText" dxfId="296" priority="406" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="407" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="408" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="containsText" dxfId="293" priority="409" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="410" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="411" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="290" priority="403" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="404" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="405" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="287" priority="394" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="395" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="396" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="containsText" dxfId="284" priority="373" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="374" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="375" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="containsText" dxfId="281" priority="376" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="377" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="378" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="278" priority="370" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="371" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="372" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="containsText" dxfId="275" priority="364" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="365" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="366" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="containsText" dxfId="272" priority="367" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="368" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="369" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="269" priority="361" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="362" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="363" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130">
+    <cfRule type="containsText" dxfId="266" priority="268" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="269" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="270" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130">
+    <cfRule type="containsText" dxfId="263" priority="271" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="272" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="273" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="260" priority="265" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="266" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="267" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="261" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="containsText" dxfId="254" priority="262" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="263" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="264" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="251" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="252" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="containsText" dxfId="245" priority="253" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="254" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="255" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="242" priority="247" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="248" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="249" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="containsText" dxfId="239" priority="241" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="242" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="243" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="containsText" dxfId="236" priority="244" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="245" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="246" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="233" priority="238" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="239" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="240" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="containsText" dxfId="230" priority="232" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="233" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="234" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="containsText" dxfId="227" priority="235" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="236" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="237" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="224" priority="229" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="230" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="231" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="containsText" dxfId="221" priority="223" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="224" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="225" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="containsText" dxfId="218" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="215" priority="220" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="221" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="222" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="137" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D90 D92">
+    <cfRule type="containsText" dxfId="134" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="129" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="563" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="564" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D84">
-    <cfRule type="containsText" dxfId="434" priority="565" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="566" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="567" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E52">
-    <cfRule type="cellIs" dxfId="431" priority="481" operator="equal">
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E84">
-    <cfRule type="cellIs" dxfId="428" priority="523" operator="equal">
+  <conditionalFormatting sqref="D83:D84">
+    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:D84">
+    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="containsText" dxfId="110" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="containsText" dxfId="107" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="425" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D53">
-    <cfRule type="containsText" dxfId="422" priority="484" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="485" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="486" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D53">
-    <cfRule type="containsText" dxfId="419" priority="487" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="488" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="489" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="containsText" dxfId="416" priority="466" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="467" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="468" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="containsText" dxfId="413" priority="469" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="470" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="471" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="410" priority="463" operator="equal">
+  <conditionalFormatting sqref="E89:E90">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="containsText" dxfId="407" priority="457" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="458" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="459" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="containsText" dxfId="404" priority="460" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="461" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="462" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="401" priority="454" operator="equal">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="containsText" dxfId="398" priority="448" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="449" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="450" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="containsText" dxfId="395" priority="451" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="452" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="453" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="392" priority="445" operator="equal">
+  <conditionalFormatting sqref="D91">
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="389" priority="439" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="440" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="441" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="386" priority="442" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="443" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="444" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="containsText" dxfId="383" priority="430" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="431" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="432" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="containsText" dxfId="380" priority="433" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="434" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="435" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="377" priority="427" operator="equal">
+  <conditionalFormatting sqref="D93:D94">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="containsText" dxfId="374" priority="421" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="422" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="423" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="containsText" dxfId="371" priority="424" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="425" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="426" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="368" priority="418" operator="equal">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="containsText" dxfId="365" priority="412" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="413" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="414" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="containsText" dxfId="362" priority="415" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="416" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="417" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="359" priority="409" operator="equal">
+  <conditionalFormatting sqref="D95">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="containsText" dxfId="356" priority="403" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="404" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="405" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="containsText" dxfId="353" priority="406" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="407" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="408" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="350" priority="400" operator="equal">
+  <conditionalFormatting sqref="D96:D99">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="containsText" dxfId="347" priority="394" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="395" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="396" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="containsText" dxfId="344" priority="397" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="398" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="399" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="341" priority="391" operator="equal">
+  <conditionalFormatting sqref="E97:E99">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="containsText" dxfId="338" priority="385" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="386" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="387" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="containsText" dxfId="335" priority="388" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="389" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="390" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="332" priority="382" operator="equal">
+  <conditionalFormatting sqref="D102">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D96">
-    <cfRule type="containsText" dxfId="329" priority="376" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="377" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="378" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D96">
-    <cfRule type="containsText" dxfId="326" priority="379" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="380" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="381" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95:E96">
-    <cfRule type="cellIs" dxfId="323" priority="373" operator="equal">
+  <conditionalFormatting sqref="D100">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="containsText" dxfId="320" priority="367" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="368" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="369" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="containsText" dxfId="317" priority="370" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="371" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="372" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="314" priority="364" operator="equal">
+  <conditionalFormatting sqref="D101">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="311" priority="355" operator="equal">
+  <conditionalFormatting sqref="D104">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="308" priority="358" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="359" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="360" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="305" priority="361" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="362" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="363" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="302" priority="346" operator="equal">
+  <conditionalFormatting sqref="D103">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="299" priority="349" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="350" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="351" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="296" priority="352" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="353" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="354" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="293" priority="343" operator="equal">
+  <conditionalFormatting sqref="D106">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="290" priority="337" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="338" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="339" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="287" priority="340" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="341" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="342" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="284" priority="334" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="335" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="336" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="281" priority="328" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="329" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="330" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="278" priority="331" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="332" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="333" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="275" priority="325" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="326" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="327" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="272" priority="319" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="320" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="321" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="269" priority="322" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="323" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="324" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="266" priority="316" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="317" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="318" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="263" priority="310" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="311" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="312" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="260" priority="313" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="314" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="315" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="257" priority="307" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="308" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="309" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D62">
-    <cfRule type="containsText" dxfId="254" priority="301" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="302" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="303" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D62">
-    <cfRule type="containsText" dxfId="251" priority="304" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="305" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="306" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="248" priority="298" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="299" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="300" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="245" priority="295" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="296" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="297" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="242" priority="286" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="287" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="288" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="containsText" dxfId="239" priority="280" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="281" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="282" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="containsText" dxfId="236" priority="283" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="284" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="285" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="233" priority="277" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="278" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="279" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="containsText" dxfId="230" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="containsText" dxfId="227" priority="274" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="275" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="276" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="224" priority="268" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="269" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="270" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="221" priority="259" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="260" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="261" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="containsText" dxfId="218" priority="238" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="239" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="240" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="containsText" dxfId="215" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="212" priority="235" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="236" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="237" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="209" priority="229" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="230" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="231" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="206" priority="232" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="233" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="234" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="203" priority="226" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="227" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="228" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="containsText" dxfId="140" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="containsText" dxfId="137" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="134" priority="130" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="containsText" dxfId="131" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="containsText" dxfId="128" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="125" priority="121" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="containsText" dxfId="122" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="containsText" dxfId="119" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="116" priority="112" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="containsText" dxfId="113" priority="106" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="107" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="108" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
-    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="containsText" dxfId="104" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D107:D109">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="90" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D72 D74">
-    <cfRule type="containsText" dxfId="86" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="77" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="77" priority="64" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="containsText" dxfId="62" priority="55" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:E72">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D76">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D81">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -10565,14 +12507,25 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E81">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10581,11 +12534,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C107">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C135">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="225">
   <si>
     <t>Module_Name</t>
   </si>
@@ -115,12 +115,6 @@
     <t>PE Standard User</t>
   </si>
   <si>
-    <t>TaskWatchlist</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TWtc001_1_CreateCRMUser</t>
   </si>
   <si>
@@ -466,97 +460,247 @@
     <t>Module4</t>
   </si>
   <si>
-    <t>M4tc001_CreateContactSDG</t>
-  </si>
-  <si>
     <t>M4tc003_CreateDealTeamSDG</t>
   </si>
   <si>
+    <t>M4tc004_CreateAttendeeSDG</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc044_CreatePiplelineWithNewStageValues_Impact</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc045_CreateNewPipleline_Action</t>
+  </si>
+  <si>
+    <t>HighestStageReachedtc045_CreateNewPipleline_Impact</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>Module3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
+  </si>
+  <si>
+    <t>Module3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
+  </si>
+  <si>
+    <t>Module3Tc023_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
+  </si>
+  <si>
+    <t>Module3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>Module3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>24,25,26</t>
+  </si>
+  <si>
+    <t>Module3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
+  </si>
+  <si>
+    <t>Module3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module5TC001_createCRMUser</t>
+  </si>
+  <si>
+    <t>Module5TC002_1_Prerequisite</t>
+  </si>
+  <si>
+    <t>Module5TC002_2_AddListView</t>
+  </si>
+  <si>
+    <t>Module5TC003_1_CreatePreconditionData</t>
+  </si>
+  <si>
+    <t>Module5TC004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnPageRecord</t>
+  </si>
+  <si>
+    <t>Module5TC005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
+  </si>
+  <si>
+    <t>Module5TC006_CreateNewCustomSDG</t>
+  </si>
+  <si>
+    <t>Module5TC007_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
+  </si>
+  <si>
+    <t>Module5TC008_CreateNewToggleButtonAsDefaultButton</t>
+  </si>
+  <si>
+    <t>Module5TC009_VerifyOutSideAndInsideSdgInContainerAndEnableToggleSwitchingAndVerifySDG</t>
+  </si>
+  <si>
+    <t>Module5TC010_VerifyTheButtonToggleButtonWithUserNewSession</t>
+  </si>
+  <si>
+    <t>Module5</t>
+  </si>
+  <si>
+    <t>Module2</t>
+  </si>
+  <si>
+    <t>M4tc001_CreatePrecondition</t>
+  </si>
+  <si>
+    <t>M4tc002_CreateContactSDG</t>
+  </si>
+  <si>
+    <t>M4tc005_AddRelatedListAccordianOnEntity</t>
+  </si>
+  <si>
+    <t>M4tc007_UpdateImageOnContactProfile</t>
+  </si>
+  <si>
+    <t>Module3Tc032_RemoveListViewObjectAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc033_RemoveListViewNameAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc034_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
+  </si>
+  <si>
+    <t>Module3Tc035_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>Module3Tc036_1_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc037_1_FillQuickCreateRecordTypeAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc037_2_FillQuickCreateRecordTypeAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc038_1_ChangeQuickCreateRecordTypeAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc038_2_ChangeQuickCreateRecordTypeAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc039_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc040_CreateListViewForFundAndVerifyTheNavigationForListView</t>
+  </si>
+  <si>
+    <t>Module3Tc041_AddSomeThirPartyURLAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc042_RemoveURLAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc043_RemoveQuickCreateFieldAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M4tc008_DeleteImageOnContactProfile</t>
+  </si>
+  <si>
+    <t>M4tc009_VerifyMinimumRecordsOnAccordionEntityPage</t>
+  </si>
+  <si>
+    <t>M4tc010_VerifyExpandCollapseOnAccordion</t>
+  </si>
+  <si>
+    <t>M4tc011_1_VerifySpecialCharacterFields</t>
+  </si>
+  <si>
+    <t>M4tc011_2_VerifySpecialCharacterFields</t>
+  </si>
+  <si>
+    <t>FSTc026_verifyCameraIconUploadImageAndRelativePath</t>
+  </si>
+  <si>
+    <t>FSTc027_verifyPopulatedUnderImages</t>
+  </si>
+  <si>
+    <t>M4tc012_VerifySDGTagAndSDGName</t>
+  </si>
+  <si>
+    <t>M4tc013_VerifyRelatedListForWithMinAndMaxRecords</t>
+  </si>
+  <si>
+    <t>M4tc014_AddRelatedListAccordianOnDeal</t>
+  </si>
+  <si>
+    <t>M4tc015_VerifyAccordionOnDealPage</t>
+  </si>
+  <si>
+    <t>M4tc016_UpdateImageOnUserProfile</t>
+  </si>
+  <si>
+    <t>M4tc017_VerifyNoOfRecordsOnDealPage</t>
+  </si>
+  <si>
+    <t>M4tc018_VerifyExpandCollapseOnDealAccordion</t>
+  </si>
+  <si>
+    <t>M4tc019_AddRelatedListAccordianOnMarketingEvent</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>M4tc004_CreateAttendeeSDG</t>
-  </si>
-  <si>
-    <t>HighestStageReachedtc044_CreatePiplelineWithNewStageValues_Impact</t>
-  </si>
-  <si>
-    <t>HighestStageReachedtc045_CreateNewPipleline_Action</t>
-  </si>
-  <si>
-    <t>HighestStageReachedtc045_CreateNewPipleline_Impact</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>Module3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
-  </si>
-  <si>
-    <t>Module3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
-  </si>
-  <si>
-    <t>Module3Tc023_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
-  </si>
-  <si>
-    <t>Module3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
-  </si>
-  <si>
-    <t>Module3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>24,25,26</t>
-  </si>
-  <si>
-    <t>Module3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
-  </si>
-  <si>
-    <t>Module3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module5TC001_createCRMUser</t>
-  </si>
-  <si>
-    <t>Module5TC002_1_Prerequisite</t>
-  </si>
-  <si>
-    <t>Module5TC002_2_AddListView</t>
-  </si>
-  <si>
-    <t>Module5TC003_1_CreatePreconditionData</t>
-  </si>
-  <si>
-    <t>Module5TC004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnPageRecord</t>
-  </si>
-  <si>
-    <t>Module5TC005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
-  </si>
-  <si>
-    <t>Module5TC006_CreateNewCustomSDG</t>
-  </si>
-  <si>
-    <t>Module5TC007_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
-  </si>
-  <si>
-    <t>Module5TC008_CreateNewToggleButtonAsDefaultButton</t>
-  </si>
-  <si>
-    <t>Module5TC009_VerifyOutSideAndInsideSdgInContainerAndEnableToggleSwitchingAndVerifySDG</t>
-  </si>
-  <si>
-    <t>Module5TC010_VerifyTheButtonToggleButtonWithUserNewSession</t>
-  </si>
-  <si>
-    <t>Module5</t>
+    <t>Module3Tc044_CreateACustomObjectAndAddFewFieldsOnTheObject</t>
+  </si>
+  <si>
+    <t>Module3Tc045_CreateMenuItemForCustomObjectOnNavigationTab</t>
+  </si>
+  <si>
+    <t>Module3Tc046_AddSomeThirPartyURLAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc047_RemoveURLActionObjectAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc048_FillListViewFieldsAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc049_FillListViewFieldsAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc050_CreateNewItemTaskOnNavigationTab</t>
+  </si>
+  <si>
+    <t>Module3Tc051_CreateNewItemsOnNavigationPage</t>
+  </si>
+  <si>
+    <t>Module3Tc052_AddSomeThirPartyURLAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc053_RemoveURLActionObjectAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>Module3Tc054_CreateRecordsAfterNavigationThroughNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc055_MakeParentItemAsChildOfOtherItem</t>
+  </si>
+  <si>
+    <t>Module3Tc056_MakeChildItemAsAParentItem</t>
+  </si>
+  <si>
+    <t>Module3Tc057_DeleteCreateNewItemFromNavigationPage</t>
+  </si>
+  <si>
+    <t>Module3Tc058_Create20ItemsUnderAParentItemAndVerfiyNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc059_UpdateNavigationMenuLabelIconAndVerify</t>
   </si>
 </sst>
 </file>
@@ -791,7 +935,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="482">
+  <dxfs count="716">
     <dxf>
       <fill>
         <patternFill>
@@ -847,6 +991,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -910,6 +1126,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1351,6 +1594,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1504,6 +1783,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1657,6 +1972,114 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1684,6 +2107,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1711,6 +2206,222 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1765,6 +2476,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1801,6 +2539,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1864,6 +2629,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1927,6 +2728,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2049,6 +2877,1806 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6288,8 +8916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6310,7 +8938,7 @@
     </row>
     <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -6318,7 +8946,7 @@
     </row>
     <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
@@ -6326,7 +8954,7 @@
     </row>
     <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -6334,7 +8962,7 @@
     </row>
     <row r="5" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
@@ -6342,7 +8970,7 @@
     </row>
     <row r="6" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>7</v>
@@ -6350,42 +8978,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="481" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="480" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="479" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="478" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="477" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="476" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="475" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="474" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6402,10 +9030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,7 +9064,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
@@ -6451,7 +9079,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
@@ -6466,7 +9094,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
@@ -6481,7 +9109,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
@@ -6496,7 +9124,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
@@ -6511,7 +9139,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
@@ -6526,7 +9154,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -6541,7 +9169,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
@@ -6556,7 +9184,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
@@ -6571,7 +9199,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
@@ -6586,7 +9214,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
@@ -6601,7 +9229,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
@@ -6616,7 +9244,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
@@ -6631,7 +9259,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
@@ -6646,7 +9274,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
@@ -6661,7 +9289,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
@@ -6676,7 +9304,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
@@ -6691,7 +9319,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
@@ -6706,7 +9334,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
@@ -6721,7 +9349,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
@@ -6736,7 +9364,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
@@ -6751,7 +9379,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
@@ -6766,7 +9394,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
@@ -6781,7 +9409,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
@@ -6796,7 +9424,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
@@ -6811,7 +9439,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
@@ -6826,7 +9454,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
@@ -6841,7 +9469,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
@@ -6856,7 +9484,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
@@ -6871,7 +9499,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -6886,7 +9514,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
@@ -6901,7 +9529,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
@@ -6916,7 +9544,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
@@ -6931,7 +9559,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
@@ -6946,7 +9574,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
@@ -6961,7 +9589,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
@@ -6976,7 +9604,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
@@ -6991,7 +9619,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
@@ -7006,7 +9634,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="3" t="s">
@@ -7021,7 +9649,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
@@ -7036,7 +9664,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
@@ -7051,7 +9679,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
@@ -7066,7 +9694,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
@@ -7081,7 +9709,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
@@ -7096,7 +9724,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
@@ -7111,7 +9739,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
@@ -7126,7 +9754,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
@@ -7141,7 +9769,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
@@ -7156,7 +9784,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
@@ -7171,7 +9799,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
@@ -7186,7 +9814,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
@@ -7201,7 +9829,7 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
@@ -7216,7 +9844,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
@@ -7231,7 +9859,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
@@ -7246,7 +9874,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="3" t="s">
@@ -7261,7 +9889,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
@@ -7276,7 +9904,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
@@ -7291,7 +9919,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
@@ -7306,7 +9934,7 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
@@ -7321,7 +9949,7 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
@@ -7336,7 +9964,7 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
@@ -7351,7 +9979,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="3" t="s">
@@ -7366,7 +9994,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
@@ -7381,7 +10009,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
@@ -7396,7 +10024,7 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="3" t="s">
@@ -7411,7 +10039,7 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="3" t="s">
@@ -7426,7 +10054,7 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="3" t="s">
@@ -7441,7 +10069,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="3" t="s">
@@ -7456,26 +10084,24 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="8">
-        <v>1</v>
-      </c>
+      <c r="A71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="3" t="s">
         <v>7</v>
       </c>
@@ -7488,11 +10114,9 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="8">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B72" s="8"/>
       <c r="C72" s="3" t="s">
         <v>7</v>
       </c>
@@ -7503,13 +10127,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="8">
-        <v>1</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B73" s="8"/>
       <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
@@ -7520,13 +10142,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="8">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B74" s="8"/>
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
@@ -7537,13 +10157,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="8">
-        <v>1</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
         <v>7</v>
       </c>
@@ -7554,13 +10172,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
@@ -7571,13 +10187,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="8">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B77" s="8"/>
       <c r="C77" s="3" t="s">
         <v>7</v>
       </c>
@@ -7588,13 +10202,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
@@ -7605,13 +10217,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="8">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="3" t="s">
         <v>7</v>
       </c>
@@ -7622,13 +10232,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="8">
-        <v>1</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
@@ -7639,13 +10247,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="8">
-        <v>1</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="3" t="s">
         <v>7</v>
       </c>
@@ -7656,13 +10262,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1</v>
-      </c>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
         <v>7</v>
       </c>
@@ -7673,13 +10277,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="8">
-        <v>2</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B83" s="8"/>
       <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
@@ -7690,13 +10292,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="8">
-        <v>3</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
         <v>7</v>
       </c>
@@ -7707,13 +10307,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="8">
-        <v>4</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
         <v>7</v>
       </c>
@@ -7724,29 +10322,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="8">
-        <v>5</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>112</v>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B87" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
@@ -7758,12 +10354,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="B88" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -7777,10 +10373,10 @@
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B89" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -7792,12 +10388,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B90" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -7809,12 +10405,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B91" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
@@ -7828,10 +10424,10 @@
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="B92" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>7</v>
@@ -7845,10 +10441,10 @@
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B93" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -7862,10 +10458,10 @@
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>120</v>
+        <v>168</v>
+      </c>
+      <c r="B94" s="8">
+        <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
@@ -7879,10 +10475,10 @@
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="B95" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
@@ -7896,10 +10492,10 @@
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="B96" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
@@ -7913,10 +10509,10 @@
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="B97" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -7925,15 +10521,15 @@
         <v>8</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>131</v>
+      <c r="A98" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B98" s="8">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -7942,15 +10538,15 @@
         <v>8</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -7959,15 +10555,15 @@
         <v>8</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B100" s="8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -7976,15 +10572,15 @@
         <v>8</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B101" s="8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -7993,15 +10589,15 @@
         <v>8</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B102" s="8">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -8010,15 +10606,15 @@
         <v>8</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B103" s="8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -8027,15 +10623,15 @@
         <v>8</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
+      </c>
+      <c r="B104" s="8">
+        <v>7</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -8044,15 +10640,15 @@
         <v>8</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B105" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -8061,15 +10657,15 @@
         <v>8</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B106" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
@@ -8078,15 +10674,15 @@
         <v>8</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B107" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -8095,15 +10691,15 @@
         <v>8</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="B108" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -8112,15 +10708,15 @@
         <v>8</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="B109" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -8129,15 +10725,17 @@
         <v>8</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="14" t="s">
+      <c r="A110" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
@@ -8149,10 +10747,12 @@
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="8">
+        <v>15</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
@@ -8164,10 +10764,12 @@
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="8">
+        <v>16</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
@@ -8179,2067 +10781,3737 @@
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="8">
+        <v>17</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="8">
+        <v>18</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="8">
+        <v>21</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="8">
+        <v>22</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="8">
+        <v>23</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="8">
+        <v>24</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" s="8">
+        <v>27</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="8">
+        <v>28</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" s="8">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" s="8">
+        <v>30</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="8">
+        <v>31</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="8">
+        <v>32</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="8">
+        <v>33</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="8">
+        <v>34</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" s="8">
+        <v>35</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130" s="8">
+        <v>36</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131" s="8">
+        <v>36</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="8">
+        <v>37</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="8">
+        <v>37</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="8">
+        <v>38</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="8">
+        <v>38</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="8">
+        <v>39</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="8">
+        <v>40</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" s="8">
+        <v>41</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="8">
+        <v>42</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" s="8">
+        <v>43</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="8">
+        <v>44</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="8">
+        <v>45</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" s="8">
+        <v>46</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B144" s="8">
+        <v>47</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145" s="8">
+        <v>48</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B146" s="8">
+        <v>49</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" s="8">
+        <v>50</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B148" s="8">
+        <v>51</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B149" s="8">
+        <v>52</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" s="8">
+        <v>53</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B151" s="8">
+        <v>54</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B152" s="8">
+        <v>55</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B153" s="8">
+        <v>56</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="8">
+        <v>57</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="8">
+        <v>58</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="8">
+        <v>59</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B160" s="8"/>
+      <c r="C160" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="8"/>
+      <c r="C162" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="8"/>
+      <c r="C165" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="9" t="s">
+      <c r="B171" s="8"/>
+      <c r="C171" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="9" t="s">
+    <row r="172" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="9" t="s">
+    <row r="173" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>78</v>
+      </c>
+      <c r="B173" s="8"/>
+      <c r="C173" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>80</v>
-      </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="9" t="s">
+    <row r="174" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>79</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="9" t="s">
+    <row r="175" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>86</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>88</v>
-      </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="9" t="s">
+    <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>87</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>89</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="9" t="s">
+    <row r="177" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" s="8"/>
+      <c r="C177" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="178" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>120</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="9" t="s">
+      <c r="B179" s="8"/>
+      <c r="C179" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="180" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="9" t="s">
+      <c r="B180" s="8"/>
+      <c r="C180" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="181" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="9" t="s">
+      <c r="B181" s="8"/>
+      <c r="C181" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="182" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="9" t="s">
+      <c r="B182" s="8"/>
+      <c r="C182" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="9" t="s">
+    <row r="183" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>198</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>126</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="9" t="s">
+    <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="473" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="1096" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="1097" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="1098" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D81">
-    <cfRule type="containsText" dxfId="470" priority="772" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D2 D97">
+    <cfRule type="containsText" dxfId="704" priority="1135" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="773" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="703" priority="1136" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="774" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="702" priority="1137" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="467" priority="775" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="701" priority="1138" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="776" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="700" priority="1139" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="777" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="699" priority="1140" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="464" priority="766" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="698" priority="1129" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="767" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="697" priority="1130" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="768" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="696" priority="1131" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="461" priority="769" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="695" priority="1132" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="770" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="694" priority="1133" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="771" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="693" priority="1134" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="458" priority="760" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="692" priority="1123" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="761" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="691" priority="1124" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="762" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="690" priority="1125" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="455" priority="763" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="689" priority="1126" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="764" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="688" priority="1127" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="765" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="687" priority="1128" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="452" priority="754" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="686" priority="1117" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="755" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="685" priority="1118" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="756" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="684" priority="1119" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="449" priority="757" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="683" priority="1120" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="758" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="682" priority="1121" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="759" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="681" priority="1122" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="446" priority="748" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="680" priority="1111" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="749" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="679" priority="1112" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="750" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="678" priority="1113" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="443" priority="751" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="677" priority="1114" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="752" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="676" priority="1115" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="753" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="675" priority="1116" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="440" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="1108" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="1109" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="747" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="1110" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="437" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="1105" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1106" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="1107" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="434" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="1102" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="1103" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1104" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="431" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="1099" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="1100" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="1101" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="428" priority="628" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="662" priority="991" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="629" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="661" priority="992" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="630" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="660" priority="993" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="425" priority="631" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="659" priority="994" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="632" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="658" priority="995" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="633" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="657" priority="996" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="422" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="988" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="989" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="990" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D112">
-    <cfRule type="containsText" dxfId="419" priority="697" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="698" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="699" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D112">
-    <cfRule type="containsText" dxfId="416" priority="700" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="701" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="702" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E70">
-    <cfRule type="cellIs" dxfId="413" priority="616" operator="equal">
+  <conditionalFormatting sqref="D157:D159">
+    <cfRule type="containsText" dxfId="653" priority="1060" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="652" priority="1061" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="651" priority="1062" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157:D159">
+    <cfRule type="containsText" dxfId="650" priority="1063" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="649" priority="1064" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="648" priority="1065" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E67">
+    <cfRule type="cellIs" dxfId="647" priority="979" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="980" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="981" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110:E112">
-    <cfRule type="cellIs" dxfId="410" priority="658" operator="equal">
+  <conditionalFormatting sqref="E157:E159">
+    <cfRule type="cellIs" dxfId="644" priority="1021" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="1022" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="1023" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="641" priority="934" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="935" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="936" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D67 D87">
+    <cfRule type="containsText" dxfId="638" priority="982" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="637" priority="983" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="636" priority="984" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D67 D87">
+    <cfRule type="containsText" dxfId="635" priority="985" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="634" priority="986" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="633" priority="987" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D160">
+    <cfRule type="containsText" dxfId="632" priority="964" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="631" priority="965" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="630" priority="966" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D160">
+    <cfRule type="containsText" dxfId="629" priority="967" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="628" priority="968" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="627" priority="969" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="626" priority="961" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="962" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="963" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161">
+    <cfRule type="containsText" dxfId="623" priority="955" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="622" priority="956" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="621" priority="957" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161">
+    <cfRule type="containsText" dxfId="620" priority="958" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="619" priority="959" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="618" priority="960" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="617" priority="952" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="953" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="954" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162">
+    <cfRule type="containsText" dxfId="614" priority="946" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="947" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="612" priority="948" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162">
+    <cfRule type="containsText" dxfId="611" priority="949" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="610" priority="950" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="609" priority="951" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="cellIs" dxfId="608" priority="943" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="944" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="606" priority="945" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D163">
+    <cfRule type="containsText" dxfId="605" priority="937" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="604" priority="938" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="939" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D163">
+    <cfRule type="containsText" dxfId="602" priority="940" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="601" priority="941" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="600" priority="942" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D164">
+    <cfRule type="containsText" dxfId="599" priority="928" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="598" priority="929" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="597" priority="930" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D164">
+    <cfRule type="containsText" dxfId="596" priority="931" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="595" priority="932" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="594" priority="933" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="593" priority="925" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="926" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="927" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165">
+    <cfRule type="containsText" dxfId="590" priority="919" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="589" priority="920" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="588" priority="921" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165">
+    <cfRule type="containsText" dxfId="587" priority="922" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="586" priority="923" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="585" priority="924" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
+    <cfRule type="cellIs" dxfId="584" priority="916" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="917" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="918" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="containsText" dxfId="581" priority="910" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="580" priority="911" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="579" priority="912" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="containsText" dxfId="578" priority="913" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="577" priority="914" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="576" priority="915" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
+    <cfRule type="cellIs" dxfId="575" priority="907" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="908" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="909" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="containsText" dxfId="572" priority="901" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="571" priority="902" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="570" priority="903" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="containsText" dxfId="569" priority="904" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="568" priority="905" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="567" priority="906" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
+    <cfRule type="cellIs" dxfId="566" priority="898" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="899" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="900" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="containsText" dxfId="563" priority="892" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="562" priority="893" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="561" priority="894" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="containsText" dxfId="560" priority="895" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="559" priority="896" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="558" priority="897" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
+    <cfRule type="cellIs" dxfId="557" priority="889" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="890" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="891" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="containsText" dxfId="554" priority="883" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="553" priority="884" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="552" priority="885" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="containsText" dxfId="551" priority="886" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="550" priority="887" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="549" priority="888" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
+    <cfRule type="cellIs" dxfId="548" priority="880" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="881" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="882" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170:D171">
+    <cfRule type="containsText" dxfId="545" priority="874" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="875" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="876" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170:D171">
+    <cfRule type="containsText" dxfId="542" priority="877" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="541" priority="878" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="540" priority="879" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170:E171">
+    <cfRule type="cellIs" dxfId="539" priority="871" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="872" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="873" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D172">
+    <cfRule type="containsText" dxfId="536" priority="865" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="866" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="867" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D172">
+    <cfRule type="containsText" dxfId="533" priority="868" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="532" priority="869" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="531" priority="870" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="cellIs" dxfId="530" priority="862" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="863" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="864" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="527" priority="853" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="854" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="855" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="containsText" dxfId="524" priority="856" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="523" priority="857" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="522" priority="858" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="containsText" dxfId="521" priority="859" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="860" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="519" priority="861" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="518" priority="844" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="845" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="846" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="containsText" dxfId="515" priority="847" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="514" priority="848" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="513" priority="849" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="containsText" dxfId="512" priority="850" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="511" priority="851" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="510" priority="852" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="509" priority="841" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="842" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="843" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="containsText" dxfId="506" priority="835" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="505" priority="836" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="504" priority="837" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="containsText" dxfId="503" priority="838" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="502" priority="839" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="840" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="500" priority="832" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="833" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="834" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="containsText" dxfId="497" priority="826" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="496" priority="827" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="495" priority="828" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="containsText" dxfId="494" priority="829" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="493" priority="830" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="492" priority="831" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="491" priority="823" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="824" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="825" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="containsText" dxfId="488" priority="817" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="487" priority="818" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="486" priority="819" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="containsText" dxfId="485" priority="820" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="484" priority="821" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="483" priority="822" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="482" priority="814" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="815" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="816" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="containsText" dxfId="479" priority="808" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="809" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="810" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="containsText" dxfId="476" priority="811" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="475" priority="812" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="474" priority="813" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="473" priority="805" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="806" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="807" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:D96">
+    <cfRule type="containsText" dxfId="470" priority="799" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="469" priority="800" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="801" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:D96">
+    <cfRule type="containsText" dxfId="467" priority="802" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="803" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="465" priority="804" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="464" priority="796" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="797" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="798" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="461" priority="793" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="794" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="795" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="458" priority="784" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="785" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="786" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D173">
+    <cfRule type="containsText" dxfId="455" priority="778" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="454" priority="779" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="780" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D173">
+    <cfRule type="containsText" dxfId="452" priority="781" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="451" priority="782" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="450" priority="783" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="cellIs" dxfId="449" priority="775" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="776" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="777" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D174">
+    <cfRule type="containsText" dxfId="446" priority="769" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="445" priority="770" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="771" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D174">
+    <cfRule type="containsText" dxfId="443" priority="772" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="442" priority="773" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="441" priority="774" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="cellIs" dxfId="440" priority="766" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="767" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="768" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="437" priority="757" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="758" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="759" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D175">
+    <cfRule type="containsText" dxfId="434" priority="736" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="433" priority="737" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="738" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D175">
+    <cfRule type="containsText" dxfId="431" priority="739" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="430" priority="740" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="429" priority="741" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="cellIs" dxfId="428" priority="733" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="734" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="735" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D176">
+    <cfRule type="containsText" dxfId="425" priority="727" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="424" priority="728" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="423" priority="729" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D176">
+    <cfRule type="containsText" dxfId="422" priority="730" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="731" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="732" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="cellIs" dxfId="419" priority="724" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="725" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="726" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177">
+    <cfRule type="containsText" dxfId="416" priority="631" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="415" priority="632" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="414" priority="633" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177">
+    <cfRule type="containsText" dxfId="413" priority="634" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="412" priority="635" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="411" priority="636" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="cellIs" dxfId="410" priority="628" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="629" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="630" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178">
+    <cfRule type="containsText" dxfId="407" priority="622" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="406" priority="623" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="624" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178">
+    <cfRule type="containsText" dxfId="404" priority="625" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="403" priority="626" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="627" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="401" priority="619" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="620" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="621" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179">
+    <cfRule type="containsText" dxfId="398" priority="613" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="614" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="396" priority="615" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179">
+    <cfRule type="containsText" dxfId="395" priority="616" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="617" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="618" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="cellIs" dxfId="392" priority="610" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="611" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="612" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180">
+    <cfRule type="containsText" dxfId="389" priority="604" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="605" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="606" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180">
+    <cfRule type="containsText" dxfId="386" priority="607" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="608" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="609" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
+    <cfRule type="cellIs" dxfId="383" priority="601" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="602" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="603" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D181">
+    <cfRule type="containsText" dxfId="380" priority="595" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="596" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="597" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D181">
+    <cfRule type="containsText" dxfId="377" priority="598" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="376" priority="599" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="600" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
+    <cfRule type="cellIs" dxfId="374" priority="592" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="593" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="594" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D182">
+    <cfRule type="containsText" dxfId="371" priority="586" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="587" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="588" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D182)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D182">
+    <cfRule type="containsText" dxfId="368" priority="589" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="590" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D182)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="591" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D182)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
+    <cfRule type="cellIs" dxfId="365" priority="583" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="584" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="585" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E73">
+    <cfRule type="cellIs" dxfId="362" priority="355" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="356" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="357" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="359" priority="358" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="359" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="360" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="356" priority="361" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="362" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="363" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="353" priority="262" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="263" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="264" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102:D106 D108">
+    <cfRule type="containsText" dxfId="350" priority="352" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="353" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="354" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="347" priority="346" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="348" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="containsText" dxfId="344" priority="349" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="350" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="351" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="341" priority="334" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="335" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="336" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100">
+    <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="341" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="342" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100">
+    <cfRule type="containsText" dxfId="335" priority="343" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="344" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="345" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="332" priority="337" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="338" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="339" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="329" priority="331" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="332" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="333" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="containsText" dxfId="326" priority="325" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="326" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="324" priority="327" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="containsText" dxfId="323" priority="328" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="329" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="330" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="320" priority="322" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="323" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="324" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="317" priority="319" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="320" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="321" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="314" priority="316" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="317" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="318" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="308" priority="310" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="312" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="308" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="309" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="302" priority="304" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="305" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="306" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109:D110">
+    <cfRule type="containsText" dxfId="299" priority="301" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="302" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="303" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="296" priority="298" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="299" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="293" priority="295" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="296" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="293" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="294" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="287" priority="289" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="290" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="291" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112:D115">
+    <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="287" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="288" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="281" priority="283" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="284" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="285" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113:E115">
+    <cfRule type="cellIs" dxfId="278" priority="280" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="281" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="282" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="278" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="279" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="272" priority="274" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="273" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="407" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="268" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="269" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="270" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D71">
-    <cfRule type="containsText" dxfId="404" priority="619" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="620" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="621" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D71">
-    <cfRule type="containsText" dxfId="401" priority="622" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="623" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="624" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="containsText" dxfId="398" priority="601" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="602" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="603" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="containsText" dxfId="395" priority="604" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="605" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="606" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="392" priority="598" operator="equal">
+  <conditionalFormatting sqref="D117">
+    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="266" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="267" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="260" priority="250" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="251" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="252" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="389" priority="592" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="593" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="594" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="386" priority="595" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="596" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="597" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="383" priority="589" operator="equal">
+  <conditionalFormatting sqref="D120">
+    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="261" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="254" priority="256" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="257" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="258" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="containsText" dxfId="380" priority="583" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="584" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="585" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="containsText" dxfId="377" priority="586" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="587" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="588" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="374" priority="580" operator="equal">
+  <conditionalFormatting sqref="D119">
+    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="254" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="255" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="248" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
-    <cfRule type="containsText" dxfId="371" priority="574" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="575" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="576" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
-    <cfRule type="containsText" dxfId="368" priority="577" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="578" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="579" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="containsText" dxfId="365" priority="565" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="566" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="567" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="containsText" dxfId="362" priority="568" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="569" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="570" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="359" priority="562" operator="equal">
+  <conditionalFormatting sqref="D122">
+    <cfRule type="containsText" dxfId="245" priority="247" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="248" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="249" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="242" priority="244" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="245" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="246" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
-    <cfRule type="containsText" dxfId="356" priority="556" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="557" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="558" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
-    <cfRule type="containsText" dxfId="353" priority="559" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="560" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="561" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="350" priority="553" operator="equal">
+  <conditionalFormatting sqref="D121">
+    <cfRule type="containsText" dxfId="239" priority="241" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="242" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="243" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D125">
+    <cfRule type="containsText" dxfId="236" priority="235" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="236" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="237" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="233" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="234" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="containsText" dxfId="347" priority="547" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="548" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="549" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="containsText" dxfId="344" priority="550" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="551" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="552" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="341" priority="544" operator="equal">
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="230" priority="226" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="227" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="228" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
-    <cfRule type="containsText" dxfId="338" priority="538" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="539" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="540" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
-    <cfRule type="containsText" dxfId="335" priority="541" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="542" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="543" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="332" priority="535" operator="equal">
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="227" priority="229" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="230" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="231" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
-    <cfRule type="containsText" dxfId="329" priority="529" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="530" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="531" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
-    <cfRule type="containsText" dxfId="326" priority="532" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="533" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="534" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="323" priority="526" operator="equal">
+  <conditionalFormatting sqref="D126:D127">
+    <cfRule type="containsText" dxfId="224" priority="223" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="224" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="225" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="221" priority="217" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="218" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="219" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="containsText" dxfId="320" priority="520" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="521" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="522" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="containsText" dxfId="317" priority="523" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="524" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="525" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="314" priority="517" operator="equal">
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="218" priority="220" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="221" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="222" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D124">
-    <cfRule type="containsText" dxfId="311" priority="511" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="512" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="513" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D124">
-    <cfRule type="containsText" dxfId="308" priority="514" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="515" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="516" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123:E124">
-    <cfRule type="cellIs" dxfId="305" priority="508" operator="equal">
+  <conditionalFormatting sqref="D128">
+    <cfRule type="containsText" dxfId="215" priority="214" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="212" priority="211" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="213" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="containsText" dxfId="302" priority="502" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="503" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="504" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="containsText" dxfId="299" priority="505" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="506" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="507" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="296" priority="499" operator="equal">
+  <conditionalFormatting sqref="D129">
+    <cfRule type="containsText" dxfId="209" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="206" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="207" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="293" priority="490" operator="equal">
+  <conditionalFormatting sqref="D130">
+    <cfRule type="containsText" dxfId="203" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="containsText" dxfId="290" priority="493" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="494" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="495" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="containsText" dxfId="287" priority="496" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="497" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="498" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="284" priority="481" operator="equal">
+  <conditionalFormatting sqref="D131">
+    <cfRule type="containsText" dxfId="197" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="281" priority="484" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="485" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="486" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="278" priority="487" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="488" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="489" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="275" priority="478" operator="equal">
+  <conditionalFormatting sqref="D132">
+    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="containsText" dxfId="272" priority="472" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D133">
+    <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="182" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="183" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="containsText" dxfId="179" priority="178" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="180" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="171" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D136">
+    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="containsText" dxfId="161" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="159" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="containsText" dxfId="155" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139:D140">
+    <cfRule type="containsText" dxfId="149" priority="148" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="143" priority="139" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:E86">
+    <cfRule type="cellIs" dxfId="140" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D77">
+    <cfRule type="containsText" dxfId="137" priority="133" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="473" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="134" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="474" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="containsText" dxfId="269" priority="475" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D74:D77">
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="476" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="133" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="477" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="266" priority="469" operator="equal">
+  <conditionalFormatting sqref="D78">
+    <cfRule type="containsText" dxfId="131" priority="124" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="125" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="126" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="containsText" dxfId="128" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183">
+    <cfRule type="containsText" dxfId="125" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183">
+    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="containsText" dxfId="263" priority="463" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="464" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="465" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="containsText" dxfId="260" priority="466" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="467" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="468" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="257" priority="460" operator="equal">
+  <conditionalFormatting sqref="D184">
+    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D184">
+    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184">
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="containsText" dxfId="254" priority="454" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="455" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="456" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="containsText" dxfId="251" priority="457" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="458" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D76)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="459" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="248" priority="451" operator="equal">
+  <conditionalFormatting sqref="D79:D86">
+    <cfRule type="containsText" dxfId="107" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D86">
+    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141">
+    <cfRule type="containsText" dxfId="101" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="92" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="containsText" dxfId="245" priority="445" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="446" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="447" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="containsText" dxfId="242" priority="448" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="449" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="450" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="239" priority="442" operator="equal">
+  <conditionalFormatting sqref="D142">
+    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D80">
-    <cfRule type="containsText" dxfId="236" priority="436" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="437" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="438" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D80">
-    <cfRule type="containsText" dxfId="233" priority="439" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="440" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="441" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="230" priority="433" operator="equal">
+  <conditionalFormatting sqref="D143">
+    <cfRule type="containsText" dxfId="89" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="227" priority="430" operator="equal">
+  <conditionalFormatting sqref="D144">
+    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="224" priority="421" operator="equal">
+  <conditionalFormatting sqref="D145">
+    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D145)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D145)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126">
-    <cfRule type="containsText" dxfId="221" priority="415" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="416" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="417" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D126">
-    <cfRule type="containsText" dxfId="218" priority="418" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="419" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="420" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="215" priority="412" operator="equal">
+  <conditionalFormatting sqref="D146">
+    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="containsText" dxfId="212" priority="406" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="407" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="408" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="containsText" dxfId="209" priority="409" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="410" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="411" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="206" priority="403" operator="equal">
+  <conditionalFormatting sqref="D147">
+    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="203" priority="394" operator="equal">
+  <conditionalFormatting sqref="D148">
+    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
-    <cfRule type="containsText" dxfId="200" priority="373" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="374" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="375" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
-    <cfRule type="containsText" dxfId="197" priority="376" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="377" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="378" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="194" priority="370" operator="equal">
+  <conditionalFormatting sqref="D149">
+    <cfRule type="containsText" dxfId="53" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
-    <cfRule type="containsText" dxfId="191" priority="364" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="365" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="366" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
-    <cfRule type="containsText" dxfId="188" priority="367" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="368" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="369" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="185" priority="361" operator="equal">
+  <conditionalFormatting sqref="D150">
+    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="containsText" dxfId="182" priority="268" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="269" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="270" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="containsText" dxfId="179" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="176" priority="265" operator="equal">
+  <conditionalFormatting sqref="D152">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
-    <cfRule type="containsText" dxfId="173" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
-    <cfRule type="containsText" dxfId="170" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="167" priority="256" operator="equal">
+  <conditionalFormatting sqref="D153">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
-    <cfRule type="containsText" dxfId="164" priority="250" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="252" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
-    <cfRule type="containsText" dxfId="161" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="158" priority="247" operator="equal">
+  <conditionalFormatting sqref="D151">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
-    <cfRule type="containsText" dxfId="155" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
-    <cfRule type="containsText" dxfId="152" priority="244" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="245" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="246" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="149" priority="238" operator="equal">
+  <conditionalFormatting sqref="D154">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
-    <cfRule type="containsText" dxfId="146" priority="232" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="233" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="234" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
-    <cfRule type="containsText" dxfId="143" priority="235" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="236" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="237" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="140" priority="229" operator="equal">
+  <conditionalFormatting sqref="D155">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
-    <cfRule type="containsText" dxfId="137" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
-    <cfRule type="containsText" dxfId="134" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="131" priority="220" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="221" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="222" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="128" priority="43" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="44" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="45" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86:D90 D92">
-    <cfRule type="containsText" dxfId="125" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="128" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="129" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="containsText" dxfId="119" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsText" dxfId="110" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="107" priority="118" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="119" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="120" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="containsText" dxfId="101" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="containsText" dxfId="98" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="95" priority="103" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="89" priority="97" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="98" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="99" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E90">
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="containsText" dxfId="80" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="86" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="87" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93:D94">
-    <cfRule type="containsText" dxfId="74" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
-    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D99">
-    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E99">
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
-    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:D109">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="D156">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -10247,17 +14519,6 @@
       <formula>"High"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10266,11 +14527,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C135">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C184">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E184">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10332,7 +14593,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -10355,10 +14616,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>

--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="253">
   <si>
     <t>Module_Name</t>
   </si>
@@ -652,9 +652,6 @@
     <t>M4tc019_AddRelatedListAccordianOnMarketingEvent</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Module3Tc044_CreateACustomObjectAndAddFewFieldsOnTheObject</t>
   </si>
   <si>
@@ -701,6 +698,93 @@
   </si>
   <si>
     <t>Module3Tc059_UpdateNavigationMenuLabelIconAndVerify</t>
+  </si>
+  <si>
+    <t>M4tc020_VerifyAccordionOnEventPage</t>
+  </si>
+  <si>
+    <t>M4tc021_UpdateImageOnUserProfileAndCheckEventAccordion</t>
+  </si>
+  <si>
+    <t>M4tc022_VerifyNoOfRecordsOnEventPage</t>
+  </si>
+  <si>
+    <t>M4tc023_VerifyExpandCollapseOnEventAccordion</t>
+  </si>
+  <si>
+    <t>M4tc024_Add3RelatedListAccordianOnEntityPage</t>
+  </si>
+  <si>
+    <t>M4tc025_VerifyAddingContactImageInSDG</t>
+  </si>
+  <si>
+    <t>M4tc026_VerifyChangingContactImageInSDG</t>
+  </si>
+  <si>
+    <t>M4tc027_VerifyDeletingContactImageInSDG</t>
+  </si>
+  <si>
+    <t>Module3Tc061_VerifyThatBulkEmailpageFromNavigationmenu</t>
+  </si>
+  <si>
+    <t>Module3Tc063_1_RemoveTheRecordCreationRightForStandardUser</t>
+  </si>
+  <si>
+    <t>Module3Tc063_2_RemoveTheRecordCreationRightForStandardUser</t>
+  </si>
+  <si>
+    <t>Module3Tc064_SetTheUserIndustryAsEnergy</t>
+  </si>
+  <si>
+    <t>Module3Tc065_CreateMyIndustryMenuItem</t>
+  </si>
+  <si>
+    <t>Module3Tc066_CreateRecordOnCoverageObjectAndVerifyMyIndustrylink</t>
+  </si>
+  <si>
+    <t>Module3Tc067_1_ChangetheUserIndustryAsHealthCareAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Module3Tc067_2_ChangetheUserIndustryAsHealthCareAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc068_1_ChangetheUserIndustryAsTechnologyAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc068_2_ChangetheUserIndustryAsTechnologyAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc069_1_ChangetheUserIndustryAsNoneAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc069_2_ChangetheUserIndustryAsNoneAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc070_createCRMUser2</t>
+  </si>
+  <si>
+    <t>Module3Tc071_ChangetheUserIndustryAsManufacturingAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc072_ChangetheUserIndustryAsManufacturingAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>CRMUser2</t>
+  </si>
+  <si>
+    <t>CRM2</t>
+  </si>
+  <si>
+    <t>Michale</t>
+  </si>
+  <si>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1019,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="716">
+  <dxfs count="767">
     <dxf>
       <fill>
         <patternFill>
@@ -991,6 +1075,276 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1027,6 +1381,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2008,6 +2389,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2044,6 +2452,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2143,6 +2578,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2242,6 +2731,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2278,6 +2794,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2314,6 +2857,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2350,6 +2920,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2386,6 +2983,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2449,6 +3073,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2476,6 +3136,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2692,6 +3388,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2755,6 +3478,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2791,6 +3568,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3196,6 +4009,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3259,6 +4099,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3286,6 +4162,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3349,6 +4252,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3403,6 +4342,87 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3502,6 +4522,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3538,6 +4585,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3727,6 +4810,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3790,6 +4909,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3853,60 +5008,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3943,33 +5044,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4006,60 +5080,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4096,33 +5116,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4155,429 +5148,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8978,42 +9548,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="715" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="714" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="713" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="712" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="711" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="710" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="709" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="708" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9030,10 +9600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10331,19 +10901,17 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
+      <c r="A87" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
         <v>7</v>
       </c>
@@ -10356,11 +10924,9 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="8">
-        <v>1</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
         <v>7</v>
       </c>
@@ -10371,13 +10937,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="8">
-        <v>1</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
@@ -10388,13 +10952,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="8">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
         <v>7</v>
       </c>
@@ -10405,13 +10967,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="8">
-        <v>1</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B91" s="8"/>
       <c r="C91" s="3" t="s">
         <v>7</v>
       </c>
@@ -10422,13 +10982,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="8">
-        <v>1</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
@@ -10439,13 +10997,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="8">
-        <v>1</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
@@ -10456,13 +11012,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="8">
-        <v>1</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
         <v>7</v>
       </c>
@@ -10473,9 +11027,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>169</v>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -10490,9 +11044,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B96" s="8">
         <v>1</v>
@@ -10509,7 +11063,7 @@
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B97" s="8">
         <v>1</v>
@@ -10525,8 +11079,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>85</v>
+      <c r="A98" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B98" s="8">
         <v>1</v>
@@ -10543,10 +11097,10 @@
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="B99" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -10560,10 +11114,10 @@
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B100" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -10577,10 +11131,10 @@
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="B101" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -10594,10 +11148,10 @@
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B102" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -10611,10 +11165,10 @@
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B103" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -10628,10 +11182,10 @@
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B104" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -10645,10 +11199,10 @@
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B105" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -10660,12 +11214,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>113</v>
+    <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B106" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
@@ -10677,12 +11231,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B107" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -10696,10 +11250,10 @@
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B108" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -10713,10 +11267,10 @@
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B109" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -10730,10 +11284,10 @@
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>118</v>
+        <v>90</v>
+      </c>
+      <c r="B110" s="8">
+        <v>5</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -10747,10 +11301,10 @@
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B111" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>7</v>
@@ -10764,10 +11318,10 @@
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B112" s="8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -10781,10 +11335,10 @@
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B113" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -10793,15 +11347,15 @@
         <v>8</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B114" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -10810,15 +11364,15 @@
         <v>8</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="B115" s="8">
+        <v>9</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>7</v>
@@ -10827,15 +11381,15 @@
         <v>8</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B116" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -10844,15 +11398,15 @@
         <v>8</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B117" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -10861,15 +11415,15 @@
         <v>8</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B118" s="8">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -10878,15 +11432,15 @@
         <v>8</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B119" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -10895,15 +11449,15 @@
         <v>8</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>155</v>
+        <v>126</v>
+      </c>
+      <c r="B120" s="8">
+        <v>16</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -10912,15 +11466,15 @@
         <v>8</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B121" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -10934,10 +11488,10 @@
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B122" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -10951,10 +11505,10 @@
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B123" s="8">
-        <v>29</v>
+        <v>130</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -10968,10 +11522,10 @@
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B124" s="8">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -10985,10 +11539,10 @@
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B125" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>7</v>
@@ -11002,10 +11556,10 @@
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B126" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -11019,10 +11573,10 @@
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B127" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -11036,10 +11590,10 @@
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B128" s="8">
-        <v>34</v>
+        <v>154</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -11053,10 +11607,10 @@
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B129" s="8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -11070,10 +11624,10 @@
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B130" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>7</v>
@@ -11087,10 +11641,10 @@
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B131" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -11104,10 +11658,10 @@
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B132" s="8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -11121,10 +11675,10 @@
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B133" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -11138,10 +11692,10 @@
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B134" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
@@ -11155,10 +11709,10 @@
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B135" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -11172,10 +11726,10 @@
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B136" s="8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -11189,10 +11743,10 @@
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B137" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -11206,10 +11760,10 @@
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B138" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -11223,10 +11777,10 @@
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B139" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -11240,10 +11794,10 @@
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B140" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -11257,10 +11811,10 @@
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B141" s="8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>7</v>
@@ -11274,10 +11828,10 @@
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B142" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -11291,10 +11845,10 @@
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B143" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>7</v>
@@ -11308,10 +11862,10 @@
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B144" s="8">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>7</v>
@@ -11325,10 +11879,10 @@
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B145" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>7</v>
@@ -11342,10 +11896,10 @@
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B146" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>7</v>
@@ -11359,10 +11913,10 @@
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B147" s="8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>7</v>
@@ -11376,10 +11930,10 @@
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B148" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>7</v>
@@ -11393,10 +11947,10 @@
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B149" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>7</v>
@@ -11410,10 +11964,10 @@
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B150" s="8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>7</v>
@@ -11427,10 +11981,10 @@
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B151" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>7</v>
@@ -11444,10 +11998,10 @@
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B152" s="8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>7</v>
@@ -11461,10 +12015,10 @@
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B153" s="8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>7</v>
@@ -11478,10 +12032,10 @@
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B154" s="8">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>7</v>
@@ -11495,10 +12049,10 @@
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B155" s="8">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>7</v>
@@ -11512,10 +12066,10 @@
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B156" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>7</v>
@@ -11528,353 +12082,399 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="14" t="s">
+      <c r="A157" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" s="8">
+        <v>52</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" s="8">
+        <v>53</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159" s="8">
+        <v>54</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" s="8">
+        <v>55</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" s="8">
+        <v>56</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B162" s="8">
+        <v>57</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="8">
+        <v>58</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="8">
+        <v>59</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B165" s="8">
+        <v>61</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="8">
+        <v>63</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="8">
+        <v>63</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B168" s="8">
+        <v>64</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B169" s="8">
+        <v>65</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B170" s="8">
+        <v>66</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B171" s="8">
+        <v>67</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" s="8">
+        <v>67</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B173" s="8">
+        <v>68</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" s="8">
+        <v>68</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="8">
+        <v>69</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B176" s="8">
+        <v>69</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B177" s="8">
+        <v>70</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="8">
         <v>71</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="C178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" s="8">
         <v>72</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>78</v>
-      </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>79</v>
-      </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>86</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>119</v>
-      </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>120</v>
-      </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>121</v>
-      </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="14" t="s">
+      <c r="C179" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>122</v>
+      <c r="A180" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="14" t="s">
@@ -11888,8 +12488,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>123</v>
+      <c r="A181" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="14" t="s">
@@ -11903,8 +12503,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>124</v>
+      <c r="A182" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="14" t="s">
@@ -11918,8 +12518,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>198</v>
+      <c r="A183" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="14" t="s">
@@ -11933,8 +12533,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>199</v>
+      <c r="A184" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="14" t="s">
@@ -11947,1394 +12547,1926 @@
         <v>9</v>
       </c>
     </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" s="8"/>
+      <c r="C185" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="8"/>
+      <c r="C186" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B187" s="8"/>
+      <c r="C187" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B188" s="8"/>
+      <c r="C188" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="8"/>
+      <c r="C189" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" s="8"/>
+      <c r="C193" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>72</v>
+      </c>
+      <c r="B195" s="8"/>
+      <c r="C195" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>78</v>
+      </c>
+      <c r="B196" s="8"/>
+      <c r="C196" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>79</v>
+      </c>
+      <c r="B197" s="8"/>
+      <c r="C197" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" s="8"/>
+      <c r="C198" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>87</v>
+      </c>
+      <c r="B199" s="8"/>
+      <c r="C199" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>120</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>121</v>
+      </c>
+      <c r="B202" s="8"/>
+      <c r="C202" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>122</v>
+      </c>
+      <c r="B203" s="8"/>
+      <c r="C203" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>123</v>
+      </c>
+      <c r="B204" s="8"/>
+      <c r="C204" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>124</v>
+      </c>
+      <c r="B205" s="8"/>
+      <c r="C205" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>198</v>
+      </c>
+      <c r="B206" s="8"/>
+      <c r="C206" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>199</v>
+      </c>
+      <c r="B207" s="8"/>
+      <c r="C207" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="707" priority="1096" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="1471" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="1097" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="1472" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="1098" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="1473" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D97">
-    <cfRule type="containsText" dxfId="704" priority="1135" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D2 D105">
+    <cfRule type="containsText" dxfId="755" priority="1510" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="703" priority="1136" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="754" priority="1511" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1137" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="753" priority="1512" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="701" priority="1138" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="752" priority="1513" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1139" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="751" priority="1514" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="1140" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="750" priority="1515" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="698" priority="1129" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="749" priority="1504" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="1130" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="748" priority="1505" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="1131" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="747" priority="1506" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="695" priority="1132" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="746" priority="1507" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="1133" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="745" priority="1508" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1134" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="744" priority="1509" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="692" priority="1123" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="743" priority="1498" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="1124" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="742" priority="1499" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="1125" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="741" priority="1500" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="689" priority="1126" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="740" priority="1501" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1127" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="739" priority="1502" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="1128" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="738" priority="1503" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="686" priority="1117" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="737" priority="1492" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1118" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="736" priority="1493" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1119" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="735" priority="1494" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="683" priority="1120" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="734" priority="1495" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="1121" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="733" priority="1496" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="1122" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="732" priority="1497" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="680" priority="1111" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="731" priority="1486" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="1112" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="730" priority="1487" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="1113" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="729" priority="1488" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="677" priority="1114" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="728" priority="1489" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1115" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="727" priority="1490" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="1116" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="726" priority="1491" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="674" priority="1108" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="1483" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="1109" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="1484" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="1110" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="1485" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="671" priority="1105" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="1480" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="1106" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="1481" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="1482" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="668" priority="1102" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="1477" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="1103" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="1478" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="1104" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1479" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="665" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="1474" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="1475" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="1101" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="1476" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="662" priority="991" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="713" priority="1366" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="992" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="712" priority="1367" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="993" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="711" priority="1368" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="659" priority="994" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="710" priority="1369" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="995" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="709" priority="1370" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="996" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="708" priority="1371" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="656" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="1363" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="1364" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="1365" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157:D159">
-    <cfRule type="containsText" dxfId="653" priority="1060" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1061" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1062" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D157:D159">
-    <cfRule type="containsText" dxfId="650" priority="1063" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1064" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1065" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
+  <conditionalFormatting sqref="D180:D182">
+    <cfRule type="containsText" dxfId="704" priority="1435" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="703" priority="1436" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="702" priority="1437" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180:D182">
+    <cfRule type="containsText" dxfId="701" priority="1438" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="700" priority="1439" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="699" priority="1440" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E67">
-    <cfRule type="cellIs" dxfId="647" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="1354" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="1355" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="1356" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157:E159">
-    <cfRule type="cellIs" dxfId="644" priority="1021" operator="equal">
+  <conditionalFormatting sqref="E180:E182">
+    <cfRule type="cellIs" dxfId="695" priority="1396" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="1397" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="1398" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="641" priority="934" operator="equal">
+  <conditionalFormatting sqref="E186">
+    <cfRule type="cellIs" dxfId="692" priority="1309" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="1310" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="1311" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D67 D87">
-    <cfRule type="containsText" dxfId="638" priority="982" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D67 D95">
+    <cfRule type="containsText" dxfId="689" priority="1357" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="983" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="688" priority="1358" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="984" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="687" priority="1359" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D67 D87">
-    <cfRule type="containsText" dxfId="635" priority="985" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D67 D95">
+    <cfRule type="containsText" dxfId="686" priority="1360" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="986" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="685" priority="1361" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="987" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="684" priority="1362" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
-    <cfRule type="containsText" dxfId="632" priority="964" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="965" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="966" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
-    <cfRule type="containsText" dxfId="629" priority="967" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="968" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="969" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="626" priority="961" operator="equal">
+  <conditionalFormatting sqref="D183">
+    <cfRule type="containsText" dxfId="683" priority="1339" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="682" priority="1340" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="681" priority="1341" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183">
+    <cfRule type="containsText" dxfId="680" priority="1342" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="679" priority="1343" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="678" priority="1344" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
+    <cfRule type="cellIs" dxfId="677" priority="1336" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="1337" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="1338" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
-    <cfRule type="containsText" dxfId="623" priority="955" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="956" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="957" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
-    <cfRule type="containsText" dxfId="620" priority="958" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="959" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="960" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="617" priority="952" operator="equal">
+  <conditionalFormatting sqref="D184">
+    <cfRule type="containsText" dxfId="674" priority="1330" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="673" priority="1331" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="672" priority="1332" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D184">
+    <cfRule type="containsText" dxfId="671" priority="1333" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="670" priority="1334" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="669" priority="1335" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184">
+    <cfRule type="cellIs" dxfId="668" priority="1327" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="1328" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1329" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162">
-    <cfRule type="containsText" dxfId="614" priority="946" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="947" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="948" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162">
-    <cfRule type="containsText" dxfId="611" priority="949" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="950" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="951" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="608" priority="943" operator="equal">
+  <conditionalFormatting sqref="D185">
+    <cfRule type="containsText" dxfId="665" priority="1321" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="664" priority="1322" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="663" priority="1323" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D185)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D185">
+    <cfRule type="containsText" dxfId="662" priority="1324" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="661" priority="1325" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="660" priority="1326" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D185)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E185">
+    <cfRule type="cellIs" dxfId="659" priority="1318" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="1319" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="1320" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D163">
-    <cfRule type="containsText" dxfId="605" priority="937" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="938" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="939" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D163">
-    <cfRule type="containsText" dxfId="602" priority="940" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="941" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="942" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D164">
-    <cfRule type="containsText" dxfId="599" priority="928" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="929" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="597" priority="930" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D164">
-    <cfRule type="containsText" dxfId="596" priority="931" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="932" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="933" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="593" priority="925" operator="equal">
+  <conditionalFormatting sqref="D186">
+    <cfRule type="containsText" dxfId="656" priority="1312" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="655" priority="1313" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="654" priority="1314" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D186)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D186">
+    <cfRule type="containsText" dxfId="653" priority="1315" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="652" priority="1316" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D186)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="651" priority="1317" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D186)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D187">
+    <cfRule type="containsText" dxfId="650" priority="1303" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="649" priority="1304" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="648" priority="1305" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D187">
+    <cfRule type="containsText" dxfId="647" priority="1306" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="646" priority="1307" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="645" priority="1308" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E187">
+    <cfRule type="cellIs" dxfId="644" priority="1300" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="1301" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="1302" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D165">
-    <cfRule type="containsText" dxfId="590" priority="919" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="920" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="921" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D165">
-    <cfRule type="containsText" dxfId="587" priority="922" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="923" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="924" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="584" priority="916" operator="equal">
+  <conditionalFormatting sqref="D188">
+    <cfRule type="containsText" dxfId="641" priority="1294" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="640" priority="1295" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="639" priority="1296" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D188">
+    <cfRule type="containsText" dxfId="638" priority="1297" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="637" priority="1298" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="636" priority="1299" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188">
+    <cfRule type="cellIs" dxfId="635" priority="1291" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="1292" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="1293" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D166">
-    <cfRule type="containsText" dxfId="581" priority="910" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="911" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="912" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D166">
-    <cfRule type="containsText" dxfId="578" priority="913" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="914" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="915" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
-    <cfRule type="cellIs" dxfId="575" priority="907" operator="equal">
+  <conditionalFormatting sqref="D189">
+    <cfRule type="containsText" dxfId="632" priority="1285" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="631" priority="1286" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="630" priority="1287" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D189)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D189">
+    <cfRule type="containsText" dxfId="629" priority="1288" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="628" priority="1289" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D189)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="627" priority="1290" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D189)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
+    <cfRule type="cellIs" dxfId="626" priority="1282" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1283" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1284" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167">
-    <cfRule type="containsText" dxfId="572" priority="901" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="902" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="903" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D167">
-    <cfRule type="containsText" dxfId="569" priority="904" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="905" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="906" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
-    <cfRule type="cellIs" dxfId="566" priority="898" operator="equal">
+  <conditionalFormatting sqref="D190">
+    <cfRule type="containsText" dxfId="623" priority="1276" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="622" priority="1277" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="621" priority="1278" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D190">
+    <cfRule type="containsText" dxfId="620" priority="1279" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="619" priority="1280" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="618" priority="1281" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
+    <cfRule type="cellIs" dxfId="617" priority="1273" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1274" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1275" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D168">
-    <cfRule type="containsText" dxfId="563" priority="892" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="893" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="894" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D168">
-    <cfRule type="containsText" dxfId="560" priority="895" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="896" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="897" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="557" priority="889" operator="equal">
+  <conditionalFormatting sqref="D191">
+    <cfRule type="containsText" dxfId="614" priority="1267" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="1268" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="612" priority="1269" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D191">
+    <cfRule type="containsText" dxfId="611" priority="1270" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="610" priority="1271" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="609" priority="1272" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E191">
+    <cfRule type="cellIs" dxfId="608" priority="1264" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1265" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1266" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D169">
-    <cfRule type="containsText" dxfId="554" priority="883" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="884" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="885" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D169">
-    <cfRule type="containsText" dxfId="551" priority="886" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="887" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="888" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
-    <cfRule type="cellIs" dxfId="548" priority="880" operator="equal">
+  <conditionalFormatting sqref="D192">
+    <cfRule type="containsText" dxfId="605" priority="1258" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="604" priority="1259" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="1260" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D192">
+    <cfRule type="containsText" dxfId="602" priority="1261" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="601" priority="1262" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D192)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="600" priority="1263" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D192)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E192">
+    <cfRule type="cellIs" dxfId="599" priority="1255" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="1256" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="1257" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D170:D171">
-    <cfRule type="containsText" dxfId="545" priority="874" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="875" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="876" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D170:D171">
-    <cfRule type="containsText" dxfId="542" priority="877" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="878" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="879" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170:E171">
-    <cfRule type="cellIs" dxfId="539" priority="871" operator="equal">
+  <conditionalFormatting sqref="D193:D194">
+    <cfRule type="containsText" dxfId="596" priority="1249" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="595" priority="1250" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="594" priority="1251" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D193)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D193:D194">
+    <cfRule type="containsText" dxfId="593" priority="1252" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="592" priority="1253" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D193)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="591" priority="1254" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D193)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E193:E194">
+    <cfRule type="cellIs" dxfId="590" priority="1246" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1247" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1248" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D172">
-    <cfRule type="containsText" dxfId="536" priority="865" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="866" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="867" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D172">
-    <cfRule type="containsText" dxfId="533" priority="868" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="869" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="870" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="530" priority="862" operator="equal">
+  <conditionalFormatting sqref="D195">
+    <cfRule type="containsText" dxfId="587" priority="1240" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="586" priority="1241" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="585" priority="1242" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195">
+    <cfRule type="containsText" dxfId="584" priority="1243" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="583" priority="1244" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D195)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="582" priority="1245" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="581" priority="1237" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1238" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1239" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="527" priority="853" operator="equal">
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="578" priority="1228" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1229" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="855" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="1230" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="524" priority="856" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="857" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="858" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="521" priority="859" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="860" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="861" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="518" priority="844" operator="equal">
+  <conditionalFormatting sqref="D96">
+    <cfRule type="containsText" dxfId="575" priority="1231" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="574" priority="1232" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="573" priority="1233" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="containsText" dxfId="572" priority="1234" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="571" priority="1235" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="570" priority="1236" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="569" priority="1219" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1220" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1221" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="containsText" dxfId="515" priority="847" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="848" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="849" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="containsText" dxfId="512" priority="850" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="851" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="852" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="509" priority="841" operator="equal">
+  <conditionalFormatting sqref="D97">
+    <cfRule type="containsText" dxfId="566" priority="1222" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="565" priority="1223" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="564" priority="1224" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="containsText" dxfId="563" priority="1225" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="562" priority="1226" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="561" priority="1227" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="560" priority="1216" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="1217" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="1218" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="containsText" dxfId="506" priority="835" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="836" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="837" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="containsText" dxfId="503" priority="838" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="839" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="840" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="500" priority="832" operator="equal">
+  <conditionalFormatting sqref="D98">
+    <cfRule type="containsText" dxfId="557" priority="1210" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="556" priority="1211" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="555" priority="1212" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="containsText" dxfId="554" priority="1213" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="553" priority="1214" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="552" priority="1215" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="551" priority="1207" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="1208" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1209" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="containsText" dxfId="497" priority="826" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="827" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="828" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="containsText" dxfId="494" priority="829" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="830" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="831" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="491" priority="823" operator="equal">
+  <conditionalFormatting sqref="D99">
+    <cfRule type="containsText" dxfId="548" priority="1201" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="547" priority="1202" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="546" priority="1203" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="containsText" dxfId="545" priority="1204" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="1205" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="1206" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="542" priority="1198" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1199" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="1200" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="containsText" dxfId="488" priority="817" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="818" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="819" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="containsText" dxfId="485" priority="820" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="821" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="822" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="482" priority="814" operator="equal">
+  <conditionalFormatting sqref="D100">
+    <cfRule type="containsText" dxfId="539" priority="1192" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="538" priority="1193" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="537" priority="1194" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="containsText" dxfId="536" priority="1195" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="1196" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="1197" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="533" priority="1189" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1190" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="1191" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="containsText" dxfId="479" priority="808" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="809" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="810" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="containsText" dxfId="476" priority="811" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="812" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="813" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="473" priority="805" operator="equal">
+  <conditionalFormatting sqref="D101">
+    <cfRule type="containsText" dxfId="530" priority="1183" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="529" priority="1184" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="528" priority="1185" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="containsText" dxfId="527" priority="1186" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="526" priority="1187" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="525" priority="1188" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="524" priority="1180" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="1181" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="1182" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D96">
-    <cfRule type="containsText" dxfId="470" priority="799" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="800" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="801" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D96">
-    <cfRule type="containsText" dxfId="467" priority="802" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="803" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="804" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
+  <conditionalFormatting sqref="D102:D104">
+    <cfRule type="containsText" dxfId="521" priority="1174" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="1175" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="519" priority="1176" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102:D104">
+    <cfRule type="containsText" dxfId="518" priority="1177" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="517" priority="1178" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="516" priority="1179" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="515" priority="1171" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="1172" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="1173" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="512" priority="1168" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="1169" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="1170" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="464" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="1159" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="1160" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="1161" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="461" priority="793" operator="equal">
+  <conditionalFormatting sqref="D196">
+    <cfRule type="containsText" dxfId="506" priority="1153" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="505" priority="1154" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="504" priority="1155" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D196">
+    <cfRule type="containsText" dxfId="503" priority="1156" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="502" priority="1157" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D196)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="1158" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D196)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="500" priority="1150" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="1151" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="1152" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="458" priority="784" operator="equal">
+  <conditionalFormatting sqref="D197">
+    <cfRule type="containsText" dxfId="497" priority="1144" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="496" priority="1145" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="495" priority="1146" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D197">
+    <cfRule type="containsText" dxfId="494" priority="1147" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="493" priority="1148" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="492" priority="1149" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="491" priority="1141" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="1142" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="1143" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D173">
-    <cfRule type="containsText" dxfId="455" priority="778" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="779" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="780" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D173">
-    <cfRule type="containsText" dxfId="452" priority="781" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="782" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="783" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="449" priority="775" operator="equal">
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="488" priority="1132" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="1133" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="1134" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D174">
-    <cfRule type="containsText" dxfId="446" priority="769" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="770" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="771" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D174">
-    <cfRule type="containsText" dxfId="443" priority="772" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="773" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="774" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="440" priority="766" operator="equal">
+  <conditionalFormatting sqref="D198">
+    <cfRule type="containsText" dxfId="485" priority="1111" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="484" priority="1112" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="483" priority="1113" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D198">
+    <cfRule type="containsText" dxfId="482" priority="1114" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="481" priority="1115" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="480" priority="1116" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="cellIs" dxfId="479" priority="1108" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="1109" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="1110" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="437" priority="757" operator="equal">
+  <conditionalFormatting sqref="D199">
+    <cfRule type="containsText" dxfId="476" priority="1102" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D199)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="475" priority="1103" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D199)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="474" priority="1104" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D199)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D199">
+    <cfRule type="containsText" dxfId="473" priority="1105" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D199)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="1106" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D199)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="471" priority="1107" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D199)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E199">
+    <cfRule type="cellIs" dxfId="470" priority="1099" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="1100" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1101" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D175">
-    <cfRule type="containsText" dxfId="434" priority="736" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="737" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="738" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D175">
-    <cfRule type="containsText" dxfId="431" priority="739" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="740" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="741" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="428" priority="733" operator="equal">
+  <conditionalFormatting sqref="D200">
+    <cfRule type="containsText" dxfId="467" priority="1006" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D200)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="1007" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D200)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="465" priority="1008" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D200)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D200">
+    <cfRule type="containsText" dxfId="464" priority="1009" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D200)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="463" priority="1010" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D200)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="462" priority="1011" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D200)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200">
+    <cfRule type="cellIs" dxfId="461" priority="1003" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1004" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1005" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D176">
-    <cfRule type="containsText" dxfId="425" priority="727" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="728" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="729" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D176">
-    <cfRule type="containsText" dxfId="422" priority="730" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="731" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="732" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="419" priority="724" operator="equal">
+  <conditionalFormatting sqref="D201">
+    <cfRule type="containsText" dxfId="458" priority="997" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="457" priority="998" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="456" priority="999" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201">
+    <cfRule type="containsText" dxfId="455" priority="1000" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="454" priority="1001" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="453" priority="1002" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="cellIs" dxfId="452" priority="994" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="995" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="996" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D177">
-    <cfRule type="containsText" dxfId="416" priority="631" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="632" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="633" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D177">
-    <cfRule type="containsText" dxfId="413" priority="634" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="635" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="636" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="410" priority="628" operator="equal">
+  <conditionalFormatting sqref="D202">
+    <cfRule type="containsText" dxfId="449" priority="988" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="448" priority="989" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="447" priority="990" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D202">
+    <cfRule type="containsText" dxfId="446" priority="991" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="445" priority="992" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="444" priority="993" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E202">
+    <cfRule type="cellIs" dxfId="443" priority="985" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="986" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="987" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D178">
-    <cfRule type="containsText" dxfId="407" priority="622" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="623" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="624" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D178">
-    <cfRule type="containsText" dxfId="404" priority="625" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="626" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="627" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="401" priority="619" operator="equal">
+  <conditionalFormatting sqref="D203">
+    <cfRule type="containsText" dxfId="440" priority="979" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="439" priority="980" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="438" priority="981" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203">
+    <cfRule type="containsText" dxfId="437" priority="982" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="436" priority="983" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="435" priority="984" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203">
+    <cfRule type="cellIs" dxfId="434" priority="976" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="977" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="978" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D179">
-    <cfRule type="containsText" dxfId="398" priority="613" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="614" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="615" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D179">
-    <cfRule type="containsText" dxfId="395" priority="616" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="617" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="618" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="392" priority="610" operator="equal">
+  <conditionalFormatting sqref="D204">
+    <cfRule type="containsText" dxfId="431" priority="970" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="430" priority="971" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="429" priority="972" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D204">
+    <cfRule type="containsText" dxfId="428" priority="973" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="427" priority="974" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="426" priority="975" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E204">
+    <cfRule type="cellIs" dxfId="425" priority="967" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="968" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="969" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180">
-    <cfRule type="containsText" dxfId="389" priority="604" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="605" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="606" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D180">
-    <cfRule type="containsText" dxfId="386" priority="607" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="608" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="609" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
-    <cfRule type="cellIs" dxfId="383" priority="601" operator="equal">
+  <conditionalFormatting sqref="D205">
+    <cfRule type="containsText" dxfId="422" priority="961" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="962" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="963" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205">
+    <cfRule type="containsText" dxfId="419" priority="964" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="418" priority="965" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="966" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E205">
+    <cfRule type="cellIs" dxfId="416" priority="958" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="959" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="960" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D181">
-    <cfRule type="containsText" dxfId="380" priority="595" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="596" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="597" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D181">
-    <cfRule type="containsText" dxfId="377" priority="598" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="599" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="600" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="374" priority="592" operator="equal">
+  <conditionalFormatting sqref="E68:E73">
+    <cfRule type="cellIs" dxfId="413" priority="730" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="731" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="732" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D182">
-    <cfRule type="containsText" dxfId="371" priority="586" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="587" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="588" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D182">
-    <cfRule type="containsText" dxfId="368" priority="589" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="590" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="591" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="365" priority="583" operator="equal">
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="410" priority="733" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="734" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="735" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="407" priority="736" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="406" priority="737" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="738" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:E94">
+    <cfRule type="cellIs" dxfId="404" priority="505" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="506" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="507" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E73">
-    <cfRule type="cellIs" dxfId="362" priority="355" operator="equal">
+  <conditionalFormatting sqref="D74:D77">
+    <cfRule type="containsText" dxfId="401" priority="508" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="400" priority="509" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="399" priority="510" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D77">
+    <cfRule type="containsText" dxfId="398" priority="511" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="397" priority="512" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="396" priority="513" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="containsText" dxfId="395" priority="499" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="500" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="393" priority="501" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="containsText" dxfId="392" priority="502" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="391" priority="503" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="390" priority="504" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="containsText" dxfId="389" priority="493" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="494" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="495" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="containsText" dxfId="386" priority="496" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="385" priority="497" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="498" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E206">
+    <cfRule type="cellIs" dxfId="383" priority="490" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="491" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="492" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="containsText" dxfId="359" priority="358" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="359" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="360" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
+  <conditionalFormatting sqref="D207">
+    <cfRule type="containsText" dxfId="380" priority="484" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="379" priority="485" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="378" priority="486" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207">
+    <cfRule type="containsText" dxfId="377" priority="487" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="376" priority="488" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="375" priority="489" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
+    <cfRule type="cellIs" dxfId="374" priority="481" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="482" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="483" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D94">
+    <cfRule type="containsText" dxfId="371" priority="472" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="473" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="474" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D94">
+    <cfRule type="containsText" dxfId="368" priority="475" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="476" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="477" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="365" priority="274" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="275" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="276" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110:D114 D116">
+    <cfRule type="containsText" dxfId="362" priority="364" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="365" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="366" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="359" priority="358" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="359" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="360" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
     <cfRule type="containsText" dxfId="356" priority="361" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="355" priority="362" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="354" priority="363" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="353" priority="262" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="353" priority="346" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="347" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="348" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102:D106 D108">
+  <conditionalFormatting sqref="D107:D108">
     <cfRule type="containsText" dxfId="350" priority="352" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="349" priority="353" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="348" priority="354" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="347" priority="346" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:D108">
+    <cfRule type="containsText" dxfId="347" priority="355" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="356" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="357" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="344" priority="349" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="350" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="351" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="containsText" dxfId="344" priority="349" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="350" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="351" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="341" priority="334" operator="equal">
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="341" priority="343" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="344" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="345" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100">
-    <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="341" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="342" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100">
-    <cfRule type="containsText" dxfId="335" priority="343" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="344" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="345" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="332" priority="337" operator="equal">
+  <conditionalFormatting sqref="D109">
+    <cfRule type="containsText" dxfId="338" priority="337" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="338" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="339" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="containsText" dxfId="335" priority="340" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="341" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="342" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="332" priority="334" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="335" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="336" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="329" priority="331" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13345,29 +14477,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="326" priority="325" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="326" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="327" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="323" priority="328" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="329" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="330" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="326" priority="328" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="329" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="330" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113:E114">
+    <cfRule type="cellIs" dxfId="323" priority="325" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="326" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="327" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
     <cfRule type="cellIs" dxfId="320" priority="322" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13378,18 +14510,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="317" priority="319" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="320" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="321" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
+  <conditionalFormatting sqref="D115">
+    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
     <cfRule type="cellIs" dxfId="314" priority="316" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13400,18 +14532,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="D117:D118">
+    <cfRule type="containsText" dxfId="311" priority="313" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="314" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="315" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
     <cfRule type="cellIs" dxfId="308" priority="310" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13422,51 +14554,51 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="containsText" dxfId="305" priority="307" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="308" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="309" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="302" priority="304" operator="equal">
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="305" priority="307" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="308" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="309" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D110">
-    <cfRule type="containsText" dxfId="299" priority="301" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="302" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="303" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="296" priority="298" operator="equal">
+  <conditionalFormatting sqref="D119">
+    <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="305" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="306" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="299" priority="301" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="302" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
+  <conditionalFormatting sqref="D120:D123">
+    <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="299" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="300" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
     <cfRule type="cellIs" dxfId="293" priority="295" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13477,51 +14609,51 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D111">
-    <cfRule type="containsText" dxfId="290" priority="292" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="293" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="294" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="287" priority="289" operator="equal">
+  <conditionalFormatting sqref="E121:E123">
+    <cfRule type="cellIs" dxfId="290" priority="292" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="293" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="294" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D112:D115">
-    <cfRule type="containsText" dxfId="284" priority="286" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="287" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="288" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="281" priority="283" operator="equal">
+  <conditionalFormatting sqref="D126">
+    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="290" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="291" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="284" priority="286" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="287" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="288" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E115">
+  <conditionalFormatting sqref="D124">
+    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="284" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="285" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
     <cfRule type="cellIs" dxfId="278" priority="280" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13532,40 +14664,40 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
+  <conditionalFormatting sqref="D125">
     <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="274" priority="278" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="273" priority="279" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="272" priority="274" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="272" priority="262" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="263" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="264" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
+  <conditionalFormatting sqref="D128">
     <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="267" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
+      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
     <cfRule type="cellIs" dxfId="266" priority="268" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13576,18 +14708,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
+  <conditionalFormatting sqref="D127">
     <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="262" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="261" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
     <cfRule type="cellIs" dxfId="260" priority="250" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13598,18 +14730,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
+  <conditionalFormatting sqref="D130">
     <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="255" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
     <cfRule type="cellIs" dxfId="254" priority="256" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13620,150 +14752,150 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D129">
     <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="250" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="249" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="248" priority="238" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131:D133">
+    <cfRule type="containsText" dxfId="248" priority="247" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="248" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="249" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="246" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="containsText" dxfId="245" priority="247" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="248" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="249" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="242" priority="244" operator="equal">
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="242" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
-    <cfRule type="containsText" dxfId="239" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D125">
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="239" priority="241" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="242" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="243" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134:D135">
     <cfRule type="containsText" dxfId="236" priority="235" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="235" priority="236" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="234" priority="237" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="233" priority="232" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="233" priority="229" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="230" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="231" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="230" priority="226" operator="equal">
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="227" priority="229" operator="equal">
+  <conditionalFormatting sqref="D136">
+    <cfRule type="containsText" dxfId="227" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126:D127">
-    <cfRule type="containsText" dxfId="224" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="221" priority="217" operator="equal">
+  <conditionalFormatting sqref="D137">
+    <cfRule type="containsText" dxfId="221" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="218" priority="217" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="219" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="218" priority="220" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="221" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="222" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
+  <conditionalFormatting sqref="D138">
     <cfRule type="containsText" dxfId="215" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D138)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D138)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+      <formula>NOT(ISERROR(SEARCH("Pass",D138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
     <cfRule type="cellIs" dxfId="212" priority="211" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13774,18 +14906,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
+  <conditionalFormatting sqref="D139">
     <cfRule type="containsText" dxfId="209" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D139)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="208" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D139)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="207" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
+      <formula>NOT(ISERROR(SEARCH("Pass",D139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
     <cfRule type="cellIs" dxfId="206" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13796,18 +14928,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
+  <conditionalFormatting sqref="D140">
     <cfRule type="containsText" dxfId="203" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D140)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="202" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D140)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="201" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+      <formula>NOT(ISERROR(SEARCH("Pass",D140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
     <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13818,18 +14950,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
+  <conditionalFormatting sqref="D141">
     <cfRule type="containsText" dxfId="197" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D141)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D141)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
+      <formula>NOT(ISERROR(SEARCH("Pass",D141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
     <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13840,18 +14972,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
+  <conditionalFormatting sqref="D142">
     <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D142)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D142)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
+      <formula>NOT(ISERROR(SEARCH("Pass",D142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
     <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13862,18 +14994,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
+  <conditionalFormatting sqref="D143">
     <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
+      <formula>NOT(ISERROR(SEARCH("Pass",D143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
     <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13884,18 +15016,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
+  <conditionalFormatting sqref="D144">
     <cfRule type="containsText" dxfId="179" priority="178" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="177" priority="180" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
+      <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
     <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13906,18 +15038,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
+  <conditionalFormatting sqref="D145">
     <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D145)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D145)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
+      <formula>NOT(ISERROR(SEARCH("Pass",D145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
     <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13928,18 +15060,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
+  <conditionalFormatting sqref="D146">
     <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+      <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
     <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13950,18 +15082,18 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
+  <conditionalFormatting sqref="D147:D148">
     <cfRule type="containsText" dxfId="161" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="160" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
+      <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
     <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -13972,553 +15104,575 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
-    <cfRule type="containsText" dxfId="155" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+  <conditionalFormatting sqref="E148">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139:D140">
-    <cfRule type="containsText" dxfId="149" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+  <conditionalFormatting sqref="D149">
+    <cfRule type="containsText" dxfId="152" priority="151" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="143" priority="139" operator="equal">
+  <conditionalFormatting sqref="D150">
+    <cfRule type="containsText" dxfId="146" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E86">
-    <cfRule type="cellIs" dxfId="140" priority="130" operator="equal">
+  <conditionalFormatting sqref="D151">
+    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77">
-    <cfRule type="containsText" dxfId="137" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77">
-    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="containsText" dxfId="131" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D152">
+    <cfRule type="containsText" dxfId="134" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
     <cfRule type="containsText" dxfId="128" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183">
-    <cfRule type="containsText" dxfId="125" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183">
+      <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
     <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D184">
-    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D184">
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E184">
-    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+  <conditionalFormatting sqref="D155">
+    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D86">
-    <cfRule type="containsText" dxfId="107" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D86">
-    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
-    <cfRule type="containsText" dxfId="101" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D141)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
+  <conditionalFormatting sqref="D156">
+    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
+  <conditionalFormatting sqref="D157">
+    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
-    <cfRule type="containsText" dxfId="89" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D143)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+  <conditionalFormatting sqref="D158">
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+  <conditionalFormatting sqref="D160">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D145)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
+  <conditionalFormatting sqref="D161">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+  <conditionalFormatting sqref="D159">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147">
-    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+  <conditionalFormatting sqref="D162">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D148)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D148)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D148)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+  <conditionalFormatting sqref="D163">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D149">
-    <cfRule type="containsText" dxfId="53" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+  <conditionalFormatting sqref="D164">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
-    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D150)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+  <conditionalFormatting sqref="D166">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+  <conditionalFormatting sqref="D165">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+  <conditionalFormatting sqref="D167">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+  <conditionalFormatting sqref="D168:D179">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+  <conditionalFormatting sqref="E169">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+  <conditionalFormatting sqref="E170">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="E172">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14527,11 +15681,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C184">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C207">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E184">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E207">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14542,11 +15696,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14634,6 +15788,33 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>

--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="272">
   <si>
     <t>Module_Name</t>
   </si>
@@ -778,13 +778,70 @@
     <t>CRMUser2</t>
   </si>
   <si>
-    <t>CRM2</t>
-  </si>
-  <si>
     <t>Michale</t>
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>M4tc006_VerifyAccordionOnEntityPage</t>
+  </si>
+  <si>
+    <t>M4tc028_VerifyBrokenImageInContactProfile</t>
+  </si>
+  <si>
+    <t>M4tc029_VerifySDGProperties</t>
+  </si>
+  <si>
+    <t>M4tc030_VerifyCancelAndCrossOnEntityPageContactAccordionSDG</t>
+  </si>
+  <si>
+    <t>M4tc031_VerifyUserImageOnSDG</t>
+  </si>
+  <si>
+    <t>M4tc032_VerifyImageFieldByUploadingNewImage</t>
+  </si>
+  <si>
+    <t>M4tc033_VerifyImageFieldByPerformingDeleteAction</t>
+  </si>
+  <si>
+    <t>Module3Tc073_SetTheUserRegionAsLondon</t>
+  </si>
+  <si>
+    <t>Module3Tc074_CreateMyRegionMenuItem</t>
+  </si>
+  <si>
+    <t>Module3Tc075_CreateRecordOnCoverageObjectAndVerifyMyRegionlink</t>
+  </si>
+  <si>
+    <t>Module3Tc076_1_ChangetheUserRegionAsNewYorkAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc076_2_ChangetheUserRegionAsNewYorkAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc077_1_ChangetheUserRegionAsLosAngelesAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc077_2_ChangetheUserRegionAsLosAngelesAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc078_1_ChangetheUserRegionAsNoneAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc078_2_ChangetheUserRegionAsNoneAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc079_ChangetheUserRegionAsDublinAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc080_ChangetheUserRegionAsDublinAndVerifyImpactonNavigationMenu</t>
+  </si>
+  <si>
+    <t>User61019</t>
+  </si>
+  <si>
+    <t>navatariptesting+8991@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1076,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="767">
+  <dxfs count="836">
     <dxf>
       <fill>
         <patternFill>
@@ -1345,6 +1402,276 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1381,6 +1708,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1408,6 +1771,303 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2605,6 +3265,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2632,6 +3328,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -6327,33 +7050,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9548,42 +10244,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="766" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="765" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="764" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="763" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="762" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="761" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="760" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="759" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9600,10 +10296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10699,7 +11395,7 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="3" t="s">
@@ -10714,7 +11410,7 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="3" t="s">
@@ -10729,7 +11425,7 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
@@ -10744,7 +11440,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
@@ -10759,7 +11455,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="3" t="s">
@@ -10774,7 +11470,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="3" t="s">
@@ -10789,7 +11485,7 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="3" t="s">
@@ -10804,7 +11500,7 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="3" t="s">
@@ -10819,7 +11515,7 @@
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="3" t="s">
@@ -10834,7 +11530,7 @@
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
@@ -10849,7 +11545,7 @@
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="3" t="s">
@@ -10864,7 +11560,7 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
@@ -10879,7 +11575,7 @@
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
@@ -10894,7 +11590,7 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
@@ -10909,7 +11605,7 @@
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
@@ -10924,7 +11620,7 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
@@ -10939,7 +11635,7 @@
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
@@ -10954,7 +11650,7 @@
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
@@ -10969,7 +11665,7 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="3" t="s">
@@ -10984,7 +11680,7 @@
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
@@ -10999,7 +11695,7 @@
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
@@ -11014,7 +11710,7 @@
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
@@ -11028,12 +11724,10 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" s="8">
-        <v>1</v>
-      </c>
+      <c r="A95" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
@@ -11046,11 +11740,9 @@
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="8">
-        <v>1</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
@@ -11061,13 +11753,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" s="8">
-        <v>1</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B97" s="8"/>
       <c r="C97" s="3" t="s">
         <v>7</v>
       </c>
@@ -11078,13 +11768,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="8">
-        <v>1</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B98" s="8"/>
       <c r="C98" s="3" t="s">
         <v>7</v>
       </c>
@@ -11095,13 +11783,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="8">
-        <v>1</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
         <v>7</v>
       </c>
@@ -11112,13 +11798,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="3" t="s">
         <v>7</v>
       </c>
@@ -11129,13 +11813,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" s="8">
-        <v>1</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B101" s="8"/>
       <c r="C101" s="3" t="s">
         <v>7</v>
       </c>
@@ -11146,9 +11828,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>168</v>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B102" s="8">
         <v>1</v>
@@ -11163,9 +11845,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B103" s="8">
         <v>1</v>
@@ -11182,7 +11864,7 @@
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B104" s="8">
         <v>1</v>
@@ -11199,7 +11881,7 @@
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B105" s="8">
         <v>1</v>
@@ -11215,8 +11897,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>85</v>
+      <c r="A106" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B106" s="8">
         <v>1</v>
@@ -11233,10 +11915,10 @@
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B107" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -11250,10 +11932,10 @@
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B108" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -11267,10 +11949,10 @@
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B109" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -11284,10 +11966,10 @@
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="B110" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -11301,10 +11983,10 @@
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="B111" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>7</v>
@@ -11318,10 +12000,10 @@
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B112" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -11334,11 +12016,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>112</v>
+      <c r="A113" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B113" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -11350,12 +12032,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B114" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -11367,12 +12049,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B115" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>7</v>
@@ -11386,10 +12068,10 @@
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B116" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -11403,10 +12085,10 @@
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B117" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -11420,10 +12102,10 @@
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="B118" s="8">
+        <v>6</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -11437,10 +12119,10 @@
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B119" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -11454,10 +12136,10 @@
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B120" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -11469,12 +12151,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B121" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -11483,15 +12165,15 @@
         <v>8</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B122" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -11500,15 +12182,15 @@
         <v>8</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="B123" s="8">
+        <v>10</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -11517,15 +12199,15 @@
         <v>8</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B124" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -11534,15 +12216,15 @@
         <v>8</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B125" s="8">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>7</v>
@@ -11551,15 +12233,15 @@
         <v>8</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B126" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -11568,15 +12250,15 @@
         <v>8</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B127" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -11585,15 +12267,15 @@
         <v>8</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
+      </c>
+      <c r="B128" s="8">
+        <v>17</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -11607,10 +12289,10 @@
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B129" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -11624,10 +12306,10 @@
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="8">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>7</v>
@@ -11641,10 +12323,10 @@
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B131" s="8">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -11658,10 +12340,10 @@
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B132" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -11675,10 +12357,10 @@
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B133" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -11692,10 +12374,10 @@
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B134" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
@@ -11709,10 +12391,10 @@
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B135" s="8">
-        <v>33</v>
+        <v>154</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -11726,10 +12408,10 @@
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B136" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -11743,10 +12425,10 @@
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B137" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -11760,10 +12442,10 @@
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B138" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -11777,10 +12459,10 @@
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B139" s="8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -11794,10 +12476,10 @@
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B140" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -11811,10 +12493,10 @@
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B141" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>7</v>
@@ -11828,10 +12510,10 @@
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B142" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -11845,10 +12527,10 @@
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B143" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>7</v>
@@ -11862,10 +12544,10 @@
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B144" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>7</v>
@@ -11879,10 +12561,10 @@
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B145" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>7</v>
@@ -11896,10 +12578,10 @@
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B146" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>7</v>
@@ -11913,10 +12595,10 @@
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B147" s="8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>7</v>
@@ -11930,10 +12612,10 @@
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B148" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>7</v>
@@ -11947,10 +12629,10 @@
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B149" s="8">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>7</v>
@@ -11964,10 +12646,10 @@
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B150" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>7</v>
@@ -11981,10 +12663,10 @@
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B151" s="8">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>7</v>
@@ -11998,10 +12680,10 @@
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B152" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>7</v>
@@ -12015,10 +12697,10 @@
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B153" s="8">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>7</v>
@@ -12032,10 +12714,10 @@
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B154" s="8">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>7</v>
@@ -12049,10 +12731,10 @@
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B155" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>7</v>
@@ -12066,10 +12748,10 @@
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B156" s="8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>7</v>
@@ -12083,10 +12765,10 @@
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B157" s="8">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>7</v>
@@ -12100,10 +12782,10 @@
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B158" s="8">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>7</v>
@@ -12117,10 +12799,10 @@
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B159" s="8">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>7</v>
@@ -12134,10 +12816,10 @@
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B160" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>7</v>
@@ -12151,10 +12833,10 @@
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B161" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>7</v>
@@ -12168,10 +12850,10 @@
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B162" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>7</v>
@@ -12185,10 +12867,10 @@
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B163" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>7</v>
@@ -12202,10 +12884,10 @@
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B164" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>7</v>
@@ -12219,10 +12901,10 @@
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B165" s="8">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>7</v>
@@ -12236,10 +12918,10 @@
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B166" s="8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>7</v>
@@ -12253,10 +12935,10 @@
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B167" s="8">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>7</v>
@@ -12270,10 +12952,10 @@
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B168" s="8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>7</v>
@@ -12287,10 +12969,10 @@
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B169" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>7</v>
@@ -12304,10 +12986,10 @@
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B170" s="8">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>7</v>
@@ -12321,13 +13003,13 @@
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B171" s="8">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
         <v>8</v>
@@ -12338,13 +13020,13 @@
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B172" s="8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
@@ -12355,10 +13037,10 @@
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B173" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>7</v>
@@ -12372,10 +13054,10 @@
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B174" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>7</v>
@@ -12389,10 +13071,10 @@
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B175" s="8">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>7</v>
@@ -12406,10 +13088,10 @@
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B176" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>7</v>
@@ -12423,10 +13105,10 @@
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B177" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>7</v>
@@ -12440,13 +13122,13 @@
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B178" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
@@ -12457,13 +13139,13 @@
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B179" s="8">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
@@ -12473,278 +13155,314 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="14" t="s">
+      <c r="A180" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B180" s="8">
+        <v>68</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B181" s="8">
+        <v>68</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B182" s="8">
+        <v>69</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B183" s="8">
+        <v>69</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B184" s="8">
+        <v>70</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B185" s="8">
+        <v>71</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B186" s="8">
+        <v>72</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B187" s="8">
+        <v>73</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B188" s="8"/>
-      <c r="C188" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B188" s="8">
+        <v>74</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B189" s="8">
+        <v>75</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B190" s="8">
+        <v>76</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" s="8">
+        <v>76</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B192" s="8">
+        <v>77</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" s="8">
+        <v>77</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D193" t="s">
         <v>8</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="14" t="s">
+      <c r="A194" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B194" s="8">
+        <v>78</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>72</v>
-      </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="14" t="s">
+      <c r="A195" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B195" s="8">
+        <v>78</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>78</v>
-      </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="14" t="s">
+      <c r="A196" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B196" s="8">
+        <v>79</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>79</v>
-      </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="14" t="s">
+      <c r="A197" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" s="8">
+        <v>80</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>86</v>
+      <c r="A198" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="14" t="s">
@@ -12758,8 +13476,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>87</v>
+      <c r="A199" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="14" t="s">
@@ -12773,8 +13491,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>119</v>
+      <c r="A200" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="14" t="s">
@@ -12788,8 +13506,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>120</v>
+      <c r="A201" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="14" t="s">
@@ -12803,8 +13521,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>121</v>
+      <c r="A202" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="14" t="s">
@@ -12818,8 +13536,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>122</v>
+      <c r="A203" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="14" t="s">
@@ -12833,8 +13551,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>123</v>
+      <c r="A204" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="14" t="s">
@@ -12848,8 +13566,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>124</v>
+      <c r="A205" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="14" t="s">
@@ -12863,8 +13581,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>198</v>
+      <c r="A206" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="14" t="s">
@@ -12878,8 +13596,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>199</v>
+      <c r="A207" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="14" t="s">
@@ -12892,2787 +13610,3178 @@
         <v>9</v>
       </c>
     </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" s="8"/>
+      <c r="C208" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" s="8"/>
+      <c r="C209" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" s="8"/>
+      <c r="C210" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B211" s="8"/>
+      <c r="C211" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" s="8"/>
+      <c r="C212" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213" s="8"/>
+      <c r="C213" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" s="8"/>
+      <c r="C214" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>79</v>
+      </c>
+      <c r="B215" s="8"/>
+      <c r="C215" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" s="8"/>
+      <c r="C216" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>87</v>
+      </c>
+      <c r="B217" s="8"/>
+      <c r="C217" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>119</v>
+      </c>
+      <c r="B218" s="8"/>
+      <c r="C218" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>120</v>
+      </c>
+      <c r="B219" s="8"/>
+      <c r="C219" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>121</v>
+      </c>
+      <c r="B220" s="8"/>
+      <c r="C220" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>122</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>123</v>
+      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>124</v>
+      </c>
+      <c r="B223" s="8"/>
+      <c r="C223" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>198</v>
+      </c>
+      <c r="B224" s="8"/>
+      <c r="C224" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>199</v>
+      </c>
+      <c r="B225" s="8"/>
+      <c r="C225" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="758" priority="1471" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="1507" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="1472" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="1508" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="1473" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="1509" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D105">
-    <cfRule type="containsText" dxfId="755" priority="1510" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D2 D112">
+    <cfRule type="containsText" dxfId="824" priority="1546" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="1511" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="823" priority="1547" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="1512" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="822" priority="1548" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="752" priority="1513" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="821" priority="1549" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="1514" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="820" priority="1550" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="1515" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="819" priority="1551" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="749" priority="1504" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="818" priority="1540" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="748" priority="1505" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="817" priority="1541" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="1506" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="816" priority="1542" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="746" priority="1507" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="815" priority="1543" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="1508" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="814" priority="1544" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="1509" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="813" priority="1545" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="743" priority="1498" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="812" priority="1534" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="1499" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="811" priority="1535" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="1500" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="810" priority="1536" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="740" priority="1501" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="809" priority="1537" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="1502" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="808" priority="1538" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1503" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="807" priority="1539" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="737" priority="1492" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="806" priority="1528" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="1493" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="805" priority="1529" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="1494" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="804" priority="1530" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="734" priority="1495" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="803" priority="1531" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="1496" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="802" priority="1532" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="1497" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="801" priority="1533" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="731" priority="1486" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="800" priority="1522" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="1487" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="799" priority="1523" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="1488" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="798" priority="1524" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="728" priority="1489" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="797" priority="1525" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="1490" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="796" priority="1526" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="1491" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="795" priority="1527" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="725" priority="1483" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="1519" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="1484" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="1520" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="1485" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1521" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="722" priority="1480" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="1516" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="1481" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="1517" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1518" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="719" priority="1477" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1513" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="1478" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="1514" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="1479" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="1515" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="716" priority="1474" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="1510" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="1475" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="1511" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="1476" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="1512" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="713" priority="1366" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="782" priority="1402" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="1367" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="781" priority="1403" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="1368" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="780" priority="1404" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="710" priority="1369" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="779" priority="1405" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="1370" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="778" priority="1406" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="1371" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="777" priority="1407" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="707" priority="1363" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="1399" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="1364" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="1400" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="1365" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="1401" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D182">
-    <cfRule type="containsText" dxfId="704" priority="1435" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="703" priority="1436" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1437" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D182">
-    <cfRule type="containsText" dxfId="701" priority="1438" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1439" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="1440" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
+  <conditionalFormatting sqref="D198:D200">
+    <cfRule type="containsText" dxfId="773" priority="1471" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="772" priority="1472" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="771" priority="1473" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D198:D200">
+    <cfRule type="containsText" dxfId="770" priority="1474" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="769" priority="1475" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="768" priority="1476" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E67">
-    <cfRule type="cellIs" dxfId="698" priority="1354" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="1390" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="1355" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="1391" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="1356" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="1392" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E180:E182">
-    <cfRule type="cellIs" dxfId="695" priority="1396" operator="equal">
+  <conditionalFormatting sqref="E198:E200">
+    <cfRule type="cellIs" dxfId="764" priority="1432" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="1397" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="1433" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="1398" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="1434" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E204">
+    <cfRule type="cellIs" dxfId="761" priority="1345" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="1346" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="759" priority="1347" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D67 D102">
+    <cfRule type="containsText" dxfId="758" priority="1393" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="757" priority="1394" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="756" priority="1395" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D67 D102">
+    <cfRule type="containsText" dxfId="755" priority="1396" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="754" priority="1397" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="753" priority="1398" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201">
+    <cfRule type="containsText" dxfId="752" priority="1375" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="751" priority="1376" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="750" priority="1377" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201">
+    <cfRule type="containsText" dxfId="749" priority="1378" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="748" priority="1379" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="747" priority="1380" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="cellIs" dxfId="746" priority="1372" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="1373" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="744" priority="1374" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D202">
+    <cfRule type="containsText" dxfId="743" priority="1366" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="742" priority="1367" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="741" priority="1368" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D202">
+    <cfRule type="containsText" dxfId="740" priority="1369" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="739" priority="1370" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="738" priority="1371" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E202">
+    <cfRule type="cellIs" dxfId="737" priority="1363" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="736" priority="1364" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="735" priority="1365" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203">
+    <cfRule type="containsText" dxfId="734" priority="1357" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="733" priority="1358" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="732" priority="1359" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203">
+    <cfRule type="containsText" dxfId="731" priority="1360" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="730" priority="1361" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="729" priority="1362" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203">
+    <cfRule type="cellIs" dxfId="728" priority="1354" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="727" priority="1355" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="726" priority="1356" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D204">
+    <cfRule type="containsText" dxfId="725" priority="1348" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="724" priority="1349" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="723" priority="1350" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D204">
+    <cfRule type="containsText" dxfId="722" priority="1351" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="721" priority="1352" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="720" priority="1353" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205">
+    <cfRule type="containsText" dxfId="719" priority="1339" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="718" priority="1340" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="717" priority="1341" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205">
+    <cfRule type="containsText" dxfId="716" priority="1342" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="715" priority="1343" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="714" priority="1344" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E205">
+    <cfRule type="cellIs" dxfId="713" priority="1336" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="712" priority="1337" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="711" priority="1338" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="containsText" dxfId="710" priority="1330" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="709" priority="1331" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="708" priority="1332" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D206">
+    <cfRule type="containsText" dxfId="707" priority="1333" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="706" priority="1334" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="705" priority="1335" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E206">
+    <cfRule type="cellIs" dxfId="704" priority="1327" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="703" priority="1328" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="702" priority="1329" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207">
+    <cfRule type="containsText" dxfId="701" priority="1321" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="700" priority="1322" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="699" priority="1323" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207">
+    <cfRule type="containsText" dxfId="698" priority="1324" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="697" priority="1325" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="696" priority="1326" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
+    <cfRule type="cellIs" dxfId="695" priority="1318" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="1319" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="693" priority="1320" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208">
+    <cfRule type="containsText" dxfId="692" priority="1312" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="691" priority="1313" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="690" priority="1314" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208">
+    <cfRule type="containsText" dxfId="689" priority="1315" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="688" priority="1316" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D208)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="687" priority="1317" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D208)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="cellIs" dxfId="686" priority="1309" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="1310" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="1311" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D209">
+    <cfRule type="containsText" dxfId="683" priority="1303" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="682" priority="1304" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="681" priority="1305" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D209)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D209">
+    <cfRule type="containsText" dxfId="680" priority="1306" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="679" priority="1307" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="678" priority="1308" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D209)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E209">
+    <cfRule type="cellIs" dxfId="677" priority="1300" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="1301" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="675" priority="1302" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D210">
+    <cfRule type="containsText" dxfId="674" priority="1294" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D210)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="673" priority="1295" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D210)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="672" priority="1296" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D210">
+    <cfRule type="containsText" dxfId="671" priority="1297" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D210)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="670" priority="1298" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D210)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="669" priority="1299" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E210">
+    <cfRule type="cellIs" dxfId="668" priority="1291" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="1292" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="666" priority="1293" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211:D212">
+    <cfRule type="containsText" dxfId="665" priority="1285" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="664" priority="1286" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="663" priority="1287" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211:D212">
+    <cfRule type="containsText" dxfId="662" priority="1288" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="661" priority="1289" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="660" priority="1290" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E211:E212">
+    <cfRule type="cellIs" dxfId="659" priority="1282" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="1283" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="1284" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213">
+    <cfRule type="containsText" dxfId="656" priority="1276" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="655" priority="1277" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="654" priority="1278" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213">
+    <cfRule type="containsText" dxfId="653" priority="1279" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="652" priority="1280" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D213)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="651" priority="1281" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D213)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E213">
+    <cfRule type="cellIs" dxfId="650" priority="1273" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="1274" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="1275" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="647" priority="1264" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="1265" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="645" priority="1266" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="containsText" dxfId="644" priority="1267" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="643" priority="1268" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="642" priority="1269" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="containsText" dxfId="641" priority="1270" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="640" priority="1271" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="639" priority="1272" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="638" priority="1255" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="1256" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="636" priority="1257" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="containsText" dxfId="635" priority="1258" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="634" priority="1259" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="633" priority="1260" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="containsText" dxfId="632" priority="1261" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="631" priority="1262" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="630" priority="1263" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="629" priority="1252" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="1253" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="1254" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="containsText" dxfId="626" priority="1246" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="625" priority="1247" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="624" priority="1248" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="containsText" dxfId="623" priority="1249" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="622" priority="1250" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="621" priority="1251" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="620" priority="1243" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="1244" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="618" priority="1245" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="containsText" dxfId="617" priority="1237" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="616" priority="1238" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="615" priority="1239" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="containsText" dxfId="614" priority="1240" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="613" priority="1241" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="612" priority="1242" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="611" priority="1234" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="610" priority="1235" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="609" priority="1236" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="containsText" dxfId="608" priority="1228" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="607" priority="1229" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="606" priority="1230" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="containsText" dxfId="605" priority="1231" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="604" priority="1232" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="603" priority="1233" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="602" priority="1225" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="1226" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="1227" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="containsText" dxfId="599" priority="1219" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="598" priority="1220" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="597" priority="1221" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="containsText" dxfId="596" priority="1222" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="595" priority="1223" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="594" priority="1224" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="593" priority="1216" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="1217" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="1218" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109:D111">
+    <cfRule type="containsText" dxfId="590" priority="1210" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="589" priority="1211" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="588" priority="1212" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109:D111">
+    <cfRule type="containsText" dxfId="587" priority="1213" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="586" priority="1214" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="585" priority="1215" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="584" priority="1207" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="1208" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="1209" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="581" priority="1204" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="1205" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="1206" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D214">
+    <cfRule type="containsText" dxfId="578" priority="1189" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D214)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="577" priority="1190" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D214)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="576" priority="1191" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D214)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D214">
+    <cfRule type="containsText" dxfId="575" priority="1192" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D214)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="574" priority="1193" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D214)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="573" priority="1194" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D214)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E214">
+    <cfRule type="cellIs" dxfId="572" priority="1186" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="1187" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="1188" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D215">
+    <cfRule type="containsText" dxfId="569" priority="1180" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="568" priority="1181" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="567" priority="1182" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D215">
+    <cfRule type="containsText" dxfId="566" priority="1183" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="565" priority="1184" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="564" priority="1185" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215">
+    <cfRule type="cellIs" dxfId="563" priority="1177" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="1178" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="1179" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="560" priority="1168" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="1169" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="1170" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D216">
+    <cfRule type="containsText" dxfId="557" priority="1147" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D216)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="556" priority="1148" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D216)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="555" priority="1149" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D216)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D216">
+    <cfRule type="containsText" dxfId="554" priority="1150" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D216)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="553" priority="1151" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D216)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="552" priority="1152" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D216)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E216">
+    <cfRule type="cellIs" dxfId="551" priority="1144" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="1145" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="549" priority="1146" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D217">
+    <cfRule type="containsText" dxfId="548" priority="1138" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="547" priority="1139" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="546" priority="1140" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D217)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D217">
+    <cfRule type="containsText" dxfId="545" priority="1141" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="544" priority="1142" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="543" priority="1143" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D217)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E217">
+    <cfRule type="cellIs" dxfId="542" priority="1135" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="1136" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="1137" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
+    <cfRule type="containsText" dxfId="539" priority="1042" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D218)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="538" priority="1043" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D218)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="537" priority="1044" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D218)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
+    <cfRule type="containsText" dxfId="536" priority="1045" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D218)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="1046" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D218)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="534" priority="1047" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D218)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="cellIs" dxfId="533" priority="1039" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="1040" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="1041" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D219">
+    <cfRule type="containsText" dxfId="530" priority="1033" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="529" priority="1034" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="528" priority="1035" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D219">
+    <cfRule type="containsText" dxfId="527" priority="1036" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="526" priority="1037" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="525" priority="1038" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E219">
+    <cfRule type="cellIs" dxfId="524" priority="1030" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="1031" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="1032" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D220">
+    <cfRule type="containsText" dxfId="521" priority="1024" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="1025" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="519" priority="1026" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D220">
+    <cfRule type="containsText" dxfId="518" priority="1027" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="517" priority="1028" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="516" priority="1029" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E220">
+    <cfRule type="cellIs" dxfId="515" priority="1021" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="1022" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="1023" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D221">
+    <cfRule type="containsText" dxfId="512" priority="1015" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="511" priority="1016" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="510" priority="1017" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D221)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D221">
+    <cfRule type="containsText" dxfId="509" priority="1018" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="508" priority="1019" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="507" priority="1020" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D221)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E221">
+    <cfRule type="cellIs" dxfId="506" priority="1012" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="1013" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="1014" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D222">
+    <cfRule type="containsText" dxfId="503" priority="1006" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="502" priority="1007" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="501" priority="1008" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D222)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D222">
+    <cfRule type="containsText" dxfId="500" priority="1009" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="499" priority="1010" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="498" priority="1011" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D222)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="cellIs" dxfId="497" priority="1003" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="1004" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="1005" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D223">
+    <cfRule type="containsText" dxfId="494" priority="997" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="493" priority="998" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="492" priority="999" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D223">
+    <cfRule type="containsText" dxfId="491" priority="1000" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="490" priority="1001" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="489" priority="1002" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="cellIs" dxfId="488" priority="994" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="995" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="996" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E74">
+    <cfRule type="cellIs" dxfId="485" priority="766" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="767" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="768" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D74">
+    <cfRule type="containsText" dxfId="482" priority="769" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="481" priority="770" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="480" priority="771" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D74">
+    <cfRule type="containsText" dxfId="479" priority="772" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="478" priority="773" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="774" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:E102">
+    <cfRule type="cellIs" dxfId="476" priority="541" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="542" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="543" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D78">
+    <cfRule type="containsText" dxfId="473" priority="544" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="545" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="471" priority="546" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D78">
+    <cfRule type="containsText" dxfId="470" priority="547" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="469" priority="548" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="468" priority="549" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79">
+    <cfRule type="containsText" dxfId="467" priority="535" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="466" priority="536" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="465" priority="537" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79">
+    <cfRule type="containsText" dxfId="464" priority="538" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="463" priority="539" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="462" priority="540" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D224">
+    <cfRule type="containsText" dxfId="461" priority="529" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="460" priority="530" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="459" priority="531" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D224)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D224">
+    <cfRule type="containsText" dxfId="458" priority="532" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="457" priority="533" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="456" priority="534" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D224)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E224">
+    <cfRule type="cellIs" dxfId="455" priority="526" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="527" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="528" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D225">
+    <cfRule type="containsText" dxfId="452" priority="520" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="451" priority="521" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="450" priority="522" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D225">
+    <cfRule type="containsText" dxfId="449" priority="523" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="448" priority="524" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="447" priority="525" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E225">
+    <cfRule type="cellIs" dxfId="446" priority="517" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="518" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="519" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D101">
+    <cfRule type="containsText" dxfId="443" priority="508" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="442" priority="509" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="441" priority="510" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D101">
+    <cfRule type="containsText" dxfId="440" priority="511" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="439" priority="512" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="438" priority="513" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="437" priority="310" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="311" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="312" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117:D121 D123">
+    <cfRule type="containsText" dxfId="434" priority="400" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="433" priority="401" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="402" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="431" priority="394" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="395" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="396" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="containsText" dxfId="428" priority="397" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="427" priority="398" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="426" priority="399" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="425" priority="382" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="383" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="384" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:D115">
+    <cfRule type="containsText" dxfId="422" priority="388" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="421" priority="389" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="390" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:D115">
+    <cfRule type="containsText" dxfId="419" priority="391" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="418" priority="392" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="393" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="416" priority="385" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="386" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="387" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="413" priority="379" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="380" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="381" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="410" priority="373" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="409" priority="374" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="408" priority="375" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="407" priority="376" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="406" priority="377" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="405" priority="378" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="404" priority="370" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="371" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="372" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="401" priority="367" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="368" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="369" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="398" priority="364" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="365" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="366" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120:E121">
+    <cfRule type="cellIs" dxfId="395" priority="361" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="362" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="363" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="392" priority="358" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="359" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="360" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="containsText" dxfId="389" priority="355" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="356" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="357" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="386" priority="352" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="353" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="354" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124:D125">
+    <cfRule type="containsText" dxfId="383" priority="349" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="382" priority="350" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="351" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="380" priority="346" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="347" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="348" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="377" priority="343" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="344" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="345" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="containsText" dxfId="374" priority="340" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="341" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="342" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="371" priority="337" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="338" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="339" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127:D130">
+    <cfRule type="containsText" dxfId="368" priority="334" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="367" priority="335" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="336" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="365" priority="331" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="332" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="333" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128:E130">
+    <cfRule type="cellIs" dxfId="362" priority="328" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="329" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="330" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="containsText" dxfId="359" priority="325" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="326" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="327" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="356" priority="322" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="323" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="324" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="containsText" dxfId="353" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="352" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="351" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="350" priority="316" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="317" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="318" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="containsText" dxfId="347" priority="313" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="314" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="315" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="344" priority="298" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="299" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="300" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="containsText" dxfId="341" priority="307" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="308" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="339" priority="309" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="338" priority="304" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="305" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="306" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="containsText" dxfId="335" priority="301" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="302" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="303" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="332" priority="286" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="287" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="288" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="containsText" dxfId="329" priority="295" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="296" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="297" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="326" priority="292" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="293" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="294" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D136">
+    <cfRule type="containsText" dxfId="323" priority="289" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="290" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="291" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138:D140">
+    <cfRule type="containsText" dxfId="320" priority="283" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="284" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="285" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="317" priority="280" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="281" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="282" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="314" priority="274" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="275" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="276" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="311" priority="277" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="278" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="279" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141:D142">
+    <cfRule type="containsText" dxfId="308" priority="271" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="272" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="273" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="305" priority="265" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="266" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="267" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="302" priority="268" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="269" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="270" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D143">
+    <cfRule type="containsText" dxfId="299" priority="262" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="263" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="264" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="296" priority="259" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="260" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="261" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="containsText" dxfId="293" priority="256" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="257" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="258" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="290" priority="253" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="254" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="255" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="containsText" dxfId="287" priority="250" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D145)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="251" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D145)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="252" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="cellIs" dxfId="284" priority="247" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="248" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="249" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="containsText" dxfId="281" priority="244" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="245" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="246" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="cellIs" dxfId="278" priority="241" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="242" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="243" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="containsText" dxfId="275" priority="238" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="239" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="240" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="272" priority="235" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="236" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="237" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="containsText" dxfId="269" priority="232" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="233" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="234" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="cellIs" dxfId="266" priority="229" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="230" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="231" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="containsText" dxfId="263" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="260" priority="223" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="224" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="225" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="containsText" dxfId="257" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="254" priority="217" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="218" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="219" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="containsText" dxfId="251" priority="214" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="215" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="216" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="248" priority="211" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="212" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="213" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="containsText" dxfId="245" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="242" priority="205" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="206" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="207" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="containsText" dxfId="239" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="236" priority="199" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="200" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="201" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154:D155">
+    <cfRule type="containsText" dxfId="233" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="230" priority="193" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="194" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="195" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="227" priority="190" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="191" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="192" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="containsText" dxfId="224" priority="187" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="188" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="189" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="221" priority="184" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="185" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="186" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="containsText" dxfId="218" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="215" priority="178" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="179" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="180" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="containsText" dxfId="212" priority="175" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="176" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="177" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="209" priority="172" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="173" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="174" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="containsText" dxfId="206" priority="169" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="170" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="171" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="203" priority="166" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="167" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="168" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D160">
+    <cfRule type="containsText" dxfId="200" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="197" priority="160" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="161" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="162" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161">
+    <cfRule type="containsText" dxfId="194" priority="157" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="158" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="159" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="191" priority="154" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="155" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="156" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162">
+    <cfRule type="containsText" dxfId="188" priority="151" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="152" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="153" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="cellIs" dxfId="185" priority="148" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="149" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="150" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D163">
+    <cfRule type="containsText" dxfId="182" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="179" priority="142" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="143" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="144" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D164">
+    <cfRule type="containsText" dxfId="176" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="173" priority="136" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="137" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="138" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165">
+    <cfRule type="containsText" dxfId="170" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
+    <cfRule type="cellIs" dxfId="167" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="containsText" dxfId="164" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
+    <cfRule type="cellIs" dxfId="161" priority="124" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="125" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="126" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="containsText" dxfId="158" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
+    <cfRule type="cellIs" dxfId="155" priority="118" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="119" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="120" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="containsText" dxfId="152" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
+    <cfRule type="cellIs" dxfId="149" priority="112" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="113" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="114" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="containsText" dxfId="146" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
+    <cfRule type="cellIs" dxfId="143" priority="106" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="107" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="108" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="containsText" dxfId="140" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
+    <cfRule type="cellIs" dxfId="137" priority="100" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="101" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="102" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171">
+    <cfRule type="containsText" dxfId="134" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="cellIs" dxfId="131" priority="94" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="95" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="96" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D173">
+    <cfRule type="containsText" dxfId="128" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="cellIs" dxfId="125" priority="88" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="89" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="90" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D172">
+    <cfRule type="containsText" dxfId="122" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="cellIs" dxfId="119" priority="82" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="83" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="84" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D174">
+    <cfRule type="containsText" dxfId="116" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="cellIs" dxfId="113" priority="76" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="77" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="78" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D175:D186">
+    <cfRule type="containsText" dxfId="110" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="cellIs" dxfId="107" priority="70" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="71" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="72" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="cellIs" dxfId="104" priority="67" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="68" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="69" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="cellIs" dxfId="101" priority="64" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="65" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="cellIs" dxfId="98" priority="61" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="62" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="63" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="cellIs" dxfId="95" priority="58" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="59" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
+    <cfRule type="cellIs" dxfId="92" priority="55" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="57" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
+    <cfRule type="cellIs" dxfId="89" priority="52" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="53" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="54" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
+    <cfRule type="cellIs" dxfId="86" priority="49" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
+    <cfRule type="cellIs" dxfId="83" priority="46" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="47" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="48" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184">
+    <cfRule type="cellIs" dxfId="80" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E185">
+    <cfRule type="cellIs" dxfId="77" priority="40" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="41" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="42" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="692" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="1310" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="1311" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D67 D95">
-    <cfRule type="containsText" dxfId="689" priority="1357" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1358" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="1359" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D67 D95">
-    <cfRule type="containsText" dxfId="686" priority="1360" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1361" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1362" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183">
-    <cfRule type="containsText" dxfId="683" priority="1339" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="1340" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="1341" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183">
-    <cfRule type="containsText" dxfId="680" priority="1342" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="1343" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="1344" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="677" priority="1336" operator="equal">
+  <conditionalFormatting sqref="D187:D197">
+    <cfRule type="containsText" dxfId="71" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E187">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="1337" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="1338" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D184">
-    <cfRule type="containsText" dxfId="674" priority="1330" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="1331" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="1332" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D184">
-    <cfRule type="containsText" dxfId="671" priority="1333" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="1334" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="1335" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E184">
-    <cfRule type="cellIs" dxfId="668" priority="1327" operator="equal">
+  <conditionalFormatting sqref="E188">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="1328" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="1329" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D185">
-    <cfRule type="containsText" dxfId="665" priority="1321" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1322" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="1323" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D185)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D185">
-    <cfRule type="containsText" dxfId="662" priority="1324" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="1325" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1326" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D185)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E185">
-    <cfRule type="cellIs" dxfId="659" priority="1318" operator="equal">
+  <conditionalFormatting sqref="E189">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="1319" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="1320" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D186">
-    <cfRule type="containsText" dxfId="656" priority="1312" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="1313" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="1314" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D186">
-    <cfRule type="containsText" dxfId="653" priority="1315" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1316" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1317" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D187">
-    <cfRule type="containsText" dxfId="650" priority="1303" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1304" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1305" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D187">
-    <cfRule type="containsText" dxfId="647" priority="1306" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="1307" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="1308" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="644" priority="1300" operator="equal">
+  <conditionalFormatting sqref="E191">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="1301" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D188">
-    <cfRule type="containsText" dxfId="641" priority="1294" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="1295" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1296" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D188">
-    <cfRule type="containsText" dxfId="638" priority="1297" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="1298" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D188)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="1299" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D188)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="635" priority="1291" operator="equal">
+  <conditionalFormatting sqref="E190">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="1292" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D189">
-    <cfRule type="containsText" dxfId="632" priority="1285" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="1286" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="1287" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D189">
-    <cfRule type="containsText" dxfId="629" priority="1288" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="1289" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="1290" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="626" priority="1282" operator="equal">
+  <conditionalFormatting sqref="E192">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="1283" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="1284" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D190">
-    <cfRule type="containsText" dxfId="623" priority="1276" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="1277" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="1278" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D190)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D190">
-    <cfRule type="containsText" dxfId="620" priority="1279" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="1280" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D190)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="1281" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D190)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="617" priority="1273" operator="equal">
+  <conditionalFormatting sqref="E193">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="1274" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="1275" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D191">
-    <cfRule type="containsText" dxfId="614" priority="1267" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="1268" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="1269" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D191">
-    <cfRule type="containsText" dxfId="611" priority="1270" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="1271" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="1272" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="608" priority="1264" operator="equal">
+  <conditionalFormatting sqref="E194">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="1265" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="1266" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D192">
-    <cfRule type="containsText" dxfId="605" priority="1258" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="1259" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="1260" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D192">
-    <cfRule type="containsText" dxfId="602" priority="1261" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="1262" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="1263" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E192">
-    <cfRule type="cellIs" dxfId="599" priority="1255" operator="equal">
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="1256" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1257" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D193:D194">
-    <cfRule type="containsText" dxfId="596" priority="1249" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="1250" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="1251" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D193)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D193:D194">
-    <cfRule type="containsText" dxfId="593" priority="1252" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="1253" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D193)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="1254" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D193)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E193:E194">
-    <cfRule type="cellIs" dxfId="590" priority="1246" operator="equal">
+  <conditionalFormatting sqref="E196">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="1247" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="1248" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D195">
-    <cfRule type="containsText" dxfId="587" priority="1240" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="1241" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="1242" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D195">
-    <cfRule type="containsText" dxfId="584" priority="1243" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="1244" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="1245" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="581" priority="1237" operator="equal">
+  <conditionalFormatting sqref="E197">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="1239" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="578" priority="1228" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="1229" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="1230" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="containsText" dxfId="575" priority="1231" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="1232" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="1233" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="containsText" dxfId="572" priority="1234" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="1235" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="1236" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="569" priority="1219" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="1220" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="1221" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="containsText" dxfId="566" priority="1222" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="1223" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="1224" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="containsText" dxfId="563" priority="1225" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="1226" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="1227" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="560" priority="1216" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="1217" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="1218" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="containsText" dxfId="557" priority="1210" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="1211" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="1212" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="containsText" dxfId="554" priority="1213" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="1214" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="1215" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="551" priority="1207" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="1208" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="1209" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="containsText" dxfId="548" priority="1201" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="1202" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="1203" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="containsText" dxfId="545" priority="1204" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="1205" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="1206" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D99)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="542" priority="1198" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="1199" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="1200" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="containsText" dxfId="539" priority="1192" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="1193" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="1194" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="containsText" dxfId="536" priority="1195" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="1196" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D100)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="1197" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="533" priority="1189" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="1190" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="1191" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="530" priority="1183" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="1184" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="1185" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="containsText" dxfId="527" priority="1186" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="1187" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="1188" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="524" priority="1180" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="1181" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="1182" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102:D104">
-    <cfRule type="containsText" dxfId="521" priority="1174" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="1175" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="1176" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102:D104">
-    <cfRule type="containsText" dxfId="518" priority="1177" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="1178" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="1179" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="515" priority="1171" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="1172" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="1173" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="512" priority="1168" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="1169" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="1170" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="509" priority="1159" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="1160" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="1161" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D196">
-    <cfRule type="containsText" dxfId="506" priority="1153" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="1154" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="1155" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D196">
-    <cfRule type="containsText" dxfId="503" priority="1156" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="1157" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="1158" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="500" priority="1150" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="1151" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="1152" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D197">
-    <cfRule type="containsText" dxfId="497" priority="1144" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="1145" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="1146" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D197">
-    <cfRule type="containsText" dxfId="494" priority="1147" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="1148" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D197)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="1149" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D197)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="491" priority="1141" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="1142" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="1143" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="488" priority="1132" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="1133" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="1134" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D198">
-    <cfRule type="containsText" dxfId="485" priority="1111" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="1112" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="1113" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D198">
-    <cfRule type="containsText" dxfId="482" priority="1114" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="1115" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="1116" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D198)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="479" priority="1108" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="1109" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="1110" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D199">
-    <cfRule type="containsText" dxfId="476" priority="1102" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="1103" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="1104" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D199)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D199">
-    <cfRule type="containsText" dxfId="473" priority="1105" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="1106" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="1107" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D199)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E199">
-    <cfRule type="cellIs" dxfId="470" priority="1099" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="1100" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="1101" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D200">
-    <cfRule type="containsText" dxfId="467" priority="1006" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D200)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="1007" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D200)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="1008" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D200)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D200">
-    <cfRule type="containsText" dxfId="464" priority="1009" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D200)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="1010" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D200)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="1011" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D200)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="461" priority="1003" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="1004" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="1005" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D201">
-    <cfRule type="containsText" dxfId="458" priority="997" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="998" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="999" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D201">
-    <cfRule type="containsText" dxfId="455" priority="1000" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D201)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="1001" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D201)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="1002" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D201)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E201">
-    <cfRule type="cellIs" dxfId="452" priority="994" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="995" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="996" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D202">
-    <cfRule type="containsText" dxfId="449" priority="988" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="989" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="990" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D202">
-    <cfRule type="containsText" dxfId="446" priority="991" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="992" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="993" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="443" priority="985" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="986" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="987" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203">
-    <cfRule type="containsText" dxfId="440" priority="979" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="980" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="981" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203">
-    <cfRule type="containsText" dxfId="437" priority="982" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D203)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="983" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D203)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="984" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D203)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="434" priority="976" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="977" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="978" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D204">
-    <cfRule type="containsText" dxfId="431" priority="970" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="971" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="972" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D204">
-    <cfRule type="containsText" dxfId="428" priority="973" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="974" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D204)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="975" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D204)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="425" priority="967" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="968" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="969" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D205">
-    <cfRule type="containsText" dxfId="422" priority="961" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="962" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="963" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D205">
-    <cfRule type="containsText" dxfId="419" priority="964" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="965" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="966" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D205)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E205">
-    <cfRule type="cellIs" dxfId="416" priority="958" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="959" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="960" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E73">
-    <cfRule type="cellIs" dxfId="413" priority="730" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="731" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="732" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="containsText" dxfId="410" priority="733" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="734" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="735" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="containsText" dxfId="407" priority="736" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="737" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="738" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E94">
-    <cfRule type="cellIs" dxfId="404" priority="505" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="506" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="507" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77">
-    <cfRule type="containsText" dxfId="401" priority="508" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="509" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="510" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77">
-    <cfRule type="containsText" dxfId="398" priority="511" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="512" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="513" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="containsText" dxfId="395" priority="499" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="500" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="501" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="containsText" dxfId="392" priority="502" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="503" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="504" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D206">
-    <cfRule type="containsText" dxfId="389" priority="493" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="494" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="495" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D206">
-    <cfRule type="containsText" dxfId="386" priority="496" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="497" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="498" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E206">
-    <cfRule type="cellIs" dxfId="383" priority="490" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="491" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="492" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D207">
-    <cfRule type="containsText" dxfId="380" priority="484" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="485" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="486" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D207">
-    <cfRule type="containsText" dxfId="377" priority="487" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D207)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="488" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D207)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="489" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D207)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
-    <cfRule type="cellIs" dxfId="374" priority="481" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="482" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="483" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D94">
-    <cfRule type="containsText" dxfId="371" priority="472" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="473" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="474" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D94">
-    <cfRule type="containsText" dxfId="368" priority="475" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="476" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="477" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="365" priority="274" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="275" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="276" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D114 D116">
-    <cfRule type="containsText" dxfId="362" priority="364" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="365" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="366" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="359" priority="358" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="359" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="360" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="containsText" dxfId="356" priority="361" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="362" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="363" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="353" priority="346" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="347" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="348" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:D108">
-    <cfRule type="containsText" dxfId="350" priority="352" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="353" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="354" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:D108">
-    <cfRule type="containsText" dxfId="347" priority="355" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="356" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="357" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="344" priority="349" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="350" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="351" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="341" priority="343" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="344" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="345" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
-    <cfRule type="containsText" dxfId="338" priority="337" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="338" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="339" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
-    <cfRule type="containsText" dxfId="335" priority="340" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="341" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="342" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="332" priority="334" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="335" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="336" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="329" priority="331" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="332" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="333" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="326" priority="328" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="329" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="330" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E114">
-    <cfRule type="cellIs" dxfId="323" priority="325" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="326" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="327" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="320" priority="322" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="323" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="324" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="containsText" dxfId="317" priority="319" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="320" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="321" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="314" priority="316" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="317" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="318" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117:D118">
-    <cfRule type="containsText" dxfId="311" priority="313" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="314" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="315" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="308" priority="310" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="312" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="305" priority="307" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="308" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="309" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="containsText" dxfId="302" priority="304" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="305" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="306" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="299" priority="301" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="302" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D120:D123">
-    <cfRule type="containsText" dxfId="296" priority="298" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="299" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="300" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="293" priority="295" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="296" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E123">
-    <cfRule type="cellIs" dxfId="290" priority="292" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="293" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="294" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D126">
-    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="290" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="291" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="284" priority="286" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="287" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="288" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="281" priority="283" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="284" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="285" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="278" priority="280" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="281" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="282" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="containsText" dxfId="275" priority="277" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="278" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="279" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="272" priority="262" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="263" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="264" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
-    <cfRule type="containsText" dxfId="269" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="266" priority="268" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="269" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="270" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="260" priority="250" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="251" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="252" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="254" priority="256" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="257" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="258" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
-    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D131:D133">
-    <cfRule type="containsText" dxfId="248" priority="247" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="248" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="249" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="245" priority="244" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="246" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="242" priority="238" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="240" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="239" priority="241" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="242" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="243" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D134:D135">
-    <cfRule type="containsText" dxfId="236" priority="235" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="236" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="237" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="233" priority="229" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="230" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="231" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
-    <cfRule type="containsText" dxfId="227" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
-    <cfRule type="containsText" dxfId="221" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="218" priority="217" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="219" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
-    <cfRule type="containsText" dxfId="215" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="212" priority="211" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="212" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="213" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
-    <cfRule type="containsText" dxfId="209" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="206" priority="205" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="206" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="207" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
-    <cfRule type="containsText" dxfId="203" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="200" priority="199" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
-    <cfRule type="containsText" dxfId="197" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D141)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
-    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="189" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
-    <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D143)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="182" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="183" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="containsText" dxfId="179" priority="178" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="180" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D145)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="171" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D148">
-    <cfRule type="containsText" dxfId="161" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="159" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D149">
-    <cfRule type="containsText" dxfId="152" priority="151" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
-    <cfRule type="containsText" dxfId="146" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D150)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D152">
-    <cfRule type="containsText" dxfId="134" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
-    <cfRule type="containsText" dxfId="128" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
-    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
-    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
-    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
-    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D158)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D163">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D164">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D166">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D165">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D167">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D168:D179">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15681,11 +16790,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C207">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C225">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E207">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E225">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15700,7 +16809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15796,12 +16905,14 @@
         <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>270</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -15809,10 +16920,10 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" t="s">
         <v>251</v>
-      </c>
-      <c r="I4" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="2" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
+    <sheet name="Users" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$C$1:$C$262</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">TestCases!$A$1:$E$262</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="311">
   <si>
     <t>Module_Name</t>
   </si>
@@ -968,6 +968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1140,60 +1141,60 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="988">
@@ -11582,7 +11583,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -11667,10 +11668,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11705,7 +11706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11740,7 +11741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11834,21 +11835,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -11865,7 +11866,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -11917,29 +11918,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:J6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="1" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>288</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>168</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>139</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="2" t="s">
         <v>167</v>
       </c>
@@ -11989,84 +11990,84 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="cellIs" dxfId="987" priority="18" operator="equal">
+    <cfRule dxfId="987" operator="equal" priority="18" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="cellIs" dxfId="986" priority="19" operator="equal">
+    <cfRule dxfId="986" operator="equal" priority="19" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="985" priority="13" operator="equal">
+    <cfRule dxfId="985" operator="equal" priority="13" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="984" priority="14" operator="equal">
+    <cfRule dxfId="984" operator="equal" priority="14" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="983" priority="7" operator="equal">
+    <cfRule dxfId="983" operator="equal" priority="7" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="982" priority="8" operator="equal">
+    <cfRule dxfId="982" operator="equal" priority="8" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="981" priority="3" operator="equal">
+    <cfRule dxfId="981" operator="equal" priority="3" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="980" priority="4" operator="equal">
+    <cfRule dxfId="980" operator="equal" priority="4" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="979" priority="1" operator="equal">
+    <cfRule dxfId="979" operator="equal" priority="1" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="978" priority="2" operator="equal">
+    <cfRule dxfId="978" operator="equal" priority="2" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I6" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -12143,7 +12144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -12158,7 +12159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
@@ -12308,7 +12309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>60</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>61</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>72</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>73</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>78</v>
       </c>
@@ -12548,7 +12549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>79</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
@@ -12578,7 +12579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>88</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>89</v>
       </c>
@@ -12608,7 +12609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>90</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -12638,7 +12639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>92</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>93</v>
       </c>
@@ -12668,7 +12669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>97</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>98</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>99</v>
       </c>
@@ -12758,7 +12759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>100</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>102</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>103</v>
       </c>
@@ -12818,7 +12819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>104</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>105</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>127</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>128</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>129</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>130</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>131</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>132</v>
       </c>
@@ -12938,7 +12939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>133</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>134</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>135</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>136</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>137</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>138</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>142</v>
       </c>
@@ -13043,7 +13044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>143</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>144</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>169</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>170</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>140</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>141</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>171</v>
       </c>
@@ -13148,7 +13149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="73" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>246</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="74" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -13178,7 +13179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="75" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>188</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>189</v>
       </c>
@@ -13208,7 +13209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="77" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>190</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>191</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="79" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>192</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="80" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>195</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="81" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>196</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="82" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>197</v>
       </c>
@@ -13298,7 +13299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="83" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>198</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="84" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>199</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>200</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="86" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>201</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="87" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>202</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="88" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>219</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="89" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>220</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="90" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>221</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="91" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>222</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="92" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>223</v>
       </c>
@@ -13448,7 +13449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="93" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>298</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="94" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>299</v>
       </c>
@@ -13478,7 +13479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="95" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>224</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="96" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>225</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="97" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>247</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>248</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>249</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="100" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>250</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="101" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>265</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="102" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>266</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="103" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>267</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="104" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>300</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="105" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>301</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="106" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>268</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="107" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>269</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="108" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>270</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="109" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>289</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="110" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>271</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="111" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>272</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="112" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>273</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>290</v>
       </c>
@@ -13763,7 +13764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="114" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>291</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="115" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>292</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="116" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>293</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="117" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>294</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="118" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>295</v>
       </c>
@@ -13838,7 +13839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="119" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>296</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="120" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>297</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="121" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>156</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="122" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>157</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="123" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>158</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="124" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>159</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="125" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>160</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="126" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>161</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="127" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>162</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="128" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>163</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="129" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>164</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="130" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>165</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="131" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>166</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="132" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>304</v>
       </c>
@@ -14072,7 +14073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="133" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>305</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="134" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>80</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="135" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>81</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="136" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>85</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="137" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>86</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="138" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>106</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="139" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>107</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="140" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>108</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="141" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>109</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="142" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>110</v>
       </c>
@@ -14242,7 +14243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="143" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>111</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="144" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>112</v>
       </c>
@@ -14276,7 +14277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="145" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>113</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="146" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>121</v>
       </c>
@@ -14310,7 +14311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="147" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="148" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>123</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="149" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>125</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="150" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>126</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="151" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>146</v>
       </c>
@@ -14395,7 +14396,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="152" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="153" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>303</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="154" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>302</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="155" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>148</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="156" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>149</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="157" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>151</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="158" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>152</v>
       </c>
@@ -14514,7 +14515,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="159" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>153</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="160" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>154</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="161" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>155</v>
       </c>
@@ -14565,7 +14566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="162" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>173</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="163" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>174</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="164" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>175</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="165" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>176</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="166" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>177</v>
       </c>
@@ -14650,7 +14651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="167" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>178</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="168" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>179</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="169" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>180</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="170" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>181</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="171" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>182</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="172" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>183</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="173" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>184</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="174" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>185</v>
       </c>
@@ -14786,7 +14787,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="175" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>186</v>
       </c>
@@ -14803,7 +14804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="176" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>187</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="177" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>203</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="178" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>204</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="179" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>205</v>
       </c>
@@ -14871,7 +14872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="180" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>206</v>
       </c>
@@ -14888,7 +14889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="181" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>207</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="182" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>208</v>
       </c>
@@ -14922,7 +14923,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="183" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>209</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="184" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>210</v>
       </c>
@@ -14956,7 +14957,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="185" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>211</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="186" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>212</v>
       </c>
@@ -14990,7 +14991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="187" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>213</v>
       </c>
@@ -15007,7 +15008,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="188" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>214</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="189" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>215</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="190" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>216</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="191" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>217</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="192" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>218</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="193" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>226</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="194" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>227</v>
       </c>
@@ -15126,7 +15127,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="195" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>228</v>
       </c>
@@ -15143,7 +15144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="196" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>229</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="197" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>230</v>
       </c>
@@ -15177,7 +15178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="198" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>231</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="199" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>232</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="200" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>234</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="201" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>235</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="202" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>236</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="203" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>237</v>
       </c>
@@ -15279,7 +15280,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="204" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>238</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="205" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>239</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="206" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>240</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="207" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>241</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="208" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>251</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="209" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>252</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="210" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>253</v>
       </c>
@@ -15398,7 +15399,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="211" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>254</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="212" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>255</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="213" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>256</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="214" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>257</v>
       </c>
@@ -15466,7 +15467,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="215" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>258</v>
       </c>
@@ -15483,7 +15484,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="216" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>259</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="217" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>260</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="218" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="219" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>274</v>
       </c>
@@ -15551,7 +15552,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="220" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>275</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="221" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>276</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="222" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>277</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="223" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>278</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="224" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>279</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="225" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>280</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="226" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>281</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="227" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>282</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="228" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>283</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="229" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>284</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="230" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>285</v>
       </c>
@@ -15738,7 +15739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="231" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>286</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="232" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>35</v>
       </c>
@@ -15772,7 +15773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="233" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>36</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="234" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>37</v>
       </c>
@@ -15806,7 +15807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="235" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>46</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="236" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>47</v>
       </c>
@@ -15840,7 +15841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="237" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>48</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="238" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>49</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="239" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>50</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="240" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>51</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="241" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>52</v>
       </c>
@@ -15925,7 +15926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="242" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>65</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="243" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>66</v>
       </c>
@@ -15959,7 +15960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="244" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>67</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="245" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>68</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="246" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="16" t="s">
         <v>70</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="247" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>69</v>
       </c>
@@ -16027,7 +16028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="248" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>75</v>
       </c>
@@ -16044,7 +16045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="249" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>76</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="250" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>82</v>
       </c>
@@ -16078,7 +16079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="251" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>83</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="252" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>115</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="253" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="254" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>117</v>
       </c>
@@ -16146,7 +16147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="255" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>118</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="256" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>119</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="257" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>120</v>
       </c>
@@ -16197,7 +16198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="258" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>193</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="259" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>194</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="260" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="261" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="262" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -16279,3625 +16280,3625 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C262"/>
+  <autoFilter ref="A1:E262"/>
   <conditionalFormatting sqref="E6 E75:E93 E121 E95:E102">
-    <cfRule type="cellIs" dxfId="977" priority="1717" operator="equal">
+    <cfRule dxfId="977" operator="equal" priority="1717" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1718" operator="equal">
+    <cfRule dxfId="976" operator="equal" priority="1718" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="1719" operator="equal">
+    <cfRule dxfId="975" operator="equal" priority="1719" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D131 D80:D93 D95:D102">
-    <cfRule type="containsText" dxfId="974" priority="1756" operator="containsText" text="Skip:">
+    <cfRule dxfId="974" operator="containsText" priority="1756" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="1757" operator="containsText" text="Fail">
+    <cfRule dxfId="973" operator="containsText" priority="1757" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="972" priority="1758" operator="containsText" text="Pass">
+    <cfRule dxfId="972" operator="containsText" priority="1758" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="971" priority="1759" operator="containsText" text="Skip:">
+    <cfRule dxfId="971" operator="containsText" priority="1759" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="970" priority="1760" operator="containsText" text="Fail">
+    <cfRule dxfId="970" operator="containsText" priority="1760" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="969" priority="1761" operator="containsText" text="Pass">
+    <cfRule dxfId="969" operator="containsText" priority="1761" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="968" priority="1750" operator="containsText" text="Skip:">
+    <cfRule dxfId="968" operator="containsText" priority="1750" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="1751" operator="containsText" text="Fail">
+    <cfRule dxfId="967" operator="containsText" priority="1751" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="966" priority="1752" operator="containsText" text="Pass">
+    <cfRule dxfId="966" operator="containsText" priority="1752" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="965" priority="1753" operator="containsText" text="Skip:">
+    <cfRule dxfId="965" operator="containsText" priority="1753" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="964" priority="1754" operator="containsText" text="Fail">
+    <cfRule dxfId="964" operator="containsText" priority="1754" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="963" priority="1755" operator="containsText" text="Pass">
+    <cfRule dxfId="963" operator="containsText" priority="1755" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="962" priority="1744" operator="containsText" text="Skip:">
+    <cfRule dxfId="962" operator="containsText" priority="1744" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="1745" operator="containsText" text="Fail">
+    <cfRule dxfId="961" operator="containsText" priority="1745" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="1746" operator="containsText" text="Pass">
+    <cfRule dxfId="960" operator="containsText" priority="1746" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="959" priority="1747" operator="containsText" text="Skip:">
+    <cfRule dxfId="959" operator="containsText" priority="1747" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="958" priority="1748" operator="containsText" text="Fail">
+    <cfRule dxfId="958" operator="containsText" priority="1748" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="957" priority="1749" operator="containsText" text="Pass">
+    <cfRule dxfId="957" operator="containsText" priority="1749" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="956" priority="1738" operator="containsText" text="Skip:">
+    <cfRule dxfId="956" operator="containsText" priority="1738" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="955" priority="1739" operator="containsText" text="Fail">
+    <cfRule dxfId="955" operator="containsText" priority="1739" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="954" priority="1740" operator="containsText" text="Pass">
+    <cfRule dxfId="954" operator="containsText" priority="1740" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="953" priority="1741" operator="containsText" text="Skip:">
+    <cfRule dxfId="953" operator="containsText" priority="1741" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="1742" operator="containsText" text="Fail">
+    <cfRule dxfId="952" operator="containsText" priority="1742" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="951" priority="1743" operator="containsText" text="Pass">
+    <cfRule dxfId="951" operator="containsText" priority="1743" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="950" priority="1732" operator="containsText" text="Skip:">
+    <cfRule dxfId="950" operator="containsText" priority="1732" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="949" priority="1733" operator="containsText" text="Fail">
+    <cfRule dxfId="949" operator="containsText" priority="1733" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="948" priority="1734" operator="containsText" text="Pass">
+    <cfRule dxfId="948" operator="containsText" priority="1734" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="947" priority="1735" operator="containsText" text="Skip:">
+    <cfRule dxfId="947" operator="containsText" priority="1735" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="946" priority="1736" operator="containsText" text="Fail">
+    <cfRule dxfId="946" operator="containsText" priority="1736" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="945" priority="1737" operator="containsText" text="Pass">
+    <cfRule dxfId="945" operator="containsText" priority="1737" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="944" priority="1729" operator="equal">
+    <cfRule dxfId="944" operator="equal" priority="1729" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="1730" operator="equal">
+    <cfRule dxfId="943" operator="equal" priority="1730" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="1731" operator="equal">
+    <cfRule dxfId="942" operator="equal" priority="1731" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="941" priority="1726" operator="equal">
+    <cfRule dxfId="941" operator="equal" priority="1726" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="1727" operator="equal">
+    <cfRule dxfId="940" operator="equal" priority="1727" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="1728" operator="equal">
+    <cfRule dxfId="939" operator="equal" priority="1728" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="938" priority="1723" operator="equal">
+    <cfRule dxfId="938" operator="equal" priority="1723" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="1724" operator="equal">
+    <cfRule dxfId="937" operator="equal" priority="1724" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="1725" operator="equal">
+    <cfRule dxfId="936" operator="equal" priority="1725" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="935" priority="1720" operator="equal">
+    <cfRule dxfId="935" operator="equal" priority="1720" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="1721" operator="equal">
+    <cfRule dxfId="934" operator="equal" priority="1721" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1722" operator="equal">
+    <cfRule dxfId="933" operator="equal" priority="1722" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="932" priority="1612" operator="containsText" text="Skip:">
+    <cfRule dxfId="932" operator="containsText" priority="1612" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="1613" operator="containsText" text="Fail">
+    <cfRule dxfId="931" operator="containsText" priority="1613" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="1614" operator="containsText" text="Pass">
+    <cfRule dxfId="930" operator="containsText" priority="1614" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="929" priority="1615" operator="containsText" text="Skip:">
+    <cfRule dxfId="929" operator="containsText" priority="1615" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="928" priority="1616" operator="containsText" text="Fail">
+    <cfRule dxfId="928" operator="containsText" priority="1616" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="927" priority="1617" operator="containsText" text="Pass">
+    <cfRule dxfId="927" operator="containsText" priority="1617" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="926" priority="1609" operator="equal">
+    <cfRule dxfId="926" operator="equal" priority="1609" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="1610" operator="equal">
+    <cfRule dxfId="925" operator="equal" priority="1610" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1611" operator="equal">
+    <cfRule dxfId="924" operator="equal" priority="1611" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D232:D234">
-    <cfRule type="containsText" dxfId="923" priority="1681" operator="containsText" text="Skip:">
+    <cfRule dxfId="923" operator="containsText" priority="1681" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="922" priority="1682" operator="containsText" text="Fail">
+    <cfRule dxfId="922" operator="containsText" priority="1682" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="921" priority="1683" operator="containsText" text="Pass">
+    <cfRule dxfId="921" operator="containsText" priority="1683" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D232)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D232:D234">
-    <cfRule type="containsText" dxfId="920" priority="1684" operator="containsText" text="Skip:">
+    <cfRule dxfId="920" operator="containsText" priority="1684" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="919" priority="1685" operator="containsText" text="Fail">
+    <cfRule dxfId="919" operator="containsText" priority="1685" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="1686" operator="containsText" text="Pass">
+    <cfRule dxfId="918" operator="containsText" priority="1686" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D232)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E67">
-    <cfRule type="cellIs" dxfId="917" priority="1600" operator="equal">
+    <cfRule dxfId="917" operator="equal" priority="1600" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1601" operator="equal">
+    <cfRule dxfId="916" operator="equal" priority="1601" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="1602" operator="equal">
+    <cfRule dxfId="915" operator="equal" priority="1602" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E232:E234">
-    <cfRule type="cellIs" dxfId="914" priority="1642" operator="equal">
+    <cfRule dxfId="914" operator="equal" priority="1642" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="1643" operator="equal">
+    <cfRule dxfId="913" operator="equal" priority="1643" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="1644" operator="equal">
+    <cfRule dxfId="912" operator="equal" priority="1644" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E238">
-    <cfRule type="cellIs" dxfId="911" priority="1555" operator="equal">
+    <cfRule dxfId="911" operator="equal" priority="1555" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1556" operator="equal">
+    <cfRule dxfId="910" operator="equal" priority="1556" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="1557" operator="equal">
+    <cfRule dxfId="909" operator="equal" priority="1557" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D67 D121">
-    <cfRule type="containsText" dxfId="908" priority="1603" operator="containsText" text="Skip:">
+    <cfRule dxfId="908" operator="containsText" priority="1603" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="907" priority="1604" operator="containsText" text="Fail">
+    <cfRule dxfId="907" operator="containsText" priority="1604" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="1605" operator="containsText" text="Pass">
+    <cfRule dxfId="906" operator="containsText" priority="1605" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D67 D121">
-    <cfRule type="containsText" dxfId="905" priority="1606" operator="containsText" text="Skip:">
+    <cfRule dxfId="905" operator="containsText" priority="1606" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="1607" operator="containsText" text="Fail">
+    <cfRule dxfId="904" operator="containsText" priority="1607" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="1608" operator="containsText" text="Pass">
+    <cfRule dxfId="903" operator="containsText" priority="1608" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235">
-    <cfRule type="containsText" dxfId="902" priority="1585" operator="containsText" text="Skip:">
+    <cfRule dxfId="902" operator="containsText" priority="1585" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="901" priority="1586" operator="containsText" text="Fail">
+    <cfRule dxfId="901" operator="containsText" priority="1586" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="1587" operator="containsText" text="Pass">
+    <cfRule dxfId="900" operator="containsText" priority="1587" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235">
-    <cfRule type="containsText" dxfId="899" priority="1588" operator="containsText" text="Skip:">
+    <cfRule dxfId="899" operator="containsText" priority="1588" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="898" priority="1589" operator="containsText" text="Fail">
+    <cfRule dxfId="898" operator="containsText" priority="1589" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="1590" operator="containsText" text="Pass">
+    <cfRule dxfId="897" operator="containsText" priority="1590" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E235">
-    <cfRule type="cellIs" dxfId="896" priority="1582" operator="equal">
+    <cfRule dxfId="896" operator="equal" priority="1582" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="1583" operator="equal">
+    <cfRule dxfId="895" operator="equal" priority="1583" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="1584" operator="equal">
+    <cfRule dxfId="894" operator="equal" priority="1584" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D236">
-    <cfRule type="containsText" dxfId="893" priority="1576" operator="containsText" text="Skip:">
+    <cfRule dxfId="893" operator="containsText" priority="1576" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="1577" operator="containsText" text="Fail">
+    <cfRule dxfId="892" operator="containsText" priority="1577" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="1578" operator="containsText" text="Pass">
+    <cfRule dxfId="891" operator="containsText" priority="1578" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D236">
-    <cfRule type="containsText" dxfId="890" priority="1579" operator="containsText" text="Skip:">
+    <cfRule dxfId="890" operator="containsText" priority="1579" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="1580" operator="containsText" text="Fail">
+    <cfRule dxfId="889" operator="containsText" priority="1580" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="888" priority="1581" operator="containsText" text="Pass">
+    <cfRule dxfId="888" operator="containsText" priority="1581" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E236">
-    <cfRule type="cellIs" dxfId="887" priority="1573" operator="equal">
+    <cfRule dxfId="887" operator="equal" priority="1573" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="1574" operator="equal">
+    <cfRule dxfId="886" operator="equal" priority="1574" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="1575" operator="equal">
+    <cfRule dxfId="885" operator="equal" priority="1575" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D237">
-    <cfRule type="containsText" dxfId="884" priority="1567" operator="containsText" text="Skip:">
+    <cfRule dxfId="884" operator="containsText" priority="1567" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="1568" operator="containsText" text="Fail">
+    <cfRule dxfId="883" operator="containsText" priority="1568" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="882" priority="1569" operator="containsText" text="Pass">
+    <cfRule dxfId="882" operator="containsText" priority="1569" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D237">
-    <cfRule type="containsText" dxfId="881" priority="1570" operator="containsText" text="Skip:">
+    <cfRule dxfId="881" operator="containsText" priority="1570" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="1571" operator="containsText" text="Fail">
+    <cfRule dxfId="880" operator="containsText" priority="1571" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="1572" operator="containsText" text="Pass">
+    <cfRule dxfId="879" operator="containsText" priority="1572" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E237">
-    <cfRule type="cellIs" dxfId="878" priority="1564" operator="equal">
+    <cfRule dxfId="878" operator="equal" priority="1564" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="1565" operator="equal">
+    <cfRule dxfId="877" operator="equal" priority="1565" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1566" operator="equal">
+    <cfRule dxfId="876" operator="equal" priority="1566" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D238">
-    <cfRule type="containsText" dxfId="875" priority="1558" operator="containsText" text="Skip:">
+    <cfRule dxfId="875" operator="containsText" priority="1558" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="874" priority="1559" operator="containsText" text="Fail">
+    <cfRule dxfId="874" operator="containsText" priority="1559" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="1560" operator="containsText" text="Pass">
+    <cfRule dxfId="873" operator="containsText" priority="1560" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D238">
-    <cfRule type="containsText" dxfId="872" priority="1561" operator="containsText" text="Skip:">
+    <cfRule dxfId="872" operator="containsText" priority="1561" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="1562" operator="containsText" text="Fail">
+    <cfRule dxfId="871" operator="containsText" priority="1562" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="1563" operator="containsText" text="Pass">
+    <cfRule dxfId="870" operator="containsText" priority="1563" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239">
-    <cfRule type="containsText" dxfId="869" priority="1549" operator="containsText" text="Skip:">
+    <cfRule dxfId="869" operator="containsText" priority="1549" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="868" priority="1550" operator="containsText" text="Fail">
+    <cfRule dxfId="868" operator="containsText" priority="1550" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="1551" operator="containsText" text="Pass">
+    <cfRule dxfId="867" operator="containsText" priority="1551" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239">
-    <cfRule type="containsText" dxfId="866" priority="1552" operator="containsText" text="Skip:">
+    <cfRule dxfId="866" operator="containsText" priority="1552" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="865" priority="1553" operator="containsText" text="Fail">
+    <cfRule dxfId="865" operator="containsText" priority="1553" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="864" priority="1554" operator="containsText" text="Pass">
+    <cfRule dxfId="864" operator="containsText" priority="1554" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E239">
-    <cfRule type="cellIs" dxfId="863" priority="1546" operator="equal">
+    <cfRule dxfId="863" operator="equal" priority="1546" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="1547" operator="equal">
+    <cfRule dxfId="862" operator="equal" priority="1547" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1548" operator="equal">
+    <cfRule dxfId="861" operator="equal" priority="1548" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D240">
-    <cfRule type="containsText" dxfId="860" priority="1540" operator="containsText" text="Skip:">
+    <cfRule dxfId="860" operator="containsText" priority="1540" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D240)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="1541" operator="containsText" text="Fail">
+    <cfRule dxfId="859" operator="containsText" priority="1541" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D240)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="1542" operator="containsText" text="Pass">
+    <cfRule dxfId="858" operator="containsText" priority="1542" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D240">
-    <cfRule type="containsText" dxfId="857" priority="1543" operator="containsText" text="Skip:">
+    <cfRule dxfId="857" operator="containsText" priority="1543" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D240)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="856" priority="1544" operator="containsText" text="Fail">
+    <cfRule dxfId="856" operator="containsText" priority="1544" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D240)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="1545" operator="containsText" text="Pass">
+    <cfRule dxfId="855" operator="containsText" priority="1545" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E240">
-    <cfRule type="cellIs" dxfId="854" priority="1537" operator="equal">
+    <cfRule dxfId="854" operator="equal" priority="1537" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="1538" operator="equal">
+    <cfRule dxfId="853" operator="equal" priority="1538" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="1539" operator="equal">
+    <cfRule dxfId="852" operator="equal" priority="1539" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D241">
-    <cfRule type="containsText" dxfId="851" priority="1531" operator="containsText" text="Skip:">
+    <cfRule dxfId="851" operator="containsText" priority="1531" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D241)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="1532" operator="containsText" text="Fail">
+    <cfRule dxfId="850" operator="containsText" priority="1532" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D241)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="1533" operator="containsText" text="Pass">
+    <cfRule dxfId="849" operator="containsText" priority="1533" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D241">
-    <cfRule type="containsText" dxfId="848" priority="1534" operator="containsText" text="Skip:">
+    <cfRule dxfId="848" operator="containsText" priority="1534" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D241)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="1535" operator="containsText" text="Fail">
+    <cfRule dxfId="847" operator="containsText" priority="1535" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D241)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="1536" operator="containsText" text="Pass">
+    <cfRule dxfId="846" operator="containsText" priority="1536" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E241">
-    <cfRule type="cellIs" dxfId="845" priority="1528" operator="equal">
+    <cfRule dxfId="845" operator="equal" priority="1528" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="1529" operator="equal">
+    <cfRule dxfId="844" operator="equal" priority="1529" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="1530" operator="equal">
+    <cfRule dxfId="843" operator="equal" priority="1530" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D242">
-    <cfRule type="containsText" dxfId="842" priority="1522" operator="containsText" text="Skip:">
+    <cfRule dxfId="842" operator="containsText" priority="1522" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D242)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="1523" operator="containsText" text="Fail">
+    <cfRule dxfId="841" operator="containsText" priority="1523" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D242)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="1524" operator="containsText" text="Pass">
+    <cfRule dxfId="840" operator="containsText" priority="1524" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D242">
-    <cfRule type="containsText" dxfId="839" priority="1525" operator="containsText" text="Skip:">
+    <cfRule dxfId="839" operator="containsText" priority="1525" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D242)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="1526" operator="containsText" text="Fail">
+    <cfRule dxfId="838" operator="containsText" priority="1526" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D242)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="837" priority="1527" operator="containsText" text="Pass">
+    <cfRule dxfId="837" operator="containsText" priority="1527" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E242">
-    <cfRule type="cellIs" dxfId="836" priority="1519" operator="equal">
+    <cfRule dxfId="836" operator="equal" priority="1519" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="1520" operator="equal">
+    <cfRule dxfId="835" operator="equal" priority="1520" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="1521" operator="equal">
+    <cfRule dxfId="834" operator="equal" priority="1521" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="containsText" dxfId="833" priority="1513" operator="containsText" text="Skip:">
+    <cfRule dxfId="833" operator="containsText" priority="1513" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="1514" operator="containsText" text="Fail">
+    <cfRule dxfId="832" operator="containsText" priority="1514" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="831" priority="1515" operator="containsText" text="Pass">
+    <cfRule dxfId="831" operator="containsText" priority="1515" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="containsText" dxfId="830" priority="1516" operator="containsText" text="Skip:">
+    <cfRule dxfId="830" operator="containsText" priority="1516" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="1517" operator="containsText" text="Fail">
+    <cfRule dxfId="829" operator="containsText" priority="1517" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="1518" operator="containsText" text="Pass">
+    <cfRule dxfId="828" operator="containsText" priority="1518" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E243">
-    <cfRule type="cellIs" dxfId="827" priority="1510" operator="equal">
+    <cfRule dxfId="827" operator="equal" priority="1510" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="1511" operator="equal">
+    <cfRule dxfId="826" operator="equal" priority="1511" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="1512" operator="equal">
+    <cfRule dxfId="825" operator="equal" priority="1512" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="containsText" dxfId="824" priority="1504" operator="containsText" text="Skip:">
+    <cfRule dxfId="824" operator="containsText" priority="1504" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="1505" operator="containsText" text="Fail">
+    <cfRule dxfId="823" operator="containsText" priority="1505" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="822" priority="1506" operator="containsText" text="Pass">
+    <cfRule dxfId="822" operator="containsText" priority="1506" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="containsText" dxfId="821" priority="1507" operator="containsText" text="Skip:">
+    <cfRule dxfId="821" operator="containsText" priority="1507" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="820" priority="1508" operator="containsText" text="Fail">
+    <cfRule dxfId="820" operator="containsText" priority="1508" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="1509" operator="containsText" text="Pass">
+    <cfRule dxfId="819" operator="containsText" priority="1509" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="818" priority="1501" operator="equal">
+    <cfRule dxfId="818" operator="equal" priority="1501" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="1502" operator="equal">
+    <cfRule dxfId="817" operator="equal" priority="1502" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="1503" operator="equal">
+    <cfRule dxfId="816" operator="equal" priority="1503" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245:D246">
-    <cfRule type="containsText" dxfId="815" priority="1495" operator="containsText" text="Skip:">
+    <cfRule dxfId="815" operator="containsText" priority="1495" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="1496" operator="containsText" text="Fail">
+    <cfRule dxfId="814" operator="containsText" priority="1496" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="1497" operator="containsText" text="Pass">
+    <cfRule dxfId="813" operator="containsText" priority="1497" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245:D246">
-    <cfRule type="containsText" dxfId="812" priority="1498" operator="containsText" text="Skip:">
+    <cfRule dxfId="812" operator="containsText" priority="1498" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="811" priority="1499" operator="containsText" text="Fail">
+    <cfRule dxfId="811" operator="containsText" priority="1499" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="1500" operator="containsText" text="Pass">
+    <cfRule dxfId="810" operator="containsText" priority="1500" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E245:E246">
-    <cfRule type="cellIs" dxfId="809" priority="1492" operator="equal">
+    <cfRule dxfId="809" operator="equal" priority="1492" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="1493" operator="equal">
+    <cfRule dxfId="808" operator="equal" priority="1493" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="1494" operator="equal">
+    <cfRule dxfId="807" operator="equal" priority="1494" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247">
-    <cfRule type="containsText" dxfId="806" priority="1486" operator="containsText" text="Skip:">
+    <cfRule dxfId="806" operator="containsText" priority="1486" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="805" priority="1487" operator="containsText" text="Fail">
+    <cfRule dxfId="805" operator="containsText" priority="1487" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="1488" operator="containsText" text="Pass">
+    <cfRule dxfId="804" operator="containsText" priority="1488" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247">
-    <cfRule type="containsText" dxfId="803" priority="1489" operator="containsText" text="Skip:">
+    <cfRule dxfId="803" operator="containsText" priority="1489" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="1490" operator="containsText" text="Fail">
+    <cfRule dxfId="802" operator="containsText" priority="1490" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="1491" operator="containsText" text="Pass">
+    <cfRule dxfId="801" operator="containsText" priority="1491" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="cellIs" dxfId="800" priority="1483" operator="equal">
+    <cfRule dxfId="800" operator="equal" priority="1483" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="1484" operator="equal">
+    <cfRule dxfId="799" operator="equal" priority="1484" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="1485" operator="equal">
+    <cfRule dxfId="798" operator="equal" priority="1485" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="797" priority="1474" operator="equal">
+    <cfRule dxfId="797" operator="equal" priority="1474" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="1475" operator="equal">
+    <cfRule dxfId="796" operator="equal" priority="1475" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="1476" operator="equal">
+    <cfRule dxfId="795" operator="equal" priority="1476" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="containsText" dxfId="794" priority="1477" operator="containsText" text="Skip:">
+    <cfRule dxfId="794" operator="containsText" priority="1477" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="1478" operator="containsText" text="Fail">
+    <cfRule dxfId="793" operator="containsText" priority="1478" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="1479" operator="containsText" text="Pass">
+    <cfRule dxfId="792" operator="containsText" priority="1479" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="containsText" dxfId="791" priority="1480" operator="containsText" text="Skip:">
+    <cfRule dxfId="791" operator="containsText" priority="1480" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="1481" operator="containsText" text="Fail">
+    <cfRule dxfId="790" operator="containsText" priority="1481" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="1482" operator="containsText" text="Pass">
+    <cfRule dxfId="789" operator="containsText" priority="1482" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="788" priority="1465" operator="equal">
+    <cfRule dxfId="788" operator="equal" priority="1465" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="1466" operator="equal">
+    <cfRule dxfId="787" operator="equal" priority="1466" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="1467" operator="equal">
+    <cfRule dxfId="786" operator="equal" priority="1467" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="containsText" dxfId="785" priority="1468" operator="containsText" text="Skip:">
+    <cfRule dxfId="785" operator="containsText" priority="1468" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="1469" operator="containsText" text="Fail">
+    <cfRule dxfId="784" operator="containsText" priority="1469" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="1470" operator="containsText" text="Pass">
+    <cfRule dxfId="783" operator="containsText" priority="1470" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="containsText" dxfId="782" priority="1471" operator="containsText" text="Skip:">
+    <cfRule dxfId="782" operator="containsText" priority="1471" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="1472" operator="containsText" text="Fail">
+    <cfRule dxfId="781" operator="containsText" priority="1472" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="1473" operator="containsText" text="Pass">
+    <cfRule dxfId="780" operator="containsText" priority="1473" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="779" priority="1462" operator="equal">
+    <cfRule dxfId="779" operator="equal" priority="1462" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="1463" operator="equal">
+    <cfRule dxfId="778" operator="equal" priority="1463" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="1464" operator="equal">
+    <cfRule dxfId="777" operator="equal" priority="1464" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="776" priority="1456" operator="containsText" text="Skip:">
+    <cfRule dxfId="776" operator="containsText" priority="1456" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="1457" operator="containsText" text="Fail">
+    <cfRule dxfId="775" operator="containsText" priority="1457" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="1458" operator="containsText" text="Pass">
+    <cfRule dxfId="774" operator="containsText" priority="1458" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="containsText" dxfId="773" priority="1459" operator="containsText" text="Skip:">
+    <cfRule dxfId="773" operator="containsText" priority="1459" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="772" priority="1460" operator="containsText" text="Fail">
+    <cfRule dxfId="772" operator="containsText" priority="1460" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="1461" operator="containsText" text="Pass">
+    <cfRule dxfId="771" operator="containsText" priority="1461" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="770" priority="1453" operator="equal">
+    <cfRule dxfId="770" operator="equal" priority="1453" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="1454" operator="equal">
+    <cfRule dxfId="769" operator="equal" priority="1454" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="1455" operator="equal">
+    <cfRule dxfId="768" operator="equal" priority="1455" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="containsText" dxfId="767" priority="1447" operator="containsText" text="Skip:">
+    <cfRule dxfId="767" operator="containsText" priority="1447" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="1448" operator="containsText" text="Fail">
+    <cfRule dxfId="766" operator="containsText" priority="1448" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="1449" operator="containsText" text="Pass">
+    <cfRule dxfId="765" operator="containsText" priority="1449" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="containsText" dxfId="764" priority="1450" operator="containsText" text="Skip:">
+    <cfRule dxfId="764" operator="containsText" priority="1450" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="1451" operator="containsText" text="Fail">
+    <cfRule dxfId="763" operator="containsText" priority="1451" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="1452" operator="containsText" text="Pass">
+    <cfRule dxfId="762" operator="containsText" priority="1452" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="761" priority="1444" operator="equal">
+    <cfRule dxfId="761" operator="equal" priority="1444" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="1445" operator="equal">
+    <cfRule dxfId="760" operator="equal" priority="1445" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="1446" operator="equal">
+    <cfRule dxfId="759" operator="equal" priority="1446" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="containsText" dxfId="758" priority="1438" operator="containsText" text="Skip:">
+    <cfRule dxfId="758" operator="containsText" priority="1438" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="1439" operator="containsText" text="Fail">
+    <cfRule dxfId="757" operator="containsText" priority="1439" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="1440" operator="containsText" text="Pass">
+    <cfRule dxfId="756" operator="containsText" priority="1440" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="containsText" dxfId="755" priority="1441" operator="containsText" text="Skip:">
+    <cfRule dxfId="755" operator="containsText" priority="1441" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="1442" operator="containsText" text="Fail">
+    <cfRule dxfId="754" operator="containsText" priority="1442" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="1443" operator="containsText" text="Pass">
+    <cfRule dxfId="753" operator="containsText" priority="1443" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="752" priority="1435" operator="equal">
+    <cfRule dxfId="752" operator="equal" priority="1435" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="1436" operator="equal">
+    <cfRule dxfId="751" operator="equal" priority="1436" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="1437" operator="equal">
+    <cfRule dxfId="750" operator="equal" priority="1437" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="containsText" dxfId="749" priority="1429" operator="containsText" text="Skip:">
+    <cfRule dxfId="749" operator="containsText" priority="1429" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="748" priority="1430" operator="containsText" text="Fail">
+    <cfRule dxfId="748" operator="containsText" priority="1430" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="1431" operator="containsText" text="Pass">
+    <cfRule dxfId="747" operator="containsText" priority="1431" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="containsText" dxfId="746" priority="1432" operator="containsText" text="Skip:">
+    <cfRule dxfId="746" operator="containsText" priority="1432" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="1433" operator="containsText" text="Fail">
+    <cfRule dxfId="745" operator="containsText" priority="1433" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="1434" operator="containsText" text="Pass">
+    <cfRule dxfId="744" operator="containsText" priority="1434" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="743" priority="1426" operator="equal">
+    <cfRule dxfId="743" operator="equal" priority="1426" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="1427" operator="equal">
+    <cfRule dxfId="742" operator="equal" priority="1427" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="1428" operator="equal">
+    <cfRule dxfId="741" operator="equal" priority="1428" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128:D130">
-    <cfRule type="containsText" dxfId="740" priority="1420" operator="containsText" text="Skip:">
+    <cfRule dxfId="740" operator="containsText" priority="1420" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="1421" operator="containsText" text="Fail">
+    <cfRule dxfId="739" operator="containsText" priority="1421" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1422" operator="containsText" text="Pass">
+    <cfRule dxfId="738" operator="containsText" priority="1422" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128:D130">
-    <cfRule type="containsText" dxfId="737" priority="1423" operator="containsText" text="Skip:">
+    <cfRule dxfId="737" operator="containsText" priority="1423" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="1424" operator="containsText" text="Fail">
+    <cfRule dxfId="736" operator="containsText" priority="1424" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="1425" operator="containsText" text="Pass">
+    <cfRule dxfId="735" operator="containsText" priority="1425" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="734" priority="1417" operator="equal">
+    <cfRule dxfId="734" operator="equal" priority="1417" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="1418" operator="equal">
+    <cfRule dxfId="733" operator="equal" priority="1418" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="1419" operator="equal">
+    <cfRule dxfId="732" operator="equal" priority="1419" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="731" priority="1414" operator="equal">
+    <cfRule dxfId="731" operator="equal" priority="1414" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="1415" operator="equal">
+    <cfRule dxfId="730" operator="equal" priority="1415" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="1416" operator="equal">
+    <cfRule dxfId="729" operator="equal" priority="1416" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D248">
-    <cfRule type="containsText" dxfId="728" priority="1399" operator="containsText" text="Skip:">
+    <cfRule dxfId="728" operator="containsText" priority="1399" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="1400" operator="containsText" text="Fail">
+    <cfRule dxfId="727" operator="containsText" priority="1400" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="1401" operator="containsText" text="Pass">
+    <cfRule dxfId="726" operator="containsText" priority="1401" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D248">
-    <cfRule type="containsText" dxfId="725" priority="1402" operator="containsText" text="Skip:">
+    <cfRule dxfId="725" operator="containsText" priority="1402" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="1403" operator="containsText" text="Fail">
+    <cfRule dxfId="724" operator="containsText" priority="1403" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="1404" operator="containsText" text="Pass">
+    <cfRule dxfId="723" operator="containsText" priority="1404" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="cellIs" dxfId="722" priority="1396" operator="equal">
+    <cfRule dxfId="722" operator="equal" priority="1396" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="1397" operator="equal">
+    <cfRule dxfId="721" operator="equal" priority="1397" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="1398" operator="equal">
+    <cfRule dxfId="720" operator="equal" priority="1398" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="containsText" dxfId="719" priority="1390" operator="containsText" text="Skip:">
+    <cfRule dxfId="719" operator="containsText" priority="1390" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="1391" operator="containsText" text="Fail">
+    <cfRule dxfId="718" operator="containsText" priority="1391" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="1392" operator="containsText" text="Pass">
+    <cfRule dxfId="717" operator="containsText" priority="1392" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D249">
-    <cfRule type="containsText" dxfId="716" priority="1393" operator="containsText" text="Skip:">
+    <cfRule dxfId="716" operator="containsText" priority="1393" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="1394" operator="containsText" text="Fail">
+    <cfRule dxfId="715" operator="containsText" priority="1394" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="1395" operator="containsText" text="Pass">
+    <cfRule dxfId="714" operator="containsText" priority="1395" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="cellIs" dxfId="713" priority="1387" operator="equal">
+    <cfRule dxfId="713" operator="equal" priority="1387" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="1388" operator="equal">
+    <cfRule dxfId="712" operator="equal" priority="1388" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="1389" operator="equal">
+    <cfRule dxfId="711" operator="equal" priority="1389" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="710" priority="1378" operator="equal">
+    <cfRule dxfId="710" operator="equal" priority="1378" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="1379" operator="equal">
+    <cfRule dxfId="709" operator="equal" priority="1379" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="1380" operator="equal">
+    <cfRule dxfId="708" operator="equal" priority="1380" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D250">
-    <cfRule type="containsText" dxfId="707" priority="1357" operator="containsText" text="Skip:">
+    <cfRule dxfId="707" operator="containsText" priority="1357" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="1358" operator="containsText" text="Fail">
+    <cfRule dxfId="706" operator="containsText" priority="1358" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="1359" operator="containsText" text="Pass">
+    <cfRule dxfId="705" operator="containsText" priority="1359" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D250">
-    <cfRule type="containsText" dxfId="704" priority="1360" operator="containsText" text="Skip:">
+    <cfRule dxfId="704" operator="containsText" priority="1360" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="703" priority="1361" operator="containsText" text="Fail">
+    <cfRule dxfId="703" operator="containsText" priority="1361" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="1362" operator="containsText" text="Pass">
+    <cfRule dxfId="702" operator="containsText" priority="1362" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E250">
-    <cfRule type="cellIs" dxfId="701" priority="1354" operator="equal">
+    <cfRule dxfId="701" operator="equal" priority="1354" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="1355" operator="equal">
+    <cfRule dxfId="700" operator="equal" priority="1355" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="1356" operator="equal">
+    <cfRule dxfId="699" operator="equal" priority="1356" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D251">
-    <cfRule type="containsText" dxfId="698" priority="1348" operator="containsText" text="Skip:">
+    <cfRule dxfId="698" operator="containsText" priority="1348" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="1349" operator="containsText" text="Fail">
+    <cfRule dxfId="697" operator="containsText" priority="1349" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="1350" operator="containsText" text="Pass">
+    <cfRule dxfId="696" operator="containsText" priority="1350" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D251">
-    <cfRule type="containsText" dxfId="695" priority="1351" operator="containsText" text="Skip:">
+    <cfRule dxfId="695" operator="containsText" priority="1351" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="1352" operator="containsText" text="Fail">
+    <cfRule dxfId="694" operator="containsText" priority="1352" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1353" operator="containsText" text="Pass">
+    <cfRule dxfId="693" operator="containsText" priority="1353" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E251">
-    <cfRule type="cellIs" dxfId="692" priority="1345" operator="equal">
+    <cfRule dxfId="692" operator="equal" priority="1345" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="1346" operator="equal">
+    <cfRule dxfId="691" operator="equal" priority="1346" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="1347" operator="equal">
+    <cfRule dxfId="690" operator="equal" priority="1347" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D252">
-    <cfRule type="containsText" dxfId="689" priority="1252" operator="containsText" text="Skip:">
+    <cfRule dxfId="689" operator="containsText" priority="1252" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1253" operator="containsText" text="Fail">
+    <cfRule dxfId="688" operator="containsText" priority="1253" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="1254" operator="containsText" text="Pass">
+    <cfRule dxfId="687" operator="containsText" priority="1254" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D252">
-    <cfRule type="containsText" dxfId="686" priority="1255" operator="containsText" text="Skip:">
+    <cfRule dxfId="686" operator="containsText" priority="1255" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1256" operator="containsText" text="Fail">
+    <cfRule dxfId="685" operator="containsText" priority="1256" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1257" operator="containsText" text="Pass">
+    <cfRule dxfId="684" operator="containsText" priority="1257" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E252">
-    <cfRule type="cellIs" dxfId="683" priority="1249" operator="equal">
+    <cfRule dxfId="683" operator="equal" priority="1249" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="1250" operator="equal">
+    <cfRule dxfId="682" operator="equal" priority="1250" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="1251" operator="equal">
+    <cfRule dxfId="681" operator="equal" priority="1251" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253">
-    <cfRule type="containsText" dxfId="680" priority="1243" operator="containsText" text="Skip:">
+    <cfRule dxfId="680" operator="containsText" priority="1243" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="1244" operator="containsText" text="Fail">
+    <cfRule dxfId="679" operator="containsText" priority="1244" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="1245" operator="containsText" text="Pass">
+    <cfRule dxfId="678" operator="containsText" priority="1245" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253">
-    <cfRule type="containsText" dxfId="677" priority="1246" operator="containsText" text="Skip:">
+    <cfRule dxfId="677" operator="containsText" priority="1246" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1247" operator="containsText" text="Fail">
+    <cfRule dxfId="676" operator="containsText" priority="1247" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="1248" operator="containsText" text="Pass">
+    <cfRule dxfId="675" operator="containsText" priority="1248" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E253">
-    <cfRule type="cellIs" dxfId="674" priority="1240" operator="equal">
+    <cfRule dxfId="674" operator="equal" priority="1240" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="1241" operator="equal">
+    <cfRule dxfId="673" operator="equal" priority="1241" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="1242" operator="equal">
+    <cfRule dxfId="672" operator="equal" priority="1242" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D254">
-    <cfRule type="containsText" dxfId="671" priority="1234" operator="containsText" text="Skip:">
+    <cfRule dxfId="671" operator="containsText" priority="1234" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="1235" operator="containsText" text="Fail">
+    <cfRule dxfId="670" operator="containsText" priority="1235" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="1236" operator="containsText" text="Pass">
+    <cfRule dxfId="669" operator="containsText" priority="1236" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D254">
-    <cfRule type="containsText" dxfId="668" priority="1237" operator="containsText" text="Skip:">
+    <cfRule dxfId="668" operator="containsText" priority="1237" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="1238" operator="containsText" text="Fail">
+    <cfRule dxfId="667" operator="containsText" priority="1238" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="1239" operator="containsText" text="Pass">
+    <cfRule dxfId="666" operator="containsText" priority="1239" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254">
-    <cfRule type="cellIs" dxfId="665" priority="1231" operator="equal">
+    <cfRule dxfId="665" operator="equal" priority="1231" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="1232" operator="equal">
+    <cfRule dxfId="664" operator="equal" priority="1232" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="1233" operator="equal">
+    <cfRule dxfId="663" operator="equal" priority="1233" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D255">
-    <cfRule type="containsText" dxfId="662" priority="1225" operator="containsText" text="Skip:">
+    <cfRule dxfId="662" operator="containsText" priority="1225" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="1226" operator="containsText" text="Fail">
+    <cfRule dxfId="661" operator="containsText" priority="1226" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1227" operator="containsText" text="Pass">
+    <cfRule dxfId="660" operator="containsText" priority="1227" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D255">
-    <cfRule type="containsText" dxfId="659" priority="1228" operator="containsText" text="Skip:">
+    <cfRule dxfId="659" operator="containsText" priority="1228" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="1229" operator="containsText" text="Fail">
+    <cfRule dxfId="658" operator="containsText" priority="1229" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="1230" operator="containsText" text="Pass">
+    <cfRule dxfId="657" operator="containsText" priority="1230" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255">
-    <cfRule type="cellIs" dxfId="656" priority="1222" operator="equal">
+    <cfRule dxfId="656" operator="equal" priority="1222" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="1223" operator="equal">
+    <cfRule dxfId="655" operator="equal" priority="1223" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="1224" operator="equal">
+    <cfRule dxfId="654" operator="equal" priority="1224" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D256">
-    <cfRule type="containsText" dxfId="653" priority="1216" operator="containsText" text="Skip:">
+    <cfRule dxfId="653" operator="containsText" priority="1216" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1217" operator="containsText" text="Fail">
+    <cfRule dxfId="652" operator="containsText" priority="1217" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1218" operator="containsText" text="Pass">
+    <cfRule dxfId="651" operator="containsText" priority="1218" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D256">
-    <cfRule type="containsText" dxfId="650" priority="1219" operator="containsText" text="Skip:">
+    <cfRule dxfId="650" operator="containsText" priority="1219" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="1220" operator="containsText" text="Fail">
+    <cfRule dxfId="649" operator="containsText" priority="1220" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1221" operator="containsText" text="Pass">
+    <cfRule dxfId="648" operator="containsText" priority="1221" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E256">
-    <cfRule type="cellIs" dxfId="647" priority="1213" operator="equal">
+    <cfRule dxfId="647" operator="equal" priority="1213" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="1214" operator="equal">
+    <cfRule dxfId="646" operator="equal" priority="1214" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="1215" operator="equal">
+    <cfRule dxfId="645" operator="equal" priority="1215" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="containsText" dxfId="644" priority="1207" operator="containsText" text="Skip:">
+    <cfRule dxfId="644" operator="containsText" priority="1207" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1208" operator="containsText" text="Fail">
+    <cfRule dxfId="643" operator="containsText" priority="1208" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="1209" operator="containsText" text="Pass">
+    <cfRule dxfId="642" operator="containsText" priority="1209" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="containsText" dxfId="641" priority="1210" operator="containsText" text="Skip:">
+    <cfRule dxfId="641" operator="containsText" priority="1210" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="1211" operator="containsText" text="Fail">
+    <cfRule dxfId="640" operator="containsText" priority="1211" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1212" operator="containsText" text="Pass">
+    <cfRule dxfId="639" operator="containsText" priority="1212" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E257">
-    <cfRule type="cellIs" dxfId="638" priority="1204" operator="equal">
+    <cfRule dxfId="638" operator="equal" priority="1204" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="1205" operator="equal">
+    <cfRule dxfId="637" operator="equal" priority="1205" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="1206" operator="equal">
+    <cfRule dxfId="636" operator="equal" priority="1206" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E74">
-    <cfRule type="cellIs" dxfId="635" priority="976" operator="equal">
+    <cfRule dxfId="635" operator="equal" priority="976" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="977" operator="equal">
+    <cfRule dxfId="634" operator="equal" priority="977" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="978" operator="equal">
+    <cfRule dxfId="633" operator="equal" priority="978" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D74">
-    <cfRule type="containsText" dxfId="632" priority="979" operator="containsText" text="Skip:">
+    <cfRule dxfId="632" operator="containsText" priority="979" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="980" operator="containsText" text="Fail">
+    <cfRule dxfId="631" operator="containsText" priority="980" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="981" operator="containsText" text="Pass">
+    <cfRule dxfId="630" operator="containsText" priority="981" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D74">
-    <cfRule type="containsText" dxfId="629" priority="982" operator="containsText" text="Skip:">
+    <cfRule dxfId="629" operator="containsText" priority="982" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="983" operator="containsText" text="Fail">
+    <cfRule dxfId="628" operator="containsText" priority="983" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="984" operator="containsText" text="Pass">
+    <cfRule dxfId="627" operator="containsText" priority="984" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D78">
-    <cfRule type="containsText" dxfId="626" priority="754" operator="containsText" text="Skip:">
+    <cfRule dxfId="626" operator="containsText" priority="754" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="755" operator="containsText" text="Fail">
+    <cfRule dxfId="625" operator="containsText" priority="755" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="756" operator="containsText" text="Pass">
+    <cfRule dxfId="624" operator="containsText" priority="756" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D78">
-    <cfRule type="containsText" dxfId="623" priority="757" operator="containsText" text="Skip:">
+    <cfRule dxfId="623" operator="containsText" priority="757" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="758" operator="containsText" text="Fail">
+    <cfRule dxfId="622" operator="containsText" priority="758" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="759" operator="containsText" text="Pass">
+    <cfRule dxfId="621" operator="containsText" priority="759" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="containsText" dxfId="620" priority="745" operator="containsText" text="Skip:">
+    <cfRule dxfId="620" operator="containsText" priority="745" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="746" operator="containsText" text="Fail">
+    <cfRule dxfId="619" operator="containsText" priority="746" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="747" operator="containsText" text="Pass">
+    <cfRule dxfId="618" operator="containsText" priority="747" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="containsText" dxfId="617" priority="748" operator="containsText" text="Skip:">
+    <cfRule dxfId="617" operator="containsText" priority="748" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="749" operator="containsText" text="Fail">
+    <cfRule dxfId="616" operator="containsText" priority="749" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="750" operator="containsText" text="Pass">
+    <cfRule dxfId="615" operator="containsText" priority="750" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258">
-    <cfRule type="containsText" dxfId="614" priority="739" operator="containsText" text="Skip:">
+    <cfRule dxfId="614" operator="containsText" priority="739" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="740" operator="containsText" text="Fail">
+    <cfRule dxfId="613" operator="containsText" priority="740" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="741" operator="containsText" text="Pass">
+    <cfRule dxfId="612" operator="containsText" priority="741" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258">
-    <cfRule type="containsText" dxfId="611" priority="742" operator="containsText" text="Skip:">
+    <cfRule dxfId="611" operator="containsText" priority="742" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="743" operator="containsText" text="Fail">
+    <cfRule dxfId="610" operator="containsText" priority="743" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="609" priority="744" operator="containsText" text="Pass">
+    <cfRule dxfId="609" operator="containsText" priority="744" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E258">
-    <cfRule type="cellIs" dxfId="608" priority="736" operator="equal">
+    <cfRule dxfId="608" operator="equal" priority="736" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="737" operator="equal">
+    <cfRule dxfId="607" operator="equal" priority="737" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="738" operator="equal">
+    <cfRule dxfId="606" operator="equal" priority="738" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259">
-    <cfRule type="containsText" dxfId="605" priority="730" operator="containsText" text="Skip:">
+    <cfRule dxfId="605" operator="containsText" priority="730" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="731" operator="containsText" text="Fail">
+    <cfRule dxfId="604" operator="containsText" priority="731" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="732" operator="containsText" text="Pass">
+    <cfRule dxfId="603" operator="containsText" priority="732" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259">
-    <cfRule type="containsText" dxfId="602" priority="733" operator="containsText" text="Skip:">
+    <cfRule dxfId="602" operator="containsText" priority="733" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="734" operator="containsText" text="Fail">
+    <cfRule dxfId="601" operator="containsText" priority="734" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="735" operator="containsText" text="Pass">
+    <cfRule dxfId="600" operator="containsText" priority="735" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E259">
-    <cfRule type="cellIs" dxfId="599" priority="727" operator="equal">
+    <cfRule dxfId="599" operator="equal" priority="727" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="728" operator="equal">
+    <cfRule dxfId="598" operator="equal" priority="728" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="729" operator="equal">
+    <cfRule dxfId="597" operator="equal" priority="729" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="596" priority="520" operator="equal">
+    <cfRule dxfId="596" operator="equal" priority="520" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="521" operator="equal">
+    <cfRule dxfId="595" operator="equal" priority="521" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="522" operator="equal">
+    <cfRule dxfId="594" operator="equal" priority="522" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:D141 D143">
-    <cfRule type="containsText" dxfId="593" priority="610" operator="containsText" text="Skip:">
+    <cfRule dxfId="593" operator="containsText" priority="610" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="611" operator="containsText" text="Fail">
+    <cfRule dxfId="592" operator="containsText" priority="611" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="612" operator="containsText" text="Pass">
+    <cfRule dxfId="591" operator="containsText" priority="612" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:E133">
-    <cfRule type="cellIs" dxfId="590" priority="604" operator="equal">
+    <cfRule dxfId="590" operator="equal" priority="604" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="605" operator="equal">
+    <cfRule dxfId="589" operator="equal" priority="605" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="606" operator="equal">
+    <cfRule dxfId="588" operator="equal" priority="606" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132:D133">
-    <cfRule type="containsText" dxfId="587" priority="607" operator="containsText" text="Skip:">
+    <cfRule dxfId="587" operator="containsText" priority="607" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="608" operator="containsText" text="Fail">
+    <cfRule dxfId="586" operator="containsText" priority="608" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="609" operator="containsText" text="Pass">
+    <cfRule dxfId="585" operator="containsText" priority="609" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="584" priority="592" operator="equal">
+    <cfRule dxfId="584" operator="equal" priority="592" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="593" operator="equal">
+    <cfRule dxfId="583" operator="equal" priority="593" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="594" operator="equal">
+    <cfRule dxfId="582" operator="equal" priority="594" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="containsText" dxfId="581" priority="598" operator="containsText" text="Skip:">
+    <cfRule dxfId="581" operator="containsText" priority="598" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="599" operator="containsText" text="Fail">
+    <cfRule dxfId="580" operator="containsText" priority="599" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="600" operator="containsText" text="Pass">
+    <cfRule dxfId="579" operator="containsText" priority="600" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="containsText" dxfId="578" priority="601" operator="containsText" text="Skip:">
+    <cfRule dxfId="578" operator="containsText" priority="601" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="602" operator="containsText" text="Fail">
+    <cfRule dxfId="577" operator="containsText" priority="602" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="603" operator="containsText" text="Pass">
+    <cfRule dxfId="576" operator="containsText" priority="603" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="575" priority="595" operator="equal">
+    <cfRule dxfId="575" operator="equal" priority="595" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="596" operator="equal">
+    <cfRule dxfId="574" operator="equal" priority="596" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="597" operator="equal">
+    <cfRule dxfId="573" operator="equal" priority="597" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="572" priority="589" operator="equal">
+    <cfRule dxfId="572" operator="equal" priority="589" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="590" operator="equal">
+    <cfRule dxfId="571" operator="equal" priority="590" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="591" operator="equal">
+    <cfRule dxfId="570" operator="equal" priority="591" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="containsText" dxfId="569" priority="583" operator="containsText" text="Skip:">
+    <cfRule dxfId="569" operator="containsText" priority="583" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="584" operator="containsText" text="Fail">
+    <cfRule dxfId="568" operator="containsText" priority="584" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="585" operator="containsText" text="Pass">
+    <cfRule dxfId="567" operator="containsText" priority="585" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="containsText" dxfId="566" priority="586" operator="containsText" text="Skip:">
+    <cfRule dxfId="566" operator="containsText" priority="586" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="587" operator="containsText" text="Fail">
+    <cfRule dxfId="565" operator="containsText" priority="587" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="588" operator="containsText" text="Pass">
+    <cfRule dxfId="564" operator="containsText" priority="588" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="563" priority="580" operator="equal">
+    <cfRule dxfId="563" operator="equal" priority="580" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="581" operator="equal">
+    <cfRule dxfId="562" operator="equal" priority="581" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="582" operator="equal">
+    <cfRule dxfId="561" operator="equal" priority="582" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="560" priority="577" operator="equal">
+    <cfRule dxfId="560" operator="equal" priority="577" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="578" operator="equal">
+    <cfRule dxfId="559" operator="equal" priority="578" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="579" operator="equal">
+    <cfRule dxfId="558" operator="equal" priority="579" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="557" priority="574" operator="equal">
+    <cfRule dxfId="557" operator="equal" priority="574" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="575" operator="equal">
+    <cfRule dxfId="556" operator="equal" priority="575" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="576" operator="equal">
+    <cfRule dxfId="555" operator="equal" priority="576" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E141">
-    <cfRule type="cellIs" dxfId="554" priority="571" operator="equal">
+    <cfRule dxfId="554" operator="equal" priority="571" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="572" operator="equal">
+    <cfRule dxfId="553" operator="equal" priority="572" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="573" operator="equal">
+    <cfRule dxfId="552" operator="equal" priority="573" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="551" priority="568" operator="equal">
+    <cfRule dxfId="551" operator="equal" priority="568" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="569" operator="equal">
+    <cfRule dxfId="550" operator="equal" priority="569" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="570" operator="equal">
+    <cfRule dxfId="549" operator="equal" priority="570" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142">
-    <cfRule type="containsText" dxfId="548" priority="565" operator="containsText" text="Skip:">
+    <cfRule dxfId="548" operator="containsText" priority="565" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="566" operator="containsText" text="Fail">
+    <cfRule dxfId="547" operator="containsText" priority="566" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="567" operator="containsText" text="Pass">
+    <cfRule dxfId="546" operator="containsText" priority="567" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="545" priority="562" operator="equal">
+    <cfRule dxfId="545" operator="equal" priority="562" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="563" operator="equal">
+    <cfRule dxfId="544" operator="equal" priority="563" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="564" operator="equal">
+    <cfRule dxfId="543" operator="equal" priority="564" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D145">
-    <cfRule type="containsText" dxfId="542" priority="559" operator="containsText" text="Skip:">
+    <cfRule dxfId="542" operator="containsText" priority="559" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="560" operator="containsText" text="Fail">
+    <cfRule dxfId="541" operator="containsText" priority="560" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="561" operator="containsText" text="Pass">
+    <cfRule dxfId="540" operator="containsText" priority="561" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="539" priority="556" operator="equal">
+    <cfRule dxfId="539" operator="equal" priority="556" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="557" operator="equal">
+    <cfRule dxfId="538" operator="equal" priority="557" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="558" operator="equal">
+    <cfRule dxfId="537" operator="equal" priority="558" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="cellIs" dxfId="536" priority="553" operator="equal">
+    <cfRule dxfId="536" operator="equal" priority="553" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="554" operator="equal">
+    <cfRule dxfId="535" operator="equal" priority="554" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="555" operator="equal">
+    <cfRule dxfId="534" operator="equal" priority="555" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="containsText" dxfId="533" priority="550" operator="containsText" text="Skip:">
+    <cfRule dxfId="533" operator="containsText" priority="550" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="551" operator="containsText" text="Fail">
+    <cfRule dxfId="532" operator="containsText" priority="551" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="552" operator="containsText" text="Pass">
+    <cfRule dxfId="531" operator="containsText" priority="552" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="cellIs" dxfId="530" priority="547" operator="equal">
+    <cfRule dxfId="530" operator="equal" priority="547" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="548" operator="equal">
+    <cfRule dxfId="529" operator="equal" priority="548" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="549" operator="equal">
+    <cfRule dxfId="528" operator="equal" priority="549" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147:D150">
-    <cfRule type="containsText" dxfId="527" priority="544" operator="containsText" text="Skip:">
+    <cfRule dxfId="527" operator="containsText" priority="544" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="545" operator="containsText" text="Fail">
+    <cfRule dxfId="526" operator="containsText" priority="545" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="546" operator="containsText" text="Pass">
+    <cfRule dxfId="525" operator="containsText" priority="546" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="524" priority="541" operator="equal">
+    <cfRule dxfId="524" operator="equal" priority="541" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="542" operator="equal">
+    <cfRule dxfId="523" operator="equal" priority="542" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="543" operator="equal">
+    <cfRule dxfId="522" operator="equal" priority="543" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148:E150">
-    <cfRule type="cellIs" dxfId="521" priority="538" operator="equal">
+    <cfRule dxfId="521" operator="equal" priority="538" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="539" operator="equal">
+    <cfRule dxfId="520" operator="equal" priority="539" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="540" operator="equal">
+    <cfRule dxfId="519" operator="equal" priority="540" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="containsText" dxfId="518" priority="535" operator="containsText" text="Skip:">
+    <cfRule dxfId="518" operator="containsText" priority="535" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="536" operator="containsText" text="Fail">
+    <cfRule dxfId="517" operator="containsText" priority="536" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="537" operator="containsText" text="Pass">
+    <cfRule dxfId="516" operator="containsText" priority="537" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="515" priority="532" operator="equal">
+    <cfRule dxfId="515" operator="equal" priority="532" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="533" operator="equal">
+    <cfRule dxfId="514" operator="equal" priority="533" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="534" operator="equal">
+    <cfRule dxfId="513" operator="equal" priority="534" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="containsText" dxfId="512" priority="529" operator="containsText" text="Skip:">
+    <cfRule dxfId="512" operator="containsText" priority="529" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="530" operator="containsText" text="Fail">
+    <cfRule dxfId="511" operator="containsText" priority="530" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="531" operator="containsText" text="Pass">
+    <cfRule dxfId="510" operator="containsText" priority="531" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="509" priority="526" operator="equal">
+    <cfRule dxfId="509" operator="equal" priority="526" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="527" operator="equal">
+    <cfRule dxfId="508" operator="equal" priority="527" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="528" operator="equal">
+    <cfRule dxfId="507" operator="equal" priority="528" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152">
-    <cfRule type="containsText" dxfId="506" priority="523" operator="containsText" text="Skip:">
+    <cfRule dxfId="506" operator="containsText" priority="523" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="524" operator="containsText" text="Fail">
+    <cfRule dxfId="505" operator="containsText" priority="524" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="525" operator="containsText" text="Pass">
+    <cfRule dxfId="504" operator="containsText" priority="525" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="503" priority="508" operator="equal">
+    <cfRule dxfId="503" operator="equal" priority="508" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="509" operator="equal">
+    <cfRule dxfId="502" operator="equal" priority="509" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="510" operator="equal">
+    <cfRule dxfId="501" operator="equal" priority="510" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="containsText" dxfId="500" priority="517" operator="containsText" text="Skip:">
+    <cfRule dxfId="500" operator="containsText" priority="517" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="518" operator="containsText" text="Fail">
+    <cfRule dxfId="499" operator="containsText" priority="518" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="519" operator="containsText" text="Pass">
+    <cfRule dxfId="498" operator="containsText" priority="519" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="497" priority="514" operator="equal">
+    <cfRule dxfId="497" operator="equal" priority="514" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="515" operator="equal">
+    <cfRule dxfId="496" operator="equal" priority="515" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="516" operator="equal">
+    <cfRule dxfId="495" operator="equal" priority="516" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="containsText" dxfId="494" priority="511" operator="containsText" text="Skip:">
+    <cfRule dxfId="494" operator="containsText" priority="511" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="512" operator="containsText" text="Fail">
+    <cfRule dxfId="493" operator="containsText" priority="512" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="513" operator="containsText" text="Pass">
+    <cfRule dxfId="492" operator="containsText" priority="513" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="491" priority="496" operator="equal">
+    <cfRule dxfId="491" operator="equal" priority="496" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="497" operator="equal">
+    <cfRule dxfId="490" operator="equal" priority="497" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="498" operator="equal">
+    <cfRule dxfId="489" operator="equal" priority="498" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="containsText" dxfId="488" priority="505" operator="containsText" text="Skip:">
+    <cfRule dxfId="488" operator="containsText" priority="505" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="506" operator="containsText" text="Fail">
+    <cfRule dxfId="487" operator="containsText" priority="506" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="507" operator="containsText" text="Pass">
+    <cfRule dxfId="486" operator="containsText" priority="507" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="485" priority="502" operator="equal">
+    <cfRule dxfId="485" operator="equal" priority="502" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="503" operator="equal">
+    <cfRule dxfId="484" operator="equal" priority="503" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="504" operator="equal">
+    <cfRule dxfId="483" operator="equal" priority="504" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D157">
-    <cfRule type="containsText" dxfId="482" priority="499" operator="containsText" text="Skip:">
+    <cfRule dxfId="482" operator="containsText" priority="499" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="500" operator="containsText" text="Fail">
+    <cfRule dxfId="481" operator="containsText" priority="500" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="501" operator="containsText" text="Pass">
+    <cfRule dxfId="480" operator="containsText" priority="501" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159:D161">
-    <cfRule type="containsText" dxfId="479" priority="493" operator="containsText" text="Skip:">
+    <cfRule dxfId="479" operator="containsText" priority="493" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="494" operator="containsText" text="Fail">
+    <cfRule dxfId="478" operator="containsText" priority="494" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="495" operator="containsText" text="Pass">
+    <cfRule dxfId="477" operator="containsText" priority="495" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="476" priority="490" operator="equal">
+    <cfRule dxfId="476" operator="equal" priority="490" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="491" operator="equal">
+    <cfRule dxfId="475" operator="equal" priority="491" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="492" operator="equal">
+    <cfRule dxfId="474" operator="equal" priority="492" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="473" priority="484" operator="equal">
+    <cfRule dxfId="473" operator="equal" priority="484" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="485" operator="equal">
+    <cfRule dxfId="472" operator="equal" priority="485" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="486" operator="equal">
+    <cfRule dxfId="471" operator="equal" priority="486" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="470" priority="487" operator="equal">
+    <cfRule dxfId="470" operator="equal" priority="487" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="488" operator="equal">
+    <cfRule dxfId="469" operator="equal" priority="488" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="489" operator="equal">
+    <cfRule dxfId="468" operator="equal" priority="489" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:D163">
-    <cfRule type="containsText" dxfId="467" priority="481" operator="containsText" text="Skip:">
+    <cfRule dxfId="467" operator="containsText" priority="481" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="482" operator="containsText" text="Fail">
+    <cfRule dxfId="466" operator="containsText" priority="482" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="483" operator="containsText" text="Pass">
+    <cfRule dxfId="465" operator="containsText" priority="483" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="464" priority="475" operator="equal">
+    <cfRule dxfId="464" operator="equal" priority="475" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="476" operator="equal">
+    <cfRule dxfId="463" operator="equal" priority="476" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="477" operator="equal">
+    <cfRule dxfId="462" operator="equal" priority="477" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="461" priority="478" operator="equal">
+    <cfRule dxfId="461" operator="equal" priority="478" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="479" operator="equal">
+    <cfRule dxfId="460" operator="equal" priority="479" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="480" operator="equal">
+    <cfRule dxfId="459" operator="equal" priority="480" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164">
-    <cfRule type="containsText" dxfId="458" priority="472" operator="containsText" text="Skip:">
+    <cfRule dxfId="458" operator="containsText" priority="472" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="473" operator="containsText" text="Fail">
+    <cfRule dxfId="457" operator="containsText" priority="473" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="474" operator="containsText" text="Pass">
+    <cfRule dxfId="456" operator="containsText" priority="474" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="455" priority="469" operator="equal">
+    <cfRule dxfId="455" operator="equal" priority="469" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="470" operator="equal">
+    <cfRule dxfId="454" operator="equal" priority="470" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="471" operator="equal">
+    <cfRule dxfId="453" operator="equal" priority="471" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D165">
-    <cfRule type="containsText" dxfId="452" priority="466" operator="containsText" text="Skip:">
+    <cfRule dxfId="452" operator="containsText" priority="466" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="467" operator="containsText" text="Fail">
+    <cfRule dxfId="451" operator="containsText" priority="467" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="468" operator="containsText" text="Pass">
+    <cfRule dxfId="450" operator="containsText" priority="468" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="449" priority="463" operator="equal">
+    <cfRule dxfId="449" operator="equal" priority="463" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="464" operator="equal">
+    <cfRule dxfId="448" operator="equal" priority="464" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="465" operator="equal">
+    <cfRule dxfId="447" operator="equal" priority="465" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166">
-    <cfRule type="containsText" dxfId="446" priority="460" operator="containsText" text="Skip:">
+    <cfRule dxfId="446" operator="containsText" priority="460" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="461" operator="containsText" text="Fail">
+    <cfRule dxfId="445" operator="containsText" priority="461" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="462" operator="containsText" text="Pass">
+    <cfRule dxfId="444" operator="containsText" priority="462" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="cellIs" dxfId="443" priority="457" operator="equal">
+    <cfRule dxfId="443" operator="equal" priority="457" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="458" operator="equal">
+    <cfRule dxfId="442" operator="equal" priority="458" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="459" operator="equal">
+    <cfRule dxfId="441" operator="equal" priority="459" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167">
-    <cfRule type="containsText" dxfId="440" priority="454" operator="containsText" text="Skip:">
+    <cfRule dxfId="440" operator="containsText" priority="454" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="455" operator="containsText" text="Fail">
+    <cfRule dxfId="439" operator="containsText" priority="455" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="456" operator="containsText" text="Pass">
+    <cfRule dxfId="438" operator="containsText" priority="456" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="cellIs" dxfId="437" priority="451" operator="equal">
+    <cfRule dxfId="437" operator="equal" priority="451" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="452" operator="equal">
+    <cfRule dxfId="436" operator="equal" priority="452" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="453" operator="equal">
+    <cfRule dxfId="435" operator="equal" priority="453" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="containsText" dxfId="434" priority="448" operator="containsText" text="Skip:">
+    <cfRule dxfId="434" operator="containsText" priority="448" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="449" operator="containsText" text="Fail">
+    <cfRule dxfId="433" operator="containsText" priority="449" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="450" operator="containsText" text="Pass">
+    <cfRule dxfId="432" operator="containsText" priority="450" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="431" priority="445" operator="equal">
+    <cfRule dxfId="431" operator="equal" priority="445" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="446" operator="equal">
+    <cfRule dxfId="430" operator="equal" priority="446" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="447" operator="equal">
+    <cfRule dxfId="429" operator="equal" priority="447" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="containsText" dxfId="428" priority="442" operator="containsText" text="Skip:">
+    <cfRule dxfId="428" operator="containsText" priority="442" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D169)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="443" operator="containsText" text="Fail">
+    <cfRule dxfId="427" operator="containsText" priority="443" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D169)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="444" operator="containsText" text="Pass">
+    <cfRule dxfId="426" operator="containsText" priority="444" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169">
-    <cfRule type="cellIs" dxfId="425" priority="439" operator="equal">
+    <cfRule dxfId="425" operator="equal" priority="439" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="440" operator="equal">
+    <cfRule dxfId="424" operator="equal" priority="440" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="441" operator="equal">
+    <cfRule dxfId="423" operator="equal" priority="441" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="containsText" dxfId="422" priority="436" operator="containsText" text="Skip:">
+    <cfRule dxfId="422" operator="containsText" priority="436" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="437" operator="containsText" text="Fail">
+    <cfRule dxfId="421" operator="containsText" priority="437" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D170)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="438" operator="containsText" text="Pass">
+    <cfRule dxfId="420" operator="containsText" priority="438" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="419" priority="433" operator="equal">
+    <cfRule dxfId="419" operator="equal" priority="433" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="434" operator="equal">
+    <cfRule dxfId="418" operator="equal" priority="434" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="435" operator="equal">
+    <cfRule dxfId="417" operator="equal" priority="435" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171">
-    <cfRule type="containsText" dxfId="416" priority="430" operator="containsText" text="Skip:">
+    <cfRule dxfId="416" operator="containsText" priority="430" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="431" operator="containsText" text="Fail">
+    <cfRule dxfId="415" operator="containsText" priority="431" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="432" operator="containsText" text="Pass">
+    <cfRule dxfId="414" operator="containsText" priority="432" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="413" priority="427" operator="equal">
+    <cfRule dxfId="413" operator="equal" priority="427" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="428" operator="equal">
+    <cfRule dxfId="412" operator="equal" priority="428" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="429" operator="equal">
+    <cfRule dxfId="411" operator="equal" priority="429" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172">
-    <cfRule type="containsText" dxfId="410" priority="424" operator="containsText" text="Skip:">
+    <cfRule dxfId="410" operator="containsText" priority="424" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="425" operator="containsText" text="Fail">
+    <cfRule dxfId="409" operator="containsText" priority="425" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="426" operator="containsText" text="Pass">
+    <cfRule dxfId="408" operator="containsText" priority="426" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="407" priority="421" operator="equal">
+    <cfRule dxfId="407" operator="equal" priority="421" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="422" operator="equal">
+    <cfRule dxfId="406" operator="equal" priority="422" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="423" operator="equal">
+    <cfRule dxfId="405" operator="equal" priority="423" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="containsText" dxfId="404" priority="418" operator="containsText" text="Skip:">
+    <cfRule dxfId="404" operator="containsText" priority="418" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="403" priority="419" operator="containsText" text="Fail">
+    <cfRule dxfId="403" operator="containsText" priority="419" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="420" operator="containsText" text="Pass">
+    <cfRule dxfId="402" operator="containsText" priority="420" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="401" priority="415" operator="equal">
+    <cfRule dxfId="401" operator="equal" priority="415" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="416" operator="equal">
+    <cfRule dxfId="400" operator="equal" priority="416" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="417" operator="equal">
+    <cfRule dxfId="399" operator="equal" priority="417" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174">
-    <cfRule type="containsText" dxfId="398" priority="412" operator="containsText" text="Skip:">
+    <cfRule dxfId="398" operator="containsText" priority="412" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="413" operator="containsText" text="Fail">
+    <cfRule dxfId="397" operator="containsText" priority="413" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D174)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="414" operator="containsText" text="Pass">
+    <cfRule dxfId="396" operator="containsText" priority="414" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="395" priority="409" operator="equal">
+    <cfRule dxfId="395" operator="equal" priority="409" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="410" operator="equal">
+    <cfRule dxfId="394" operator="equal" priority="410" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="411" operator="equal">
+    <cfRule dxfId="393" operator="equal" priority="411" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175:D176">
-    <cfRule type="containsText" dxfId="392" priority="406" operator="containsText" text="Skip:">
+    <cfRule dxfId="392" operator="containsText" priority="406" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="407" operator="containsText" text="Fail">
+    <cfRule dxfId="391" operator="containsText" priority="407" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="408" operator="containsText" text="Pass">
+    <cfRule dxfId="390" operator="containsText" priority="408" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="389" priority="403" operator="equal">
+    <cfRule dxfId="389" operator="equal" priority="403" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="404" operator="equal">
+    <cfRule dxfId="388" operator="equal" priority="404" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="405" operator="equal">
+    <cfRule dxfId="387" operator="equal" priority="405" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="386" priority="400" operator="equal">
+    <cfRule dxfId="386" operator="equal" priority="400" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="401" operator="equal">
+    <cfRule dxfId="385" operator="equal" priority="401" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="402" operator="equal">
+    <cfRule dxfId="384" operator="equal" priority="402" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="containsText" dxfId="383" priority="397" operator="containsText" text="Skip:">
+    <cfRule dxfId="383" operator="containsText" priority="397" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="398" operator="containsText" text="Fail">
+    <cfRule dxfId="382" operator="containsText" priority="398" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="399" operator="containsText" text="Pass">
+    <cfRule dxfId="381" operator="containsText" priority="399" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="380" priority="394" operator="equal">
+    <cfRule dxfId="380" operator="equal" priority="394" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="395" operator="equal">
+    <cfRule dxfId="379" operator="equal" priority="395" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="396" operator="equal">
+    <cfRule dxfId="378" operator="equal" priority="396" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D178">
-    <cfRule type="containsText" dxfId="377" priority="391" operator="containsText" text="Skip:">
+    <cfRule dxfId="377" operator="containsText" priority="391" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D178)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="392" operator="containsText" text="Fail">
+    <cfRule dxfId="376" operator="containsText" priority="392" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D178)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="393" operator="containsText" text="Pass">
+    <cfRule dxfId="375" operator="containsText" priority="393" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="374" priority="388" operator="equal">
+    <cfRule dxfId="374" operator="equal" priority="388" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="389" operator="equal">
+    <cfRule dxfId="373" operator="equal" priority="389" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="390" operator="equal">
+    <cfRule dxfId="372" operator="equal" priority="390" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179">
-    <cfRule type="containsText" dxfId="371" priority="385" operator="containsText" text="Skip:">
+    <cfRule dxfId="371" operator="containsText" priority="385" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="386" operator="containsText" text="Fail">
+    <cfRule dxfId="370" operator="containsText" priority="386" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="387" operator="containsText" text="Pass">
+    <cfRule dxfId="369" operator="containsText" priority="387" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="cellIs" dxfId="368" priority="382" operator="equal">
+    <cfRule dxfId="368" operator="equal" priority="382" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="383" operator="equal">
+    <cfRule dxfId="367" operator="equal" priority="383" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="384" operator="equal">
+    <cfRule dxfId="366" operator="equal" priority="384" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D180">
-    <cfRule type="containsText" dxfId="365" priority="379" operator="containsText" text="Skip:">
+    <cfRule dxfId="365" operator="containsText" priority="379" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="380" operator="containsText" text="Fail">
+    <cfRule dxfId="364" operator="containsText" priority="380" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="381" operator="containsText" text="Pass">
+    <cfRule dxfId="363" operator="containsText" priority="381" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="cellIs" dxfId="362" priority="376" operator="equal">
+    <cfRule dxfId="362" operator="equal" priority="376" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="377" operator="equal">
+    <cfRule dxfId="361" operator="equal" priority="377" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="378" operator="equal">
+    <cfRule dxfId="360" operator="equal" priority="378" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D181">
-    <cfRule type="containsText" dxfId="359" priority="373" operator="containsText" text="Skip:">
+    <cfRule dxfId="359" operator="containsText" priority="373" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="374" operator="containsText" text="Fail">
+    <cfRule dxfId="358" operator="containsText" priority="374" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="375" operator="containsText" text="Pass">
+    <cfRule dxfId="357" operator="containsText" priority="375" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="cellIs" dxfId="356" priority="370" operator="equal">
+    <cfRule dxfId="356" operator="equal" priority="370" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="371" operator="equal">
+    <cfRule dxfId="355" operator="equal" priority="371" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="372" operator="equal">
+    <cfRule dxfId="354" operator="equal" priority="372" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D182">
-    <cfRule type="containsText" dxfId="353" priority="367" operator="containsText" text="Skip:">
+    <cfRule dxfId="353" operator="containsText" priority="367" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="368" operator="containsText" text="Fail">
+    <cfRule dxfId="352" operator="containsText" priority="368" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D182)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="369" operator="containsText" text="Pass">
+    <cfRule dxfId="351" operator="containsText" priority="369" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="cellIs" dxfId="350" priority="364" operator="equal">
+    <cfRule dxfId="350" operator="equal" priority="364" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="365" operator="equal">
+    <cfRule dxfId="349" operator="equal" priority="365" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="366" operator="equal">
+    <cfRule dxfId="348" operator="equal" priority="366" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183">
-    <cfRule type="containsText" dxfId="347" priority="361" operator="containsText" text="Skip:">
+    <cfRule dxfId="347" operator="containsText" priority="361" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="362" operator="containsText" text="Fail">
+    <cfRule dxfId="346" operator="containsText" priority="362" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="363" operator="containsText" text="Pass">
+    <cfRule dxfId="345" operator="containsText" priority="363" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="344" priority="358" operator="equal">
+    <cfRule dxfId="344" operator="equal" priority="358" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="359" operator="equal">
+    <cfRule dxfId="343" operator="equal" priority="359" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="360" operator="equal">
+    <cfRule dxfId="342" operator="equal" priority="360" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184">
-    <cfRule type="containsText" dxfId="341" priority="355" operator="containsText" text="Skip:">
+    <cfRule dxfId="341" operator="containsText" priority="355" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="356" operator="containsText" text="Fail">
+    <cfRule dxfId="340" operator="containsText" priority="356" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="357" operator="containsText" text="Pass">
+    <cfRule dxfId="339" operator="containsText" priority="357" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184">
-    <cfRule type="cellIs" dxfId="338" priority="352" operator="equal">
+    <cfRule dxfId="338" operator="equal" priority="352" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="353" operator="equal">
+    <cfRule dxfId="337" operator="equal" priority="353" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="354" operator="equal">
+    <cfRule dxfId="336" operator="equal" priority="354" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185">
-    <cfRule type="containsText" dxfId="335" priority="349" operator="containsText" text="Skip:">
+    <cfRule dxfId="335" operator="containsText" priority="349" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D185)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="350" operator="containsText" text="Fail">
+    <cfRule dxfId="334" operator="containsText" priority="350" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D185)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="351" operator="containsText" text="Pass">
+    <cfRule dxfId="333" operator="containsText" priority="351" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185">
-    <cfRule type="cellIs" dxfId="332" priority="346" operator="equal">
+    <cfRule dxfId="332" operator="equal" priority="346" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="347" operator="equal">
+    <cfRule dxfId="331" operator="equal" priority="347" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="348" operator="equal">
+    <cfRule dxfId="330" operator="equal" priority="348" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186">
-    <cfRule type="containsText" dxfId="329" priority="343" operator="containsText" text="Skip:">
+    <cfRule dxfId="329" operator="containsText" priority="343" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="344" operator="containsText" text="Fail">
+    <cfRule dxfId="328" operator="containsText" priority="344" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="345" operator="containsText" text="Pass">
+    <cfRule dxfId="327" operator="containsText" priority="345" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="cellIs" dxfId="326" priority="340" operator="equal">
+    <cfRule dxfId="326" operator="equal" priority="340" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="341" operator="equal">
+    <cfRule dxfId="325" operator="equal" priority="341" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="342" operator="equal">
+    <cfRule dxfId="324" operator="equal" priority="342" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="containsText" dxfId="323" priority="337" operator="containsText" text="Skip:">
+    <cfRule dxfId="323" operator="containsText" priority="337" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="338" operator="containsText" text="Fail">
+    <cfRule dxfId="322" operator="containsText" priority="338" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="339" operator="containsText" text="Pass">
+    <cfRule dxfId="321" operator="containsText" priority="339" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="320" priority="334" operator="equal">
+    <cfRule dxfId="320" operator="equal" priority="334" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="335" operator="equal">
+    <cfRule dxfId="319" operator="equal" priority="335" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="336" operator="equal">
+    <cfRule dxfId="318" operator="equal" priority="336" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189">
-    <cfRule type="containsText" dxfId="317" priority="331" operator="containsText" text="Skip:">
+    <cfRule dxfId="317" operator="containsText" priority="331" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="332" operator="containsText" text="Fail">
+    <cfRule dxfId="316" operator="containsText" priority="332" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="333" operator="containsText" text="Pass">
+    <cfRule dxfId="315" operator="containsText" priority="333" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="314" priority="328" operator="equal">
+    <cfRule dxfId="314" operator="equal" priority="328" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="329" operator="equal">
+    <cfRule dxfId="313" operator="equal" priority="329" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="330" operator="equal">
+    <cfRule dxfId="312" operator="equal" priority="330" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="containsText" dxfId="311" priority="325" operator="containsText" text="Skip:">
+    <cfRule dxfId="311" operator="containsText" priority="325" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="326" operator="containsText" text="Fail">
+    <cfRule dxfId="310" operator="containsText" priority="326" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="327" operator="containsText" text="Pass">
+    <cfRule dxfId="309" operator="containsText" priority="327" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="308" priority="322" operator="equal">
+    <cfRule dxfId="308" operator="equal" priority="322" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="323" operator="equal">
+    <cfRule dxfId="307" operator="equal" priority="323" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="324" operator="equal">
+    <cfRule dxfId="306" operator="equal" priority="324" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190">
-    <cfRule type="containsText" dxfId="305" priority="319" operator="containsText" text="Skip:">
+    <cfRule dxfId="305" operator="containsText" priority="319" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="320" operator="containsText" text="Fail">
+    <cfRule dxfId="304" operator="containsText" priority="320" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="321" operator="containsText" text="Pass">
+    <cfRule dxfId="303" operator="containsText" priority="321" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="302" priority="316" operator="equal">
+    <cfRule dxfId="302" operator="equal" priority="316" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="317" operator="equal">
+    <cfRule dxfId="301" operator="equal" priority="317" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="318" operator="equal">
+    <cfRule dxfId="300" operator="equal" priority="318" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D191">
-    <cfRule type="containsText" dxfId="299" priority="313" operator="containsText" text="Skip:">
+    <cfRule dxfId="299" operator="containsText" priority="313" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="314" operator="containsText" text="Fail">
+    <cfRule dxfId="298" operator="containsText" priority="314" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="315" operator="containsText" text="Pass">
+    <cfRule dxfId="297" operator="containsText" priority="315" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="296" priority="310" operator="equal">
+    <cfRule dxfId="296" operator="equal" priority="310" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="311" operator="equal">
+    <cfRule dxfId="295" operator="equal" priority="311" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="312" operator="equal">
+    <cfRule dxfId="294" operator="equal" priority="312" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D192">
-    <cfRule type="containsText" dxfId="293" priority="307" operator="containsText" text="Skip:">
+    <cfRule dxfId="293" operator="containsText" priority="307" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="308" operator="containsText" text="Fail">
+    <cfRule dxfId="292" operator="containsText" priority="308" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="309" operator="containsText" text="Pass">
+    <cfRule dxfId="291" operator="containsText" priority="309" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="cellIs" dxfId="290" priority="304" operator="equal">
+    <cfRule dxfId="290" operator="equal" priority="304" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="305" operator="equal">
+    <cfRule dxfId="289" operator="equal" priority="305" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="306" operator="equal">
+    <cfRule dxfId="288" operator="equal" priority="306" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D194">
-    <cfRule type="containsText" dxfId="287" priority="301" operator="containsText" text="Skip:">
+    <cfRule dxfId="287" operator="containsText" priority="301" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="302" operator="containsText" text="Fail">
+    <cfRule dxfId="286" operator="containsText" priority="302" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="303" operator="containsText" text="Pass">
+    <cfRule dxfId="285" operator="containsText" priority="303" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="284" priority="298" operator="equal">
+    <cfRule dxfId="284" operator="equal" priority="298" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="299" operator="equal">
+    <cfRule dxfId="283" operator="equal" priority="299" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="300" operator="equal">
+    <cfRule dxfId="282" operator="equal" priority="300" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193">
-    <cfRule type="containsText" dxfId="281" priority="295" operator="containsText" text="Skip:">
+    <cfRule dxfId="281" operator="containsText" priority="295" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="296" operator="containsText" text="Fail">
+    <cfRule dxfId="280" operator="containsText" priority="296" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="297" operator="containsText" text="Pass">
+    <cfRule dxfId="279" operator="containsText" priority="297" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="278" priority="292" operator="equal">
+    <cfRule dxfId="278" operator="equal" priority="292" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="293" operator="equal">
+    <cfRule dxfId="277" operator="equal" priority="293" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="294" operator="equal">
+    <cfRule dxfId="276" operator="equal" priority="294" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195">
-    <cfRule type="containsText" dxfId="275" priority="289" operator="containsText" text="Skip:">
+    <cfRule dxfId="275" operator="containsText" priority="289" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="290" operator="containsText" text="Fail">
+    <cfRule dxfId="274" operator="containsText" priority="290" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="291" operator="containsText" text="Pass">
+    <cfRule dxfId="273" operator="containsText" priority="291" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="272" priority="286" operator="equal">
+    <cfRule dxfId="272" operator="equal" priority="286" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="287" operator="equal">
+    <cfRule dxfId="271" operator="equal" priority="287" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="288" operator="equal">
+    <cfRule dxfId="270" operator="equal" priority="288" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D196:D207">
-    <cfRule type="containsText" dxfId="269" priority="283" operator="containsText" text="Skip:">
+    <cfRule dxfId="269" operator="containsText" priority="283" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="284" operator="containsText" text="Fail">
+    <cfRule dxfId="268" operator="containsText" priority="284" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="285" operator="containsText" text="Pass">
+    <cfRule dxfId="267" operator="containsText" priority="285" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="cellIs" dxfId="266" priority="280" operator="equal">
+    <cfRule dxfId="266" operator="equal" priority="280" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="281" operator="equal">
+    <cfRule dxfId="265" operator="equal" priority="281" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="282" operator="equal">
+    <cfRule dxfId="264" operator="equal" priority="282" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="cellIs" dxfId="263" priority="277" operator="equal">
+    <cfRule dxfId="263" operator="equal" priority="277" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="278" operator="equal">
+    <cfRule dxfId="262" operator="equal" priority="278" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="279" operator="equal">
+    <cfRule dxfId="261" operator="equal" priority="279" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="cellIs" dxfId="260" priority="274" operator="equal">
+    <cfRule dxfId="260" operator="equal" priority="274" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="275" operator="equal">
+    <cfRule dxfId="259" operator="equal" priority="275" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="276" operator="equal">
+    <cfRule dxfId="258" operator="equal" priority="276" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="257" priority="271" operator="equal">
+    <cfRule dxfId="257" operator="equal" priority="271" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="272" operator="equal">
+    <cfRule dxfId="256" operator="equal" priority="272" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="273" operator="equal">
+    <cfRule dxfId="255" operator="equal" priority="273" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199">
-    <cfRule type="cellIs" dxfId="254" priority="268" operator="equal">
+    <cfRule dxfId="254" operator="equal" priority="268" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="269" operator="equal">
+    <cfRule dxfId="253" operator="equal" priority="269" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="270" operator="equal">
+    <cfRule dxfId="252" operator="equal" priority="270" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="cellIs" dxfId="251" priority="265" operator="equal">
+    <cfRule dxfId="251" operator="equal" priority="265" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="266" operator="equal">
+    <cfRule dxfId="250" operator="equal" priority="266" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="267" operator="equal">
+    <cfRule dxfId="249" operator="equal" priority="267" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="248" priority="262" operator="equal">
+    <cfRule dxfId="248" operator="equal" priority="262" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="263" operator="equal">
+    <cfRule dxfId="247" operator="equal" priority="263" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="264" operator="equal">
+    <cfRule dxfId="246" operator="equal" priority="264" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="245" priority="259" operator="equal">
+    <cfRule dxfId="245" operator="equal" priority="259" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="260" operator="equal">
+    <cfRule dxfId="244" operator="equal" priority="260" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="261" operator="equal">
+    <cfRule dxfId="243" operator="equal" priority="261" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="242" priority="256" operator="equal">
+    <cfRule dxfId="242" operator="equal" priority="256" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="257" operator="equal">
+    <cfRule dxfId="241" operator="equal" priority="257" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="258" operator="equal">
+    <cfRule dxfId="240" operator="equal" priority="258" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205">
-    <cfRule type="cellIs" dxfId="239" priority="253" operator="equal">
+    <cfRule dxfId="239" operator="equal" priority="253" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="254" operator="equal">
+    <cfRule dxfId="238" operator="equal" priority="254" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="255" operator="equal">
+    <cfRule dxfId="237" operator="equal" priority="255" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206">
-    <cfRule type="cellIs" dxfId="236" priority="250" operator="equal">
+    <cfRule dxfId="236" operator="equal" priority="250" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="251" operator="equal">
+    <cfRule dxfId="235" operator="equal" priority="251" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="252" operator="equal">
+    <cfRule dxfId="234" operator="equal" priority="252" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E207">
-    <cfRule type="cellIs" dxfId="233" priority="247" operator="equal">
+    <cfRule dxfId="233" operator="equal" priority="247" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="248" operator="equal">
+    <cfRule dxfId="232" operator="equal" priority="248" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="249" operator="equal">
+    <cfRule dxfId="231" operator="equal" priority="249" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208:D218">
-    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="Skip:">
+    <cfRule dxfId="230" operator="containsText" priority="244" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="Fail">
+    <cfRule dxfId="229" operator="containsText" priority="245" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="246" operator="containsText" text="Pass">
+    <cfRule dxfId="228" operator="containsText" priority="246" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="cellIs" dxfId="227" priority="241" operator="equal">
+    <cfRule dxfId="227" operator="equal" priority="241" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
+    <cfRule dxfId="226" operator="equal" priority="242" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
+    <cfRule dxfId="225" operator="equal" priority="243" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+    <cfRule dxfId="224" operator="equal" priority="238" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
+    <cfRule dxfId="223" operator="equal" priority="239" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
+    <cfRule dxfId="222" operator="equal" priority="240" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="cellIs" dxfId="221" priority="235" operator="equal">
+    <cfRule dxfId="221" operator="equal" priority="235" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="236" operator="equal">
+    <cfRule dxfId="220" operator="equal" priority="236" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="237" operator="equal">
+    <cfRule dxfId="219" operator="equal" priority="237" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="cellIs" dxfId="218" priority="232" operator="equal">
+    <cfRule dxfId="218" operator="equal" priority="232" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="233" operator="equal">
+    <cfRule dxfId="217" operator="equal" priority="233" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="234" operator="equal">
+    <cfRule dxfId="216" operator="equal" priority="234" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E211">
-    <cfRule type="cellIs" dxfId="215" priority="229" operator="equal">
+    <cfRule dxfId="215" operator="equal" priority="229" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="230" operator="equal">
+    <cfRule dxfId="214" operator="equal" priority="230" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="231" operator="equal">
+    <cfRule dxfId="213" operator="equal" priority="231" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E213">
-    <cfRule type="cellIs" dxfId="212" priority="226" operator="equal">
+    <cfRule dxfId="212" operator="equal" priority="226" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="227" operator="equal">
+    <cfRule dxfId="211" operator="equal" priority="227" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="228" operator="equal">
+    <cfRule dxfId="210" operator="equal" priority="228" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214">
-    <cfRule type="cellIs" dxfId="209" priority="223" operator="equal">
+    <cfRule dxfId="209" operator="equal" priority="223" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="224" operator="equal">
+    <cfRule dxfId="208" operator="equal" priority="224" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="225" operator="equal">
+    <cfRule dxfId="207" operator="equal" priority="225" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E215">
-    <cfRule type="cellIs" dxfId="206" priority="220" operator="equal">
+    <cfRule dxfId="206" operator="equal" priority="220" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="221" operator="equal">
+    <cfRule dxfId="205" operator="equal" priority="221" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="222" operator="equal">
+    <cfRule dxfId="204" operator="equal" priority="222" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="203" priority="217" operator="equal">
+    <cfRule dxfId="203" operator="equal" priority="217" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="218" operator="equal">
+    <cfRule dxfId="202" operator="equal" priority="218" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="219" operator="equal">
+    <cfRule dxfId="201" operator="equal" priority="219" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217">
-    <cfRule type="cellIs" dxfId="200" priority="214" operator="equal">
+    <cfRule dxfId="200" operator="equal" priority="214" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="215" operator="equal">
+    <cfRule dxfId="199" operator="equal" priority="215" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="216" operator="equal">
+    <cfRule dxfId="198" operator="equal" priority="216" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E218">
-    <cfRule type="cellIs" dxfId="197" priority="211" operator="equal">
+    <cfRule dxfId="197" operator="equal" priority="211" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="212" operator="equal">
+    <cfRule dxfId="196" operator="equal" priority="212" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="213" operator="equal">
+    <cfRule dxfId="195" operator="equal" priority="213" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D260">
-    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="Skip:">
+    <cfRule dxfId="194" operator="containsText" priority="205" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="206" operator="containsText" text="Fail">
+    <cfRule dxfId="193" operator="containsText" priority="206" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="207" operator="containsText" text="Pass">
+    <cfRule dxfId="192" operator="containsText" priority="207" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D260">
-    <cfRule type="containsText" dxfId="191" priority="208" operator="containsText" text="Skip:">
+    <cfRule dxfId="191" operator="containsText" priority="208" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="209" operator="containsText" text="Fail">
+    <cfRule dxfId="190" operator="containsText" priority="209" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="210" operator="containsText" text="Pass">
+    <cfRule dxfId="189" operator="containsText" priority="210" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E260">
-    <cfRule type="cellIs" dxfId="188" priority="202" operator="equal">
+    <cfRule dxfId="188" operator="equal" priority="202" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="203" operator="equal">
+    <cfRule dxfId="187" operator="equal" priority="203" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="204" operator="equal">
+    <cfRule dxfId="186" operator="equal" priority="204" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261">
-    <cfRule type="containsText" dxfId="185" priority="196" operator="containsText" text="Skip:">
+    <cfRule dxfId="185" operator="containsText" priority="196" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="Fail">
+    <cfRule dxfId="184" operator="containsText" priority="197" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="198" operator="containsText" text="Pass">
+    <cfRule dxfId="183" operator="containsText" priority="198" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261">
-    <cfRule type="containsText" dxfId="182" priority="199" operator="containsText" text="Skip:">
+    <cfRule dxfId="182" operator="containsText" priority="199" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="200" operator="containsText" text="Fail">
+    <cfRule dxfId="181" operator="containsText" priority="200" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="201" operator="containsText" text="Pass">
+    <cfRule dxfId="180" operator="containsText" priority="201" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E261">
-    <cfRule type="cellIs" dxfId="179" priority="193" operator="equal">
+    <cfRule dxfId="179" operator="equal" priority="193" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="194" operator="equal">
+    <cfRule dxfId="178" operator="equal" priority="194" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="195" operator="equal">
+    <cfRule dxfId="177" operator="equal" priority="195" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="containsText" dxfId="176" priority="187" operator="containsText" text="Skip:">
+    <cfRule dxfId="176" operator="containsText" priority="187" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="188" operator="containsText" text="Fail">
+    <cfRule dxfId="175" operator="containsText" priority="188" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="189" operator="containsText" text="Pass">
+    <cfRule dxfId="174" operator="containsText" priority="189" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="containsText" dxfId="173" priority="190" operator="containsText" text="Skip:">
+    <cfRule dxfId="173" operator="containsText" priority="190" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="191" operator="containsText" text="Fail">
+    <cfRule dxfId="172" operator="containsText" priority="191" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="192" operator="containsText" text="Pass">
+    <cfRule dxfId="171" operator="containsText" priority="192" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="cellIs" dxfId="170" priority="184" operator="equal">
+    <cfRule dxfId="170" operator="equal" priority="184" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="185" operator="equal">
+    <cfRule dxfId="169" operator="equal" priority="185" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="186" operator="equal">
+    <cfRule dxfId="168" operator="equal" priority="186" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="167" priority="178" operator="equal">
+    <cfRule dxfId="167" operator="equal" priority="178" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="179" operator="equal">
+    <cfRule dxfId="166" operator="equal" priority="179" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="180" operator="equal">
+    <cfRule dxfId="165" operator="equal" priority="180" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="Skip:">
+    <cfRule dxfId="164" operator="containsText" priority="181" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="182" operator="containsText" text="Fail">
+    <cfRule dxfId="163" operator="containsText" priority="182" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Pass">
+    <cfRule dxfId="162" operator="containsText" priority="183" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="161" priority="172" operator="equal">
+    <cfRule dxfId="161" operator="equal" priority="172" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="173" operator="equal">
+    <cfRule dxfId="160" operator="equal" priority="173" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="174" operator="equal">
+    <cfRule dxfId="159" operator="equal" priority="174" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="containsText" dxfId="158" priority="175" operator="containsText" text="Skip:">
+    <cfRule dxfId="158" operator="containsText" priority="175" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="Fail">
+    <cfRule dxfId="157" operator="containsText" priority="176" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Pass">
+    <cfRule dxfId="156" operator="containsText" priority="177" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="155" priority="166" operator="equal">
+    <cfRule dxfId="155" operator="equal" priority="166" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="167" operator="equal">
+    <cfRule dxfId="154" operator="equal" priority="167" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="168" operator="equal">
+    <cfRule dxfId="153" operator="equal" priority="168" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="containsText" dxfId="152" priority="169" operator="containsText" text="Skip:">
+    <cfRule dxfId="152" operator="containsText" priority="169" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="170" operator="containsText" text="Fail">
+    <cfRule dxfId="151" operator="containsText" priority="170" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Pass">
+    <cfRule dxfId="150" operator="containsText" priority="171" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="149" priority="160" operator="equal">
+    <cfRule dxfId="149" operator="equal" priority="160" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="161" operator="equal">
+    <cfRule dxfId="148" operator="equal" priority="161" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="162" operator="equal">
+    <cfRule dxfId="147" operator="equal" priority="162" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="containsText" dxfId="146" priority="163" operator="containsText" text="Skip:">
+    <cfRule dxfId="146" operator="containsText" priority="163" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="164" operator="containsText" text="Fail">
+    <cfRule dxfId="145" operator="containsText" priority="164" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="165" operator="containsText" text="Pass">
+    <cfRule dxfId="144" operator="containsText" priority="165" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="143" priority="154" operator="equal">
+    <cfRule dxfId="143" operator="equal" priority="154" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="155" operator="equal">
+    <cfRule dxfId="142" operator="equal" priority="155" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="156" operator="equal">
+    <cfRule dxfId="141" operator="equal" priority="156" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="Skip:">
+    <cfRule dxfId="140" operator="containsText" priority="157" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="158" operator="containsText" text="Fail">
+    <cfRule dxfId="139" operator="containsText" priority="158" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Pass">
+    <cfRule dxfId="138" operator="containsText" priority="159" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
+    <cfRule dxfId="137" operator="equal" priority="148" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="149" operator="equal">
+    <cfRule dxfId="136" operator="equal" priority="149" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="150" operator="equal">
+    <cfRule dxfId="135" operator="equal" priority="150" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="Skip:">
+    <cfRule dxfId="134" operator="containsText" priority="151" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="Fail">
+    <cfRule dxfId="133" operator="containsText" priority="152" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="153" operator="containsText" text="Pass">
+    <cfRule dxfId="132" operator="containsText" priority="153" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+    <cfRule dxfId="131" operator="equal" priority="142" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+    <cfRule dxfId="130" operator="equal" priority="143" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
+    <cfRule dxfId="129" operator="equal" priority="144" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text="Skip:">
+    <cfRule dxfId="128" operator="containsText" priority="145" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="Fail">
+    <cfRule dxfId="127" operator="containsText" priority="146" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Pass">
+    <cfRule dxfId="126" operator="containsText" priority="147" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
+    <cfRule dxfId="125" operator="equal" priority="136" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="137" operator="equal">
+    <cfRule dxfId="124" operator="equal" priority="137" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="138" operator="equal">
+    <cfRule dxfId="123" operator="equal" priority="138" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="Skip:">
+    <cfRule dxfId="122" operator="containsText" priority="139" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="Fail">
+    <cfRule dxfId="121" operator="containsText" priority="140" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="141" operator="containsText" text="Pass">
+    <cfRule dxfId="120" operator="containsText" priority="141" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D219:D220">
-    <cfRule type="containsText" dxfId="119" priority="133" operator="containsText" text="Skip:">
+    <cfRule dxfId="119" operator="containsText" priority="133" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="134" operator="containsText" text="Fail">
+    <cfRule dxfId="118" operator="containsText" priority="134" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="135" operator="containsText" text="Pass">
+    <cfRule dxfId="117" operator="containsText" priority="135" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E219">
-    <cfRule type="cellIs" dxfId="116" priority="130" operator="equal">
+    <cfRule dxfId="116" operator="equal" priority="130" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
+    <cfRule dxfId="115" operator="equal" priority="131" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
+    <cfRule dxfId="114" operator="equal" priority="132" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E220">
-    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
+    <cfRule dxfId="113" operator="equal" priority="127" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
+    <cfRule dxfId="112" operator="equal" priority="128" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="129" operator="equal">
+    <cfRule dxfId="111" operator="equal" priority="129" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D221">
-    <cfRule type="containsText" dxfId="110" priority="124" operator="containsText" text="Skip:">
+    <cfRule dxfId="110" operator="containsText" priority="124" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="125" operator="containsText" text="Fail">
+    <cfRule dxfId="109" operator="containsText" priority="125" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="126" operator="containsText" text="Pass">
+    <cfRule dxfId="108" operator="containsText" priority="126" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
-    <cfRule type="cellIs" dxfId="107" priority="121" operator="equal">
+    <cfRule dxfId="107" operator="equal" priority="121" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="122" operator="equal">
+    <cfRule dxfId="106" operator="equal" priority="122" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
+    <cfRule dxfId="105" operator="equal" priority="123" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D222:D225">
-    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
+    <cfRule dxfId="104" operator="containsText" priority="118" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
+    <cfRule dxfId="103" operator="containsText" priority="119" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
+    <cfRule dxfId="102" operator="containsText" priority="120" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D222)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E222:E225">
-    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+    <cfRule dxfId="101" operator="equal" priority="115" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+    <cfRule dxfId="100" operator="equal" priority="116" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="117" operator="equal">
+    <cfRule dxfId="99" operator="equal" priority="117" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226">
-    <cfRule type="containsText" dxfId="98" priority="112" operator="containsText" text="Skip:">
+    <cfRule dxfId="98" operator="containsText" priority="112" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="113" operator="containsText" text="Fail">
+    <cfRule dxfId="97" operator="containsText" priority="113" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="114" operator="containsText" text="Pass">
+    <cfRule dxfId="96" operator="containsText" priority="114" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E226">
-    <cfRule type="cellIs" dxfId="95" priority="109" operator="equal">
+    <cfRule dxfId="95" operator="equal" priority="109" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="110" operator="equal">
+    <cfRule dxfId="94" operator="equal" priority="110" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="111" operator="equal">
+    <cfRule dxfId="93" operator="equal" priority="111" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="containsText" dxfId="92" priority="106" operator="containsText" text="Skip:">
+    <cfRule dxfId="92" operator="containsText" priority="106" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="107" operator="containsText" text="Fail">
+    <cfRule dxfId="91" operator="containsText" priority="107" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="108" operator="containsText" text="Pass">
+    <cfRule dxfId="90" operator="containsText" priority="108" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E227">
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+    <cfRule dxfId="89" operator="equal" priority="103" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+    <cfRule dxfId="88" operator="equal" priority="104" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+    <cfRule dxfId="87" operator="equal" priority="105" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D228:D231">
-    <cfRule type="containsText" dxfId="86" priority="100" operator="containsText" text="Skip:">
+    <cfRule dxfId="86" operator="containsText" priority="100" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="101" operator="containsText" text="Fail">
+    <cfRule dxfId="85" operator="containsText" priority="101" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="102" operator="containsText" text="Pass">
+    <cfRule dxfId="84" operator="containsText" priority="102" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E228">
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
+    <cfRule dxfId="83" operator="equal" priority="97" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
+    <cfRule dxfId="82" operator="equal" priority="98" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
+    <cfRule dxfId="81" operator="equal" priority="99" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
+    <cfRule dxfId="80" operator="equal" priority="91" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
+    <cfRule dxfId="79" operator="equal" priority="92" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="93" operator="equal">
+    <cfRule dxfId="78" operator="equal" priority="93" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
+    <cfRule dxfId="77" operator="equal" priority="85" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="86" operator="equal">
+    <cfRule dxfId="76" operator="equal" priority="86" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="87" operator="equal">
+    <cfRule dxfId="75" operator="equal" priority="87" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E231">
-    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
+    <cfRule dxfId="74" operator="equal" priority="79" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
+    <cfRule dxfId="73" operator="equal" priority="80" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
+    <cfRule dxfId="72" operator="equal" priority="81" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule dxfId="71" operator="equal" priority="73" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+    <cfRule dxfId="70" operator="equal" priority="74" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+    <cfRule dxfId="69" operator="equal" priority="75" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="containsText" dxfId="68" priority="76" operator="containsText" text="Skip:">
+    <cfRule dxfId="68" operator="containsText" priority="76" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="77" operator="containsText" text="Fail">
+    <cfRule dxfId="67" operator="containsText" priority="77" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="78" operator="containsText" text="Pass">
+    <cfRule dxfId="66" operator="containsText" priority="78" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule dxfId="65" operator="equal" priority="67" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule dxfId="64" operator="equal" priority="68" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule dxfId="63" operator="equal" priority="69" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="containsText" dxfId="62" priority="70" operator="containsText" text="Skip:">
+    <cfRule dxfId="62" operator="containsText" priority="70" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="71" operator="containsText" text="Fail">
+    <cfRule dxfId="61" operator="containsText" priority="71" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="72" operator="containsText" text="Pass">
+    <cfRule dxfId="60" operator="containsText" priority="72" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule dxfId="59" operator="equal" priority="61" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule dxfId="58" operator="equal" priority="62" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule dxfId="57" operator="equal" priority="63" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Skip:">
+    <cfRule dxfId="56" operator="containsText" priority="64" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="Fail">
+    <cfRule dxfId="55" operator="containsText" priority="65" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="66" operator="containsText" text="Pass">
+    <cfRule dxfId="54" operator="containsText" priority="66" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule dxfId="53" operator="equal" priority="55" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule dxfId="52" operator="equal" priority="56" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule dxfId="51" operator="equal" priority="57" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="Skip:">
+    <cfRule dxfId="50" operator="containsText" priority="58" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Fail">
+    <cfRule dxfId="49" operator="containsText" priority="59" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="Pass">
+    <cfRule dxfId="48" operator="containsText" priority="60" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule dxfId="47" operator="equal" priority="49" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule dxfId="46" operator="equal" priority="50" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule dxfId="45" operator="equal" priority="51" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Skip:">
+    <cfRule dxfId="44" operator="containsText" priority="52" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
+    <cfRule dxfId="43" operator="containsText" priority="53" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
+    <cfRule dxfId="42" operator="containsText" priority="54" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule dxfId="41" operator="equal" priority="43" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule dxfId="40" operator="equal" priority="44" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule dxfId="39" operator="equal" priority="45" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
+    <cfRule dxfId="38" operator="containsText" priority="46" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
+    <cfRule dxfId="37" operator="containsText" priority="47" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
+    <cfRule dxfId="36" operator="containsText" priority="48" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule dxfId="35" operator="equal" priority="37" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule dxfId="34" operator="equal" priority="38" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule dxfId="33" operator="equal" priority="39" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="Skip:">
+    <cfRule dxfId="32" operator="containsText" priority="40" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Fail">
+    <cfRule dxfId="31" operator="containsText" priority="41" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="Pass">
+    <cfRule dxfId="30" operator="containsText" priority="42" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule dxfId="29" operator="equal" priority="31" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule dxfId="28" operator="equal" priority="32" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule dxfId="27" operator="equal" priority="33" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="Skip:">
+    <cfRule dxfId="26" operator="containsText" priority="34" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="Fail">
+    <cfRule dxfId="25" operator="containsText" priority="35" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="36" operator="containsText" text="Pass">
+    <cfRule dxfId="24" operator="containsText" priority="36" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule dxfId="23" operator="equal" priority="25" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule dxfId="22" operator="equal" priority="26" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule dxfId="21" operator="equal" priority="27" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="Skip:">
+    <cfRule dxfId="20" operator="containsText" priority="28" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="Fail">
+    <cfRule dxfId="19" operator="containsText" priority="29" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="Pass">
+    <cfRule dxfId="18" operator="containsText" priority="30" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule dxfId="17" operator="equal" priority="13" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="14" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="15" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+    <cfRule dxfId="14" operator="containsText" priority="16" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+    <cfRule dxfId="13" operator="containsText" priority="17" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+    <cfRule dxfId="12" operator="containsText" priority="18" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule dxfId="11" operator="equal" priority="7" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="8" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule dxfId="9" operator="equal" priority="9" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Skip:">
+    <cfRule dxfId="8" operator="containsText" priority="10" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Fail">
+    <cfRule dxfId="7" operator="containsText" priority="11" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Pass">
+    <cfRule dxfId="6" operator="containsText" priority="12" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
+    <cfRule dxfId="5" operator="containsText" priority="4" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule dxfId="4" operator="containsText" priority="5" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule dxfId="3" operator="containsText" priority="6" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="1" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="2" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="3" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C262">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C262" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E262">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E262" type="list">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C3" pane="bottomLeft" sqref="C3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -20009,9 +20010,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
+    <hyperlink display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" r:id="rId1" ref="E3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases - Copy.xlsx
+++ b/TestCases - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="478">
   <si>
     <t>Module_Name</t>
   </si>
@@ -1231,9 +1231,6 @@
     <t>M7Tc013_UpdateTheStatusOfMATouchPointTask_1AndVerifyImpactOnLastTouchPoint</t>
   </si>
   <si>
-    <t>M7Tc014_DeleteNewlyUpdatedTaskAndVerifyTheImpactOnLastTouchPointInContactPage</t>
-  </si>
-  <si>
     <t>M7Tc015_CreateNewTask</t>
   </si>
   <si>
@@ -1396,15 +1393,6 @@
     <t>M8Tc041_2_checkErrorMsgAfterAddEditPermissionOfPEStandardUser</t>
   </si>
   <si>
-    <t>M1Tc042_1_createFieldsForCustomObjectWithMaxChar</t>
-  </si>
-  <si>
-    <t>M1Tc042_2_verifycreatedFieldsForCustomObjectWithMaxChar</t>
-  </si>
-  <si>
-    <t>M1Tc043_verifyAddDuplicateFieldAndCheckErrorMsg</t>
-  </si>
-  <si>
     <t>M7Tc056_UpdateMeetingTypeOfMeeting1InStandardTask</t>
   </si>
   <si>
@@ -1448,6 +1436,33 @@
   </si>
   <si>
     <t>M7Tc070_DeleteTheCreatedMeetingAndVerifyTheLastTouchPointOnTheContact</t>
+  </si>
+  <si>
+    <t>M8Tc042_1_createFieldsForCustomObjectWithMaxChar</t>
+  </si>
+  <si>
+    <t>M8Tc042_2_verifycreatedFieldsForCustomObjectWithMaxChar</t>
+  </si>
+  <si>
+    <t>M8Tc043_verifyAddDuplicateFieldAndCheckErrorMsg</t>
+  </si>
+  <si>
+    <t>M8Tc044_1_renameCreatedStandardObjectAndCheckImpact</t>
+  </si>
+  <si>
+    <t>M8Tc044_2_verifyRenameObjectInDealSDGGrid</t>
+  </si>
+  <si>
+    <t>M1Tc045_1_removeObjectPermissionFromObject</t>
+  </si>
+  <si>
+    <t>M8Tc045_2_verifyObjectVisibilityAfterRemoveObjectPermission</t>
+  </si>
+  <si>
+    <t>M1Tc045_3_giveObjectPermissionFromObject</t>
+  </si>
+  <si>
+    <t>M8Tc045_4_verifyObjectVisibilityAfterAddingObjectPermission</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,10 +1701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1699,7 +1714,385 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="1288">
+  <dxfs count="1324">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -15526,8 +15919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15620,142 +16013,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="1287" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="1323" priority="71" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="1286" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="72" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="1285" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="1321" priority="69" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="1284" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="70" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="1283" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="47" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="1282" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1318" priority="48" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="1281" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="1280" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="46" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1279" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1315" priority="27" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1278" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1277" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="25" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1276" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1312" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1275" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="23" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1274" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="24" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1273" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1309" priority="21" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1272" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="22" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1271" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1270" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1306" priority="20" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1269" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1305" priority="17" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1268" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1304" priority="18" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="1267" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1303" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="1266" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="16" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="1265" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="1264" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1300" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="1263" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="1262" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1298" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="1261" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1297" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="1260" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1296" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15772,10 +16165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F396"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347:XFD347"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20504,7 +20897,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="16" t="s">
+      <c r="A288" s="7" t="s">
         <v>400</v>
       </c>
       <c r="B288" s="8"/>
@@ -20516,9 +20909,6 @@
       </c>
       <c r="E288" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="F288">
-        <v>29845</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20552,7 +20942,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B291" s="8"/>
@@ -20670,6 +21060,9 @@
       <c r="E298" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F298">
+        <v>29845</v>
+      </c>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
@@ -20685,9 +21078,6 @@
       <c r="E299" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F299">
-        <v>29845</v>
-      </c>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
@@ -20703,6 +21093,9 @@
       <c r="E300" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F300">
+        <v>29845</v>
+      </c>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
@@ -20718,9 +21111,6 @@
       <c r="E301" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F301">
-        <v>29845</v>
-      </c>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
@@ -20751,6 +21141,9 @@
       <c r="E303" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F303">
+        <v>29845</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
@@ -20766,9 +21159,6 @@
       <c r="E304" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F304">
-        <v>29845</v>
-      </c>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
@@ -20844,10 +21234,13 @@
       <c r="E309" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F309">
+        <v>29845</v>
+      </c>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="7" t="s">
-        <v>422</v>
+      <c r="A310" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="3" t="s">
@@ -20859,13 +21252,10 @@
       <c r="E310" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F310">
-        <v>29845</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="3" t="s">
@@ -20878,9 +21268,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="3" t="s">
@@ -20970,7 +21360,7 @@
     </row>
     <row r="318" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="3" t="s">
@@ -20997,6 +21387,9 @@
       <c r="E319" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F319">
+        <v>29855</v>
+      </c>
     </row>
     <row r="320" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
@@ -21013,7 +21406,7 @@
         <v>367</v>
       </c>
       <c r="F320">
-        <v>29855</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21031,7 +21424,7 @@
         <v>367</v>
       </c>
       <c r="F321">
-        <v>29847</v>
+        <v>29857</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21048,9 +21441,6 @@
       <c r="E322" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F322">
-        <v>29857</v>
-      </c>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
@@ -21128,7 +21518,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="17" t="s">
         <v>443</v>
       </c>
       <c r="B328" s="8"/>
@@ -21174,7 +21564,7 @@
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="3" t="s">
@@ -21189,7 +21579,7 @@
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B332" s="8"/>
       <c r="C332" s="3" t="s">
@@ -21204,7 +21594,7 @@
     </row>
     <row r="333" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B333" s="8"/>
       <c r="C333" s="3" t="s">
@@ -21219,7 +21609,7 @@
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="3" t="s">
@@ -21234,7 +21624,7 @@
     </row>
     <row r="335" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="3" t="s">
@@ -21249,7 +21639,7 @@
     </row>
     <row r="336" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="3" t="s">
@@ -21264,7 +21654,7 @@
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="3" t="s">
@@ -21279,7 +21669,7 @@
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="3" t="s">
@@ -21294,7 +21684,7 @@
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="3" t="s">
@@ -21309,7 +21699,7 @@
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="3" t="s">
@@ -21324,7 +21714,7 @@
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="3" t="s">
@@ -21339,7 +21729,7 @@
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="3" t="s">
@@ -21354,7 +21744,7 @@
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="3" t="s">
@@ -21369,7 +21759,7 @@
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="3" t="s">
@@ -21384,7 +21774,7 @@
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="3" t="s">
@@ -21398,8 +21788,8 @@
       </c>
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="7" t="s">
-        <v>472</v>
+      <c r="A346" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="3" t="s">
@@ -21413,7 +21803,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="17" t="s">
+      <c r="A347" s="7" t="s">
         <v>431</v>
       </c>
       <c r="B347" s="8"/>
@@ -21444,9 +21834,11 @@
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B349" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="C349" s="3" t="s">
         <v>7</v>
       </c>
@@ -21459,27 +21851,27 @@
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D350" t="s">
         <v>8</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>87</v>
+        <v>232</v>
+      </c>
+      <c r="B351" s="8">
+        <v>7</v>
       </c>
       <c r="C351" s="15" t="s">
         <v>7</v>
@@ -21493,7 +21885,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B352" s="8">
         <v>7</v>
@@ -21510,7 +21902,7 @@
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B353" s="8">
         <v>7</v>
@@ -21527,7 +21919,7 @@
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B354" s="8">
         <v>7</v>
@@ -21544,11 +21936,9 @@
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B355" s="8">
-        <v>7</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B355" s="8"/>
       <c r="C355" s="15" t="s">
         <v>7</v>
       </c>
@@ -21561,7 +21951,7 @@
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="15" t="s">
@@ -21576,7 +21966,7 @@
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="15" t="s">
@@ -21591,7 +21981,7 @@
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="15" t="s">
@@ -21606,7 +21996,7 @@
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="15" t="s">
@@ -21621,7 +22011,7 @@
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="15" t="s">
@@ -21636,7 +22026,7 @@
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="15" t="s">
@@ -21651,7 +22041,7 @@
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="15" t="s">
@@ -21666,7 +22056,7 @@
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="15" t="s">
@@ -21681,7 +22071,7 @@
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="15" t="s">
@@ -21696,7 +22086,7 @@
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="15" t="s">
@@ -21711,7 +22101,7 @@
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="15" t="s">
@@ -21726,7 +22116,7 @@
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="15" t="s">
@@ -21741,7 +22131,7 @@
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="15" t="s">
@@ -21756,7 +22146,7 @@
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="15" t="s">
@@ -21771,7 +22161,7 @@
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="15" t="s">
@@ -21786,7 +22176,7 @@
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="15" t="s">
@@ -21801,7 +22191,7 @@
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="15" t="s">
@@ -21816,7 +22206,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="15" t="s">
@@ -21831,7 +22221,7 @@
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="15" t="s">
@@ -21846,7 +22236,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="15" t="s">
@@ -21861,7 +22251,7 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="15" t="s">
@@ -21876,7 +22266,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="15" t="s">
@@ -21891,7 +22281,7 @@
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="15" t="s">
@@ -21906,7 +22296,7 @@
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="15" t="s">
@@ -21921,7 +22311,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="15" t="s">
@@ -21936,7 +22326,7 @@
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="15" t="s">
@@ -21951,7 +22341,7 @@
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="15" t="s">
@@ -21966,7 +22356,7 @@
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="15" t="s">
@@ -21981,7 +22371,7 @@
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="15" t="s">
@@ -21995,8 +22385,8 @@
       </c>
     </row>
     <row r="385" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="7" t="s">
-        <v>397</v>
+      <c r="A385" t="s">
+        <v>446</v>
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="15" t="s">
@@ -22116,7 +22506,7 @@
     </row>
     <row r="393" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="15" t="s">
@@ -22131,7 +22521,7 @@
     </row>
     <row r="394" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="15" t="s">
@@ -22146,7 +22536,7 @@
     </row>
     <row r="395" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="15" t="s">
@@ -22161,7 +22551,7 @@
     </row>
     <row r="396" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="15" t="s">
@@ -22171,342 +22561,549 @@
         <v>8</v>
       </c>
       <c r="E396" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>473</v>
+      </c>
+      <c r="B397" s="8"/>
+      <c r="C397" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>474</v>
+      </c>
+      <c r="B398" s="8"/>
+      <c r="C398" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" t="s">
+        <v>8</v>
+      </c>
+      <c r="E398" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>475</v>
+      </c>
+      <c r="B399" s="8"/>
+      <c r="C399" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>476</v>
+      </c>
+      <c r="B400" s="8"/>
+      <c r="C400" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" t="s">
+        <v>8</v>
+      </c>
+      <c r="E400" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>477</v>
+      </c>
+      <c r="B401" s="8"/>
+      <c r="C401" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" t="s">
+        <v>8</v>
+      </c>
+      <c r="E401" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E199"/>
   <conditionalFormatting sqref="E39 E154:E172 E174:E181 E2:E4 E223:E274">
-    <cfRule type="cellIs" dxfId="1259" priority="3475" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="3511" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1258" priority="3476" operator="equal">
+    <cfRule type="cellIs" dxfId="1294" priority="3512" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="3477" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="3513" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159:D172 D174:D181 D2:D4 D223:D268">
-    <cfRule type="containsText" dxfId="1256" priority="3514" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1292" priority="3550" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1255" priority="3515" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1291" priority="3551" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="3516" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1290" priority="3552" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="1253" priority="3496" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1289" priority="3532" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1252" priority="3497" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1288" priority="3533" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1251" priority="3498" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1287" priority="3534" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="1250" priority="3499" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1286" priority="3535" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="3500" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1285" priority="3536" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1248" priority="3501" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1284" priority="3537" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="1247" priority="3490" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1283" priority="3526" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1246" priority="3491" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1282" priority="3527" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1245" priority="3492" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1281" priority="3528" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="1244" priority="3493" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1280" priority="3529" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="3494" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1279" priority="3530" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="3495" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1278" priority="3531" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="1241" priority="3478" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="3514" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="3479" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="3515" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1239" priority="3480" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="3516" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="1238" priority="3370" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1274" priority="3406" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1237" priority="3371" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1273" priority="3407" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1236" priority="3372" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1272" priority="3408" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="1235" priority="3373" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1271" priority="3409" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1234" priority="3374" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1270" priority="3410" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1233" priority="3375" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1269" priority="3411" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="1232" priority="3367" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="3403" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1231" priority="3368" operator="equal">
+    <cfRule type="cellIs" dxfId="1267" priority="3404" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1230" priority="3369" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="3405" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="1229" priority="3439" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="1265" priority="3475" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="3440" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1264" priority="3476" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1227" priority="3441" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1263" priority="3477" operator="containsText" text="Pass">
 